--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933B00C7-A734-4786-8346-FE881773B2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEAF87C-F59E-44C2-9EFF-9512F1D868A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="hasil evaluasi" sheetId="2" r:id="rId1"/>
+    <sheet name="template hasil" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -245,12 +245,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -263,17 +257,23 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,1114 +576,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:J37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="C4" s="22">
-        <v>1.34E-2</v>
-      </c>
-      <c r="D4" s="22">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="E4" s="22">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="22">
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="H4" s="22">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="I4" s="22">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="J4" s="22">
-        <v>3.2599999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22">
-        <v>0.996</v>
-      </c>
-      <c r="C5" s="22">
-        <v>1.47E-2</v>
-      </c>
-      <c r="D5" s="22">
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="E5" s="22">
-        <v>3.5900000000000001E-2</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H5" s="22">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="I5" s="22">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="J5" s="22">
-        <v>2.81E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
-        <v>3</v>
-      </c>
-      <c r="B6" s="22">
-        <v>0.99660000000000004</v>
-      </c>
-      <c r="C6" s="22">
-        <v>1.23E-2</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="E6" s="22">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H6" s="22">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="I6" s="22">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="J6" s="22">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
-        <v>4</v>
-      </c>
-      <c r="B7" s="22">
-        <v>0.99670000000000003</v>
-      </c>
-      <c r="C7" s="22">
-        <v>1.29E-2</v>
-      </c>
-      <c r="D7" s="22">
-        <v>2.06E-2</v>
-      </c>
-      <c r="E7" s="22">
-        <v>2.64E-2</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="22">
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="H7" s="22">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="I7" s="22">
-        <v>1.44E-2</v>
-      </c>
-      <c r="J7" s="22">
-        <v>2.1499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
-        <v>5</v>
-      </c>
-      <c r="B8" s="22">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="C8" s="22">
-        <v>1.49E-2</v>
-      </c>
-      <c r="D8" s="22">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="E8" s="22">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H8" s="22">
-        <v>1.21E-2</v>
-      </c>
-      <c r="I8" s="22">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="J8" s="22">
-        <v>2.52E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <v>6</v>
-      </c>
-      <c r="B9" s="22">
-        <v>0.99609999999999999</v>
-      </c>
-      <c r="C9" s="22">
-        <v>1.41E-2</v>
-      </c>
-      <c r="D9" s="22">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="E9" s="22">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H9" s="22">
-        <v>1.4E-2</v>
-      </c>
-      <c r="I9" s="22">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="J9" s="22">
-        <v>2.9100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>7</v>
-      </c>
-      <c r="B10" s="22">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="C10" s="22">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="D10" s="22">
-        <v>2.12E-2</v>
-      </c>
-      <c r="E10" s="22">
-        <v>3.44E-2</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H10" s="22">
-        <v>1.52E-2</v>
-      </c>
-      <c r="I10" s="22">
-        <v>2.24E-2</v>
-      </c>
-      <c r="J10" s="22">
-        <v>3.0499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
-        <v>8</v>
-      </c>
-      <c r="B11" s="22">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="C11" s="22">
-        <v>1.67E-2</v>
-      </c>
-      <c r="D11" s="22">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="E11" s="22">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="22">
-        <v>0.99729999999999996</v>
-      </c>
-      <c r="H11" s="22">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="I11" s="22">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J11" s="22">
-        <v>3.5400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <v>9</v>
-      </c>
-      <c r="B12" s="22">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="C12" s="22">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="D12" s="22">
-        <v>2.07E-2</v>
-      </c>
-      <c r="E12" s="22">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H12" s="22">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="I12" s="22">
-        <v>1.54E-2</v>
-      </c>
-      <c r="J12" s="22">
-        <v>2.1100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <v>10</v>
-      </c>
-      <c r="B13" s="22">
-        <v>0.99609999999999999</v>
-      </c>
-      <c r="C13" s="22">
-        <v>1.41E-2</v>
-      </c>
-      <c r="D13" s="22">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="E13" s="22">
-        <v>3.27E-2</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="22">
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="H13" s="22">
-        <v>1.49E-2</v>
-      </c>
-      <c r="I13" s="22">
-        <v>2.3E-2</v>
-      </c>
-      <c r="J13" s="22">
-        <v>2.9100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <v>11</v>
-      </c>
-      <c r="B14" s="22">
-        <v>0.99629999999999996</v>
-      </c>
-      <c r="C14" s="22">
-        <v>1.37E-2</v>
-      </c>
-      <c r="D14" s="22">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="E14" s="22">
-        <v>2.98E-2</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="22">
-        <v>0.99680000000000002</v>
-      </c>
-      <c r="H14" s="22">
-        <v>1.66E-2</v>
-      </c>
-      <c r="I14" s="22">
-        <v>2.35E-2</v>
-      </c>
-      <c r="J14" s="22">
-        <v>3.9300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
-        <v>12</v>
-      </c>
-      <c r="B15" s="22">
-        <v>0.99609999999999999</v>
-      </c>
-      <c r="C15" s="22">
-        <v>1.52E-2</v>
-      </c>
-      <c r="D15" s="22">
-        <v>2.1700000000000001E-2</v>
-      </c>
-      <c r="E15" s="22">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H15" s="22">
-        <v>1.29E-2</v>
-      </c>
-      <c r="I15" s="22">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="J15" s="22">
-        <v>2.58E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
-        <v>13</v>
-      </c>
-      <c r="B16" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="C16" s="22">
-        <v>1.67E-2</v>
-      </c>
-      <c r="D16" s="22">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="E16" s="22">
-        <v>3.3099999999999997E-2</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="22">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="H16" s="22">
-        <v>1.29E-2</v>
-      </c>
-      <c r="I16" s="22">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="J16" s="22">
-        <v>3.27E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
-        <v>14</v>
-      </c>
-      <c r="B17" s="22">
-        <v>0.99729999999999996</v>
-      </c>
-      <c r="C17" s="22">
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="D17" s="22">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="E17" s="22">
-        <v>4.02E-2</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="22">
-        <v>0.99660000000000004</v>
-      </c>
-      <c r="H17" s="22">
-        <v>1.41E-2</v>
-      </c>
-      <c r="I17" s="22">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="J17" s="22">
-        <v>3.3500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
-        <v>15</v>
-      </c>
-      <c r="B18" s="22">
-        <v>0.99609999999999999</v>
-      </c>
-      <c r="C18" s="22">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="D18" s="22">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="E18" s="22">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="22">
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="H18" s="22">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="I18" s="22">
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="J18" s="22">
-        <v>3.09E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
-        <v>16</v>
-      </c>
-      <c r="B19" s="22">
-        <v>0.99629999999999996</v>
-      </c>
-      <c r="C19" s="22">
-        <v>1.37E-2</v>
-      </c>
-      <c r="D19" s="22">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="E19" s="22">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="22">
-        <v>0.99690000000000001</v>
-      </c>
-      <c r="H19" s="22">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="I19" s="22">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="J19" s="22">
-        <v>3.7199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
-        <v>17</v>
-      </c>
-      <c r="B20" s="22">
-        <v>0.99670000000000003</v>
-      </c>
-      <c r="C20" s="22">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="D20" s="22">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="E20" s="22">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H20" s="22">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="I20" s="22">
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="J20" s="22">
-        <v>2.9499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="22">
-        <v>0.99629999999999996</v>
-      </c>
-      <c r="C21" s="22">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="D21" s="22">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="E21" s="22">
-        <v>3.2599999999999997E-2</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="22">
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="H21" s="22">
-        <v>1.47E-2</v>
-      </c>
-      <c r="I21" s="22">
-        <v>2.3E-2</v>
-      </c>
-      <c r="J21" s="22">
-        <v>2.8899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <v>19</v>
-      </c>
-      <c r="B22" s="22">
-        <v>0.99629999999999996</v>
-      </c>
-      <c r="C22" s="22">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="D22" s="22">
-        <v>2.06E-2</v>
-      </c>
-      <c r="E22" s="22">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="22">
-        <v>0.99729999999999996</v>
-      </c>
-      <c r="H22" s="22">
-        <v>1.37E-2</v>
-      </c>
-      <c r="I22" s="22">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="J22" s="22">
-        <v>3.3700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
-        <v>20</v>
-      </c>
-      <c r="B23" s="22">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="C23" s="22">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="D23" s="22">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="E23" s="22">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H23" s="22">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="I23" s="22">
-        <v>2.2700000000000001E-2</v>
-      </c>
-      <c r="J23" s="22">
-        <v>2.8799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
-        <v>21</v>
-      </c>
-      <c r="B24" s="22">
-        <v>0.99660000000000004</v>
-      </c>
-      <c r="C24" s="22">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="D24" s="22">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="E24" s="22">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H24" s="22">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="I24" s="22">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="J24" s="22">
-        <v>2.86E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
-        <v>22</v>
-      </c>
-      <c r="B25" s="22">
-        <v>0.99609999999999999</v>
-      </c>
-      <c r="C25" s="22">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="D25" s="22">
-        <v>2.06E-2</v>
-      </c>
-      <c r="E25" s="22">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H25" s="22">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="I25" s="22">
-        <v>1.9E-2</v>
-      </c>
-      <c r="J25" s="22">
-        <v>2.5600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
-        <v>23</v>
-      </c>
-      <c r="B26" s="22">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="C26" s="22">
-        <v>1.49E-2</v>
-      </c>
-      <c r="D26" s="22">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="E26" s="22">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H26" s="22">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="I26" s="22">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="J26" s="22">
-        <v>2.9700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
-        <v>24</v>
-      </c>
-      <c r="B27" s="22">
-        <v>0.99629999999999996</v>
-      </c>
-      <c r="C27" s="22">
-        <v>1.41E-2</v>
-      </c>
-      <c r="D27" s="22">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="E27" s="22">
-        <v>3.49E-2</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="22">
-        <v>0.99729999999999996</v>
-      </c>
-      <c r="H27" s="22">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="I27" s="22">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="J27" s="22">
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
-        <v>25</v>
-      </c>
-      <c r="B28" s="22">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="C28" s="22">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="D28" s="22">
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="E28" s="22">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H28" s="22">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I28" s="22">
-        <v>1.52E-2</v>
-      </c>
-      <c r="J28" s="22">
-        <v>2.23E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
-        <v>26</v>
-      </c>
-      <c r="B29" s="22">
-        <v>0.99609999999999999</v>
-      </c>
-      <c r="C29" s="22">
-        <v>1.67E-2</v>
-      </c>
-      <c r="D29" s="22">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="E29" s="22">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H29" s="22">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="I29" s="22">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="J29" s="22">
-        <v>2.9399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
-        <v>27</v>
-      </c>
-      <c r="B30" s="22">
-        <v>0.99660000000000004</v>
-      </c>
-      <c r="C30" s="22">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="D30" s="22">
-        <v>2.06E-2</v>
-      </c>
-      <c r="E30" s="22">
-        <v>2.63E-2</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H30" s="22">
-        <v>1.41E-2</v>
-      </c>
-      <c r="I30" s="22">
-        <v>2.06E-2</v>
-      </c>
-      <c r="J30" s="22">
-        <v>2.8899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
-        <v>28</v>
-      </c>
-      <c r="B31" s="22">
-        <v>0.996</v>
-      </c>
-      <c r="C31" s="22">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D31" s="22">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="E31" s="22">
-        <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="22">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H31" s="22">
-        <v>1.4E-2</v>
-      </c>
-      <c r="I31" s="22">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="J31" s="22">
-        <v>2.92E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
-        <v>29</v>
-      </c>
-      <c r="B32" s="22">
-        <v>0.996</v>
-      </c>
-      <c r="C32" s="22">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="D32" s="22">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="E32" s="22">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="22">
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="H32" s="22">
-        <v>1.23E-2</v>
-      </c>
-      <c r="I32" s="22">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="J32" s="22">
-        <v>2.69E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
-        <v>30</v>
-      </c>
-      <c r="B33" s="24">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="C33" s="24">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="D33" s="24">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="E33" s="24">
-        <v>2.81E-2</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="24">
-        <v>0.99760000000000004</v>
-      </c>
-      <c r="H33" s="24">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="I33" s="24">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="J33" s="24">
-        <v>2.9100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="14">
-        <f>MIN(B4:B33)</f>
-        <v>0.996</v>
-      </c>
-      <c r="C35" s="14">
-        <f t="shared" ref="C35:J35" si="0">MIN(C4:C33)</f>
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="D35" s="14">
-        <f t="shared" si="0"/>
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="E35" s="14">
-        <f t="shared" si="0"/>
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="14">
-        <f t="shared" si="0"/>
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="H35" s="14">
-        <f t="shared" si="0"/>
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="I35" s="14">
-        <f t="shared" si="0"/>
-        <v>1.44E-2</v>
-      </c>
-      <c r="J35" s="14">
-        <f t="shared" si="0"/>
-        <v>2.1100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="14">
-        <f>MAX(B4:B33)</f>
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="C36" s="14">
-        <f t="shared" ref="C36:J36" si="1">MAX(C4:C33)</f>
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="D36" s="14">
-        <f t="shared" si="1"/>
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="E36" s="14">
-        <f t="shared" si="1"/>
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99760000000000004</v>
-      </c>
-      <c r="H36" s="14">
-        <f t="shared" si="1"/>
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="I36" s="14">
-        <f t="shared" si="1"/>
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J36" s="14">
-        <f t="shared" si="1"/>
-        <v>3.9300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="14">
-        <f>AVERAGE(B4:B33)</f>
-        <v>0.99634000000000011</v>
-      </c>
-      <c r="C37" s="14">
-        <f t="shared" ref="C37:J37" si="2">AVERAGE(C4:C33)</f>
-        <v>1.4643333333333331E-2</v>
-      </c>
-      <c r="D37" s="14">
-        <f t="shared" si="2"/>
-        <v>2.0999999999999998E-2</v>
-      </c>
-      <c r="E37" s="14">
-        <f t="shared" si="2"/>
-        <v>3.4089999999999995E-2</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="14">
-        <f t="shared" si="2"/>
-        <v>0.99735333333333287</v>
-      </c>
-      <c r="H37" s="14">
-        <f t="shared" si="2"/>
-        <v>1.4080000000000002E-2</v>
-      </c>
-      <c r="I37" s="14">
-        <f t="shared" si="2"/>
-        <v>2.0830000000000001E-2</v>
-      </c>
-      <c r="J37" s="14">
-        <f t="shared" si="2"/>
-        <v>2.9303333333333334E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2506,4 +1398,1112 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1.34E-2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="19">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="H4" s="19">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="I4" s="19">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="J4" s="19">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.996</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1.47E-2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="E5" s="19">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I5" s="19">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J5" s="19">
+        <v>2.81E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1.23E-2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="I6" s="19">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J6" s="19">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1.29E-2</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2.06E-2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2.64E-2</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="19">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="H7" s="19">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1.44E-2</v>
+      </c>
+      <c r="J7" s="19">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1.49E-2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="E8" s="19">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1.21E-2</v>
+      </c>
+      <c r="I8" s="19">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1.41E-2</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I9" s="19">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="J9" s="19">
+        <v>2.9100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D10" s="19">
+        <v>2.12E-2</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3.44E-2</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1.52E-2</v>
+      </c>
+      <c r="I10" s="19">
+        <v>2.24E-2</v>
+      </c>
+      <c r="J10" s="19">
+        <v>3.0499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1.67E-2</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="E11" s="19">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="19">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="I11" s="19">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J11" s="19">
+        <v>3.5400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2.07E-2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H12" s="19">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="I12" s="19">
+        <v>1.54E-2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1.41E-2</v>
+      </c>
+      <c r="D13" s="19">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3.27E-2</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="19">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1.49E-2</v>
+      </c>
+      <c r="I13" s="19">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J13" s="19">
+        <v>2.9100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1.37E-2</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>2.98E-2</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="19">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="H14" s="19">
+        <v>1.66E-2</v>
+      </c>
+      <c r="I14" s="19">
+        <v>2.35E-2</v>
+      </c>
+      <c r="J14" s="19">
+        <v>3.9300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1.52E-2</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1.29E-2</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2.58E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1.67E-2</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="E16" s="19">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="19">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1.29E-2</v>
+      </c>
+      <c r="I16" s="19">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="J16" s="19">
+        <v>3.27E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>14</v>
+      </c>
+      <c r="B17" s="19">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="D17" s="19">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="E17" s="19">
+        <v>4.02E-2</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="19">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1.41E-2</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="J17" s="19">
+        <v>3.3500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>15</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="D18" s="19">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="E18" s="19">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="19">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="H18" s="19">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="I18" s="19">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="J18" s="19">
+        <v>3.09E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1.37E-2</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="E19" s="19">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="19">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="I19" s="19">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="J19" s="19">
+        <v>3.7199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>17</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H20" s="19">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="I20" s="19">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="J20" s="19">
+        <v>2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>18</v>
+      </c>
+      <c r="B21" s="19">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="E21" s="19">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="19">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="H21" s="19">
+        <v>1.47E-2</v>
+      </c>
+      <c r="I21" s="19">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J21" s="19">
+        <v>2.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>19</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="D22" s="19">
+        <v>2.06E-2</v>
+      </c>
+      <c r="E22" s="19">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="19">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1.37E-2</v>
+      </c>
+      <c r="I22" s="19">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="J22" s="19">
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>20</v>
+      </c>
+      <c r="B23" s="19">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="D23" s="19">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="E23" s="19">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="I23" s="19">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="J23" s="19">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>21</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="E24" s="19">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H24" s="19">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I24" s="19">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="J24" s="19">
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>22</v>
+      </c>
+      <c r="B25" s="19">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2.06E-2</v>
+      </c>
+      <c r="E25" s="19">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H25" s="19">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I25" s="19">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J25" s="19">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
+        <v>23</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1.49E-2</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="E26" s="19">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H26" s="19">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="I26" s="19">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="J26" s="19">
+        <v>2.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>24</v>
+      </c>
+      <c r="B27" s="19">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="C27" s="19">
+        <v>1.41E-2</v>
+      </c>
+      <c r="D27" s="19">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="E27" s="19">
+        <v>3.49E-2</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="19">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="H27" s="19">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I27" s="19">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="J27" s="19">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
+        <v>25</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="C28" s="19">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D28" s="19">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="E28" s="19">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H28" s="19">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I28" s="19">
+        <v>1.52E-2</v>
+      </c>
+      <c r="J28" s="19">
+        <v>2.23E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>26</v>
+      </c>
+      <c r="B29" s="19">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1.67E-2</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="E29" s="19">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H29" s="19">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="I29" s="19">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="J29" s="19">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
+        <v>27</v>
+      </c>
+      <c r="B30" s="19">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="C30" s="19">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="D30" s="19">
+        <v>2.06E-2</v>
+      </c>
+      <c r="E30" s="19">
+        <v>2.63E-2</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H30" s="19">
+        <v>1.41E-2</v>
+      </c>
+      <c r="I30" s="19">
+        <v>2.06E-2</v>
+      </c>
+      <c r="J30" s="19">
+        <v>2.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>28</v>
+      </c>
+      <c r="B31" s="19">
+        <v>0.996</v>
+      </c>
+      <c r="C31" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D31" s="19">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="E31" s="19">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H31" s="19">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I31" s="19">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="J31" s="19">
+        <v>2.92E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
+        <v>29</v>
+      </c>
+      <c r="B32" s="19">
+        <v>0.996</v>
+      </c>
+      <c r="C32" s="19">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="D32" s="19">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="E32" s="19">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="19">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="H32" s="19">
+        <v>1.23E-2</v>
+      </c>
+      <c r="I32" s="19">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="J32" s="19">
+        <v>2.69E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>30</v>
+      </c>
+      <c r="B33" s="20">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D33" s="20">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="E33" s="20">
+        <v>2.81E-2</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="20">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="H33" s="20">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="I33" s="20">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="J33" s="20">
+        <v>2.9100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="14">
+        <f>MIN(B4:B33)</f>
+        <v>0.996</v>
+      </c>
+      <c r="C35" s="14">
+        <f t="shared" ref="C35:J35" si="0">MIN(C4:C33)</f>
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="D35" s="14">
+        <f t="shared" si="0"/>
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="0"/>
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="14">
+        <f t="shared" si="0"/>
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="0"/>
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="0"/>
+        <v>1.44E-2</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" si="0"/>
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="14">
+        <f>MAX(B4:B33)</f>
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="C36" s="14">
+        <f t="shared" ref="C36:J36" si="1">MAX(C4:C33)</f>
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="D36" s="14">
+        <f t="shared" si="1"/>
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="1"/>
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="14">
+        <f t="shared" si="1"/>
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="1"/>
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="1"/>
+        <v>3.9300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="14">
+        <f>AVERAGE(B4:B33)</f>
+        <v>0.99634000000000011</v>
+      </c>
+      <c r="C37" s="14">
+        <f t="shared" ref="C37:J37" si="2">AVERAGE(C4:C33)</f>
+        <v>1.4643333333333331E-2</v>
+      </c>
+      <c r="D37" s="14">
+        <f t="shared" si="2"/>
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="2"/>
+        <v>3.4089999999999995E-2</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="14">
+        <f t="shared" si="2"/>
+        <v>0.99735333333333287</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="2"/>
+        <v>1.4080000000000002E-2</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="2"/>
+        <v>2.0830000000000001E-2</v>
+      </c>
+      <c r="J37" s="14">
+        <f t="shared" si="2"/>
+        <v>2.9303333333333334E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEAF87C-F59E-44C2-9EFF-9512F1D868A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F05B1A9-D43C-4153-B68D-8B8EDB1EBE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hasil evaluasi" sheetId="2" r:id="rId1"/>
     <sheet name="template hasil" sheetId="1" r:id="rId2"/>
+    <sheet name="naive search" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>LSTM-R</t>
   </si>
@@ -79,6 +80,39 @@
   <si>
     <t>AVG</t>
   </si>
+  <si>
+    <t>Eksperiment</t>
+  </si>
+  <si>
+    <t>Optimizers</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Adamax</t>
+  </si>
+  <si>
+    <t>RMSprop</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Batch Size</t>
+  </si>
+  <si>
+    <t>Analisa Hasil hyperparameter tuning</t>
+  </si>
+  <si>
+    <t>Model SBi-LSTM-RNN</t>
+  </si>
+  <si>
+    <t>Model SBi-GRU-RNN</t>
+  </si>
 </sst>
 </file>
 
@@ -87,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +148,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -197,11 +247,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -245,35 +358,68 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,12 +730,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -641,7 +787,7 @@
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.996</v>
       </c>
@@ -667,7 +813,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.99660000000000004</v>
       </c>
@@ -693,7 +839,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.99670000000000003</v>
       </c>
@@ -719,7 +865,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -745,7 +891,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -771,7 +917,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -797,7 +943,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -823,7 +969,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -849,7 +995,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -875,7 +1021,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -901,7 +1047,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -927,7 +1073,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.99750000000000005</v>
       </c>
@@ -953,7 +1099,7 @@
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.99729999999999996</v>
       </c>
@@ -979,7 +1125,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1005,7 +1151,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1031,7 +1177,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.99670000000000003</v>
       </c>
@@ -1057,7 +1203,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1083,7 +1229,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1109,7 +1255,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1135,7 +1281,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.99660000000000004</v>
       </c>
@@ -1161,7 +1307,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1187,7 +1333,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1213,7 +1359,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1239,7 +1385,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1265,7 +1411,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1291,7 +1437,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.99660000000000004</v>
       </c>
@@ -1317,7 +1463,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.996</v>
       </c>
@@ -1343,7 +1489,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.996</v>
       </c>
@@ -1369,7 +1515,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.99650000000000005</v>
       </c>
@@ -1407,981 +1553,982 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:J37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="11" customWidth="1"/>
+    <col min="7" max="10" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="17" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="21">
         <v>0.99619999999999997</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="21">
         <v>1.34E-2</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="21">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="21">
         <v>3.1199999999999999E-2</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="19">
+      <c r="G4" s="21">
         <v>0.99739999999999995</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="21">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="21">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="21">
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="21">
         <v>0.996</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="21">
         <v>1.47E-2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="21">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="21">
         <v>3.5900000000000001E-2</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H5" s="19">
+      <c r="G5" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H5" s="21">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="21">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="21">
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="21">
         <v>0.99660000000000004</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="21">
         <v>1.23E-2</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="21">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="21">
         <v>2.5700000000000001E-2</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="G6" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H6" s="21">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="21">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="21">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="21">
         <v>0.99670000000000003</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="21">
         <v>1.29E-2</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="21">
         <v>2.06E-2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="21">
         <v>2.64E-2</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="19">
+      <c r="G7" s="21">
         <v>0.99739999999999995</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="21">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="21">
         <v>1.44E-2</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="21">
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="21">
         <v>0.99619999999999997</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="21">
         <v>1.49E-2</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="21">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="21">
         <v>3.6799999999999999E-2</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="G8" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H8" s="21">
         <v>1.21E-2</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="21">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="21">
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="21">
         <v>0.99609999999999999</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="21">
         <v>1.41E-2</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="21">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="21">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="G9" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H9" s="21">
         <v>1.4E-2</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="21">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="21">
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="21">
         <v>0.99619999999999997</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="21">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="21">
         <v>2.12E-2</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="21">
         <v>3.44E-2</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H10" s="19">
+      <c r="G10" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H10" s="21">
         <v>1.52E-2</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="21">
         <v>2.24E-2</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="21">
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="21">
         <v>0.99619999999999997</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="21">
         <v>1.67E-2</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="21">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="21">
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="19">
+      <c r="G11" s="21">
         <v>0.99729999999999996</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="21">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="21">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="21">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>9</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="21">
         <v>0.99619999999999997</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="21">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="21">
         <v>2.07E-2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="21">
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="G12" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H12" s="21">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="21">
         <v>1.54E-2</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="21">
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>10</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="21">
         <v>0.99609999999999999</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="21">
         <v>1.41E-2</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="21">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="21">
         <v>3.27E-2</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="19">
+      <c r="G13" s="21">
         <v>0.99739999999999995</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="21">
         <v>1.49E-2</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="21">
         <v>2.3E-2</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="21">
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <v>11</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="21">
         <v>0.99629999999999996</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="21">
         <v>1.37E-2</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="21">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="21">
         <v>2.98E-2</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="19">
+      <c r="G14" s="21">
         <v>0.99680000000000002</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="21">
         <v>1.66E-2</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="21">
         <v>2.35E-2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="21">
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <v>12</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="21">
         <v>0.99609999999999999</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="21">
         <v>1.52E-2</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="21">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="21">
         <v>3.5499999999999997E-2</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H15" s="19">
+      <c r="G15" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H15" s="21">
         <v>1.29E-2</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="21">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="21">
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>13</v>
       </c>
-      <c r="B16" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="B16" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="C16" s="21">
         <v>1.67E-2</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="21">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="21">
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="19">
+      <c r="G16" s="21">
         <v>0.99639999999999995</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="21">
         <v>1.29E-2</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="21">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="21">
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>14</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="21">
         <v>0.99729999999999996</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="21">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="21">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="21">
         <v>4.02E-2</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="19">
+      <c r="G17" s="21">
         <v>0.99660000000000004</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="21">
         <v>1.41E-2</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="21">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="21">
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>15</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="21">
         <v>0.99609999999999999</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="21">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="21">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="21">
         <v>3.9699999999999999E-2</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="19">
+      <c r="G18" s="21">
         <v>0.99739999999999995</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="21">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="21">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="21">
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>16</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="21">
         <v>0.99629999999999996</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="21">
         <v>1.37E-2</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="21">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="21">
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="19">
+      <c r="G19" s="21">
         <v>0.99690000000000001</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="21">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="21">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="21">
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>17</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="21">
         <v>0.99670000000000003</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="21">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="21">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="21">
         <v>2.4199999999999999E-2</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H20" s="19">
+      <c r="G20" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H20" s="21">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="21">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="21">
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="21">
         <v>0.99629999999999996</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="21">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="21">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="21">
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="19">
+      <c r="G21" s="21">
         <v>0.99739999999999995</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="21">
         <v>1.47E-2</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="21">
         <v>2.3E-2</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="21">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>19</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="21">
         <v>0.99629999999999996</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="21">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="21">
         <v>2.06E-2</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="21">
         <v>3.7100000000000001E-2</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="19">
+      <c r="G22" s="21">
         <v>0.99729999999999996</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="21">
         <v>1.37E-2</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="21">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="21">
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="21">
         <v>0.99619999999999997</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="21">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="21">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="21">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H23" s="19">
+      <c r="G23" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H23" s="21">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="21">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="21">
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <v>21</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="21">
         <v>0.99660000000000004</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="21">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="21">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="21">
         <v>2.5499999999999998E-2</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H24" s="19">
+      <c r="G24" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H24" s="21">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="21">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="21">
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>22</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="21">
         <v>0.99609999999999999</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="21">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="21">
         <v>2.06E-2</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="21">
         <v>3.5499999999999997E-2</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H25" s="19">
+      <c r="G25" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H25" s="21">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="21">
         <v>1.9E-2</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="21">
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
         <v>23</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="21">
         <v>0.99619999999999997</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="21">
         <v>1.49E-2</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="21">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="21">
         <v>3.4500000000000003E-2</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H26" s="19">
+      <c r="G26" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H26" s="21">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="21">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="21">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
         <v>24</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="21">
         <v>0.99629999999999996</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="21">
         <v>1.41E-2</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="21">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="21">
         <v>3.49E-2</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="19">
+      <c r="G27" s="21">
         <v>0.99729999999999996</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="21">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="21">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="21">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
         <v>25</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="21">
         <v>0.99619999999999997</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="21">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="21">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="21">
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H28" s="19">
+      <c r="G28" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H28" s="21">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="21">
         <v>1.52E-2</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="21">
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>26</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="21">
         <v>0.99609999999999999</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="21">
         <v>1.67E-2</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="21">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="21">
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="G29" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H29" s="19">
+      <c r="G29" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H29" s="21">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="21">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="21">
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <v>27</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="21">
         <v>0.99660000000000004</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="21">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="21">
         <v>2.06E-2</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="21">
         <v>2.63E-2</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H30" s="19">
+      <c r="G30" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H30" s="21">
         <v>1.41E-2</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="21">
         <v>2.06E-2</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="21">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
+    <row r="31" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
         <v>28</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="21">
         <v>0.996</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="21">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="21">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="21">
         <v>3.5299999999999998E-2</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="19">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="H31" s="19">
+      <c r="G31" s="21">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H31" s="21">
         <v>1.4E-2</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="21">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="21">
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15">
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
         <v>29</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="21">
         <v>0.996</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="21">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="21">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="21">
         <v>3.6799999999999999E-2</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="19">
+      <c r="G32" s="21">
         <v>0.99739999999999995</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="21">
         <v>1.23E-2</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="21">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="21">
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+    <row r="33" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
         <v>30</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="22">
         <v>0.99650000000000005</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="22">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="22">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="22">
         <v>2.81E-2</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="20">
+      <c r="G33" s="22">
         <v>0.99760000000000004</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="22">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="22">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="22">
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>16</v>
       </c>
@@ -2419,7 +2566,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>17</v>
       </c>
@@ -2457,7 +2604,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>18</v>
       </c>
@@ -2506,4 +2653,514 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FEE261-57AB-4AFE-8547-39B90431A723}">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="7" width="15.7109375" customWidth="1"/>
+    <col min="9" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="15" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="I3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="I5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15">
+        <v>50</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15">
+        <v>50</v>
+      </c>
+      <c r="K7" s="15">
+        <v>2</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15">
+        <v>4</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="I8" s="15">
+        <v>2</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15">
+        <v>4</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="I9" s="15">
+        <v>3</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15">
+        <v>8</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15">
+        <v>16</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="15">
+        <v>4</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15">
+        <v>16</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15">
+        <v>32</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="I11" s="15">
+        <v>5</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15">
+        <v>32</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15">
+        <v>75</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="I12" s="15">
+        <v>6</v>
+      </c>
+      <c r="J12" s="15">
+        <v>75</v>
+      </c>
+      <c r="K12" s="15">
+        <v>2</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="I13" s="15">
+        <v>7</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15">
+        <v>4</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>8</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15">
+        <v>8</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="I14" s="15">
+        <v>8</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15">
+        <v>8</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15">
+        <v>16</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="I15" s="15">
+        <v>9</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15">
+        <v>16</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15">
+        <v>32</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="I16" s="15">
+        <v>10</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15">
+        <v>32</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15">
+        <v>100</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="I17" s="15">
+        <v>11</v>
+      </c>
+      <c r="J17" s="15">
+        <v>100</v>
+      </c>
+      <c r="K17" s="15">
+        <v>2</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>12</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15">
+        <v>4</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="I18" s="15">
+        <v>12</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15">
+        <v>4</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>13</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15">
+        <v>8</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="I19" s="15">
+        <v>13</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15">
+        <v>8</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>14</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15">
+        <v>16</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="I20" s="15">
+        <v>14</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15">
+        <v>16</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>15</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15">
+        <v>32</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="I21" s="15">
+        <v>15</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15">
+        <v>32</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="L5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EA0D3E-3942-4683-8AE1-604A0E83D488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB4EF6E-3089-486C-96D6-84AA4AF2B66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -379,6 +385,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -420,12 +463,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,7 +771,9 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1560,7 +1599,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,41 +1612,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
@@ -2669,7 +2708,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,62 +2721,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="23"/>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="I3" s="38" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="I3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
@@ -2750,9 +2789,9 @@
       <c r="G4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="22" t="s">
         <v>4</v>
       </c>
@@ -2771,30 +2810,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C5" s="21">
         <v>8</v>
       </c>
-      <c r="D5" s="27">
-        <v>0.996</v>
-      </c>
-      <c r="E5" s="25"/>
+      <c r="D5" s="40">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.995</v>
+      </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="I5" s="21">
         <v>1</v>
       </c>
       <c r="J5" s="21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K5" s="21">
         <v>8</v>
       </c>
-      <c r="L5" s="27">
-        <v>856.15859999999998</v>
-      </c>
-      <c r="M5" s="25"/>
+      <c r="L5" s="38">
+        <v>4681.7282999999998</v>
+      </c>
+      <c r="M5" s="25">
+        <v>1187.9628</v>
+      </c>
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
@@ -2806,10 +2849,12 @@
       <c r="C6" s="21">
         <v>16</v>
       </c>
-      <c r="D6" s="25">
-        <v>0.99729999999999996</v>
-      </c>
-      <c r="E6" s="25"/>
+      <c r="D6" s="40">
+        <v>0.997</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.99490000000000001</v>
+      </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="I6" s="21">
@@ -2819,10 +2864,12 @@
       <c r="K6" s="21">
         <v>16</v>
       </c>
-      <c r="L6" s="25">
-        <v>1416.1558</v>
-      </c>
-      <c r="M6" s="25"/>
+      <c r="L6" s="38">
+        <v>1275.6676</v>
+      </c>
+      <c r="M6" s="25">
+        <v>1413.8062</v>
+      </c>
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
@@ -2834,11 +2881,12 @@
       <c r="C7" s="21">
         <v>32</v>
       </c>
-      <c r="D7" s="25">
-        <v>0.99519999999999997</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="D7" s="40">
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.99329999999999996</v>
+      </c>
       <c r="G7" s="25"/>
       <c r="I7" s="21">
         <v>3</v>
@@ -2847,58 +2895,64 @@
       <c r="K7" s="21">
         <v>32</v>
       </c>
-      <c r="L7" s="25">
-        <v>2682.5639999999999</v>
-      </c>
-      <c r="M7" s="25"/>
+      <c r="L7" s="38">
+        <v>3505.3472000000002</v>
+      </c>
+      <c r="M7" s="25">
+        <v>3224.6282000000001</v>
+      </c>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>4</v>
       </c>
       <c r="B9" s="21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C9" s="21">
         <v>8</v>
       </c>
-      <c r="D9" s="25">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="E9" s="25"/>
+      <c r="D9" s="27">
+        <v>0.996</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.99690000000000001</v>
+      </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="I9" s="21">
         <v>4</v>
       </c>
       <c r="J9" s="21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K9" s="21">
         <v>8</v>
       </c>
-      <c r="L9" s="25">
-        <v>3811.8806</v>
-      </c>
-      <c r="M9" s="25"/>
+      <c r="L9" s="27">
+        <v>856.15859999999998</v>
+      </c>
+      <c r="M9" s="25">
+        <v>1752.605</v>
+      </c>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
@@ -2910,8 +2964,12 @@
       <c r="C10" s="21">
         <v>16</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="25">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.99619999999999997</v>
+      </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="I10" s="21">
@@ -2921,8 +2979,12 @@
       <c r="K10" s="21">
         <v>16</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="L10" s="25">
+        <v>1416.1558</v>
+      </c>
+      <c r="M10" s="42">
+        <v>1149.0806</v>
+      </c>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
@@ -2934,8 +2996,12 @@
       <c r="C11" s="21">
         <v>32</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="25">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.99480000000000002</v>
+      </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="I11" s="21">
@@ -2945,8 +3011,12 @@
       <c r="K11" s="21">
         <v>32</v>
       </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="L11" s="25">
+        <v>2682.5639999999999</v>
+      </c>
+      <c r="M11" s="25">
+        <v>2352.3108999999999</v>
+      </c>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
     </row>
@@ -2971,12 +3041,14 @@
         <v>7</v>
       </c>
       <c r="B13" s="21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C13" s="21">
         <v>8</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="25">
+        <v>0.99160000000000004</v>
+      </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -2984,12 +3056,14 @@
         <v>7</v>
       </c>
       <c r="J13" s="21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K13" s="21">
         <v>8</v>
       </c>
-      <c r="L13" s="25"/>
+      <c r="L13" s="25">
+        <v>3811.8806</v>
+      </c>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -3002,7 +3076,9 @@
       <c r="C14" s="21">
         <v>16</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="25">
+        <v>0.99690000000000001</v>
+      </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -3013,7 +3089,9 @@
       <c r="K14" s="21">
         <v>16</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="25">
+        <v>1141.8219999999999</v>
+      </c>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
@@ -3026,7 +3104,9 @@
       <c r="C15" s="21">
         <v>32</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="25">
+        <v>0.99580000000000002</v>
+      </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -3037,47 +3117,49 @@
       <c r="K15" s="21">
         <v>32</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="25">
+        <v>2622.7894000000001</v>
+      </c>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="I18" s="38" t="s">
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="I18" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="22" t="s">
         <v>4</v>
       </c>
@@ -3090,9 +3172,9 @@
       <c r="G19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
       <c r="L19" s="22" t="s">
         <v>4</v>
       </c>
@@ -3111,30 +3193,34 @@
         <v>1</v>
       </c>
       <c r="B20" s="21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C20" s="21">
         <v>8</v>
       </c>
-      <c r="D20" s="27">
-        <v>1294.1074000000001</v>
-      </c>
-      <c r="E20" s="25"/>
+      <c r="D20" s="38">
+        <v>5497.6935999999996</v>
+      </c>
+      <c r="E20" s="25">
+        <v>1957.5102999999999</v>
+      </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="I20" s="21">
         <v>1</v>
       </c>
       <c r="J20" s="21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K20" s="21">
         <v>8</v>
       </c>
-      <c r="L20" s="27">
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="M20" s="25"/>
+      <c r="L20" s="38">
+        <v>0.1641</v>
+      </c>
+      <c r="M20" s="25">
+        <v>3.2599999999999997E-2</v>
+      </c>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
@@ -3146,10 +3232,12 @@
       <c r="C21" s="21">
         <v>16</v>
       </c>
-      <c r="D21" s="25">
-        <v>2156.8478</v>
-      </c>
-      <c r="E21" s="25"/>
+      <c r="D21" s="38">
+        <v>1779.0035</v>
+      </c>
+      <c r="E21" s="25">
+        <v>2069.3150000000001</v>
+      </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="I21" s="21">
@@ -3159,10 +3247,12 @@
       <c r="K21" s="21">
         <v>16</v>
       </c>
-      <c r="L21" s="25">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="M21" s="25"/>
+      <c r="L21" s="38">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="M21" s="25">
+        <v>4.3700000000000003E-2</v>
+      </c>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
@@ -3174,10 +3264,12 @@
       <c r="C22" s="21">
         <v>32</v>
       </c>
-      <c r="D22" s="25">
-        <v>2888.2048</v>
-      </c>
-      <c r="E22" s="25"/>
+      <c r="D22" s="38">
+        <v>3717.5688</v>
+      </c>
+      <c r="E22" s="25">
+        <v>3472.7815000000001</v>
+      </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="I22" s="21">
@@ -3187,58 +3279,64 @@
       <c r="K22" s="21">
         <v>32</v>
       </c>
-      <c r="L22" s="25">
-        <v>0.1003</v>
-      </c>
-      <c r="M22" s="25"/>
+      <c r="L22" s="38">
+        <v>0.1331</v>
+      </c>
+      <c r="M22" s="25">
+        <v>0.1231</v>
+      </c>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>4</v>
       </c>
       <c r="B24" s="21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C24" s="21">
         <v>8</v>
       </c>
-      <c r="D24" s="25">
-        <v>5098.2520000000004</v>
-      </c>
-      <c r="E24" s="25"/>
+      <c r="D24" s="27">
+        <v>1294.1074000000001</v>
+      </c>
+      <c r="E24" s="25">
+        <v>2416.5668999999998</v>
+      </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="I24" s="21">
         <v>4</v>
       </c>
       <c r="J24" s="21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K24" s="21">
         <v>8</v>
       </c>
-      <c r="L24" s="25">
-        <v>0.12479999999999999</v>
-      </c>
-      <c r="M24" s="25"/>
+      <c r="L24" s="27">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="M24" s="25">
+        <v>5.67E-2</v>
+      </c>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
@@ -3250,8 +3348,12 @@
       <c r="C25" s="21">
         <v>16</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="D25" s="25">
+        <v>2156.8478</v>
+      </c>
+      <c r="E25" s="42">
+        <v>1696.8877</v>
+      </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="I25" s="21">
@@ -3261,8 +3363,12 @@
       <c r="K25" s="21">
         <v>16</v>
       </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
+      <c r="L25" s="25">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="M25" s="42">
+        <v>3.5099999999999999E-2</v>
+      </c>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
@@ -3274,8 +3380,12 @@
       <c r="C26" s="21">
         <v>32</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="D26" s="25">
+        <v>2888.2048</v>
+      </c>
+      <c r="E26" s="25">
+        <v>2586.6738999999998</v>
+      </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="I26" s="21">
@@ -3285,8 +3395,12 @@
       <c r="K26" s="21">
         <v>32</v>
       </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
+      <c r="L26" s="25">
+        <v>0.1003</v>
+      </c>
+      <c r="M26" s="25">
+        <v>8.7900000000000006E-2</v>
+      </c>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
@@ -3311,12 +3425,14 @@
         <v>7</v>
       </c>
       <c r="B28" s="21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C28" s="21">
         <v>8</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="25">
+        <v>5098.2520000000004</v>
+      </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -3324,12 +3440,14 @@
         <v>7</v>
       </c>
       <c r="J28" s="21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K28" s="21">
         <v>8</v>
       </c>
-      <c r="L28" s="25"/>
+      <c r="L28" s="25">
+        <v>0.12479999999999999</v>
+      </c>
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
@@ -3342,7 +3460,9 @@
       <c r="C29" s="21">
         <v>16</v>
       </c>
-      <c r="D29" s="25"/>
+      <c r="D29" s="25">
+        <v>1437.4019000000001</v>
+      </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
@@ -3353,7 +3473,9 @@
       <c r="K29" s="21">
         <v>16</v>
       </c>
-      <c r="L29" s="25"/>
+      <c r="L29" s="25">
+        <v>4.2099999999999999E-2</v>
+      </c>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
@@ -3366,7 +3488,9 @@
       <c r="C30" s="21">
         <v>32</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="25">
+        <v>2810.0261999999998</v>
+      </c>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
@@ -3377,32 +3501,34 @@
       <c r="K30" s="21">
         <v>32</v>
       </c>
-      <c r="L30" s="25"/>
+      <c r="L30" s="25">
+        <v>9.8100000000000007E-2</v>
+      </c>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="22" t="s">
         <v>4</v>
       </c>
@@ -3421,17 +3547,19 @@
         <v>1</v>
       </c>
       <c r="B35" s="21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C35" s="21">
         <v>8</v>
       </c>
-      <c r="D35" s="43">
-        <v>523.70000000000005</v>
-      </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
+      <c r="D35" s="38">
+        <v>250.53</v>
+      </c>
+      <c r="E35" s="31">
+        <v>267.35000000000002</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
@@ -3441,12 +3569,14 @@
       <c r="C36" s="21">
         <v>16</v>
       </c>
-      <c r="D36" s="44">
-        <v>258.87</v>
-      </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
+      <c r="D36" s="38">
+        <v>138.87</v>
+      </c>
+      <c r="E36" s="31">
+        <v>146.41999999999999</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
@@ -3456,38 +3586,42 @@
       <c r="C37" s="21">
         <v>32</v>
       </c>
-      <c r="D37" s="44">
-        <v>172.59</v>
-      </c>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
+      <c r="D37" s="38">
+        <v>105.58</v>
+      </c>
+      <c r="E37" s="31">
+        <v>96.36</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>4</v>
       </c>
       <c r="B39" s="21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C39" s="21">
         <v>8</v>
       </c>
-      <c r="D39" s="44">
-        <v>696.23</v>
-      </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
+      <c r="D39" s="30">
+        <v>523.70000000000005</v>
+      </c>
+      <c r="E39" s="31">
+        <v>478.82</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
@@ -3497,10 +3631,14 @@
       <c r="C40" s="21">
         <v>16</v>
       </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
+      <c r="D40" s="31">
+        <v>258.87</v>
+      </c>
+      <c r="E40" s="43">
+        <v>249.53</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
@@ -3510,34 +3648,40 @@
       <c r="C41" s="21">
         <v>32</v>
       </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
+      <c r="D41" s="31">
+        <v>172.59</v>
+      </c>
+      <c r="E41" s="31">
+        <v>164.26</v>
+      </c>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="21"/>
       <c r="C42" s="24"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>7</v>
       </c>
       <c r="B43" s="21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C43" s="21">
         <v>8</v>
       </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
+      <c r="D43" s="31">
+        <v>696.23</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
@@ -3547,10 +3691,12 @@
       <c r="C44" s="21">
         <v>16</v>
       </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
+      <c r="D44" s="31">
+        <v>396.15</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
@@ -3560,10 +3706,12 @@
       <c r="C45" s="21">
         <v>32</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="D45" s="31">
+        <v>245.24</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3572,11 +3720,15 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -3585,10 +3737,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3600,10 +3748,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,62 +3764,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="23"/>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="I3" s="38" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="I3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
@@ -3684,9 +3832,9 @@
       <c r="G4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="22" t="s">
         <v>4</v>
       </c>
@@ -3705,32 +3853,36 @@
         <v>1</v>
       </c>
       <c r="B5" s="21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C5" s="21">
         <v>8</v>
       </c>
-      <c r="D5" s="25">
-        <v>0.99019999999999997</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="26">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
       <c r="I5" s="21">
         <v>1</v>
       </c>
       <c r="J5" s="21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K5" s="21">
         <v>8</v>
       </c>
-      <c r="L5" s="26">
-        <v>2457.0421999999999</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
+      <c r="L5" s="25">
+        <v>1724.6455000000001</v>
+      </c>
+      <c r="M5" s="25">
+        <v>2168.6125000000002</v>
+      </c>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
@@ -3740,12 +3892,14 @@
       <c r="C6" s="21">
         <v>16</v>
       </c>
-      <c r="D6" s="25">
-        <v>0.99629999999999996</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="D6" s="26">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
       <c r="I6" s="21">
         <v>2</v>
       </c>
@@ -3753,12 +3907,14 @@
       <c r="K6" s="21">
         <v>16</v>
       </c>
-      <c r="L6" s="26">
-        <v>1385.8407999999999</v>
-      </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="L6" s="25">
+        <v>2716.5214000000001</v>
+      </c>
+      <c r="M6" s="27">
+        <v>974.7989</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
@@ -3768,12 +3924,14 @@
       <c r="C7" s="21">
         <v>32</v>
       </c>
-      <c r="D7" s="27">
-        <v>0.99760000000000004</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="28">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
       <c r="I7" s="21">
         <v>3</v>
       </c>
@@ -3781,60 +3939,66 @@
       <c r="K7" s="21">
         <v>32</v>
       </c>
-      <c r="L7" s="28">
-        <v>734.68730000000005</v>
-      </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
+      <c r="L7" s="27">
+        <v>770.62159999999994</v>
+      </c>
+      <c r="M7" s="25">
+        <v>2747.2550999999999</v>
+      </c>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="I8" s="24"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>4</v>
       </c>
       <c r="B9" s="21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C9" s="21">
         <v>8</v>
       </c>
       <c r="D9" s="25">
-        <v>0.99380000000000002</v>
-      </c>
-      <c r="E9" s="25"/>
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.99629999999999996</v>
+      </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="I9" s="21">
         <v>4</v>
       </c>
       <c r="J9" s="21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K9" s="21">
         <v>8</v>
       </c>
-      <c r="L9" s="26">
-        <v>2714.5616</v>
-      </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
+      <c r="L9" s="25">
+        <v>2457.0421999999999</v>
+      </c>
+      <c r="M9" s="25">
+        <v>2572.5113999999999</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
@@ -3844,8 +4008,12 @@
       <c r="C10" s="21">
         <v>16</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="25">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.99750000000000005</v>
+      </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="I10" s="21">
@@ -3855,10 +4023,14 @@
       <c r="K10" s="21">
         <v>16</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+      <c r="L10" s="25">
+        <v>1385.8407999999999</v>
+      </c>
+      <c r="M10" s="42">
+        <v>1077.2293999999999</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
@@ -3868,8 +4040,12 @@
       <c r="C11" s="21">
         <v>32</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="27">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.99680000000000002</v>
+      </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="I11" s="21">
@@ -3879,10 +4055,14 @@
       <c r="K11" s="21">
         <v>32</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
+      <c r="L11" s="27">
+        <v>734.68730000000005</v>
+      </c>
+      <c r="M11" s="25">
+        <v>1869.2462</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -3895,22 +4075,24 @@
       <c r="I12" s="24"/>
       <c r="J12" s="21"/>
       <c r="K12" s="24"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>7</v>
       </c>
       <c r="B13" s="21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C13" s="21">
         <v>8</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="25">
+        <v>0.99380000000000002</v>
+      </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -3918,15 +4100,17 @@
         <v>7</v>
       </c>
       <c r="J13" s="21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K13" s="21">
         <v>8</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
+      <c r="L13" s="25">
+        <v>2714.5616</v>
+      </c>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
@@ -3936,7 +4120,9 @@
       <c r="C14" s="21">
         <v>16</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="25">
+        <v>0.99670000000000003</v>
+      </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -3947,10 +4133,12 @@
       <c r="K14" s="21">
         <v>16</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
+      <c r="L14" s="25">
+        <v>1035.1193000000001</v>
+      </c>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
@@ -3960,7 +4148,9 @@
       <c r="C15" s="21">
         <v>32</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="25">
+        <v>0.99660000000000004</v>
+      </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -3971,47 +4161,49 @@
       <c r="K15" s="21">
         <v>32</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
+      <c r="L15" s="25">
+        <v>2370.9083999999998</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="I18" s="38" t="s">
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="I18" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="38"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="22" t="s">
         <v>4</v>
       </c>
@@ -4024,9 +4216,9 @@
       <c r="G19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
       <c r="L19" s="22" t="s">
         <v>4</v>
       </c>
@@ -4045,30 +4237,34 @@
         <v>1</v>
       </c>
       <c r="B20" s="21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C20" s="21">
         <v>8</v>
       </c>
-      <c r="D20" s="26">
-        <v>3722.5167000000001</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="D20" s="25">
+        <v>2136.3316</v>
+      </c>
+      <c r="E20" s="25">
+        <v>2667.7912999999999</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
       <c r="I20" s="21">
         <v>1</v>
       </c>
       <c r="J20" s="21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K20" s="21">
         <v>8</v>
       </c>
       <c r="L20" s="25">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="M20" s="25"/>
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="M20" s="25">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
@@ -4080,12 +4276,14 @@
       <c r="C21" s="21">
         <v>16</v>
       </c>
-      <c r="D21" s="26">
-        <v>1937.7732000000001</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="D21" s="25">
+        <v>3092.2568000000001</v>
+      </c>
+      <c r="E21" s="27">
+        <v>1515.2462</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
       <c r="I21" s="21">
         <v>2</v>
       </c>
@@ -4094,9 +4292,11 @@
         <v>16</v>
       </c>
       <c r="L21" s="25">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="M21" s="25"/>
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="M21" s="27">
+        <v>2.6800000000000001E-2</v>
+      </c>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
@@ -4108,12 +4308,14 @@
       <c r="C22" s="21">
         <v>32</v>
       </c>
-      <c r="D22" s="28">
-        <v>1208.8357000000001</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="D22" s="27">
+        <v>1218.3</v>
+      </c>
+      <c r="E22" s="25">
+        <v>2982.9059999999999</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="I22" s="21">
         <v>3</v>
       </c>
@@ -4122,23 +4324,25 @@
         <v>32</v>
       </c>
       <c r="L22" s="27">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="M22" s="25"/>
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="M22" s="25">
+        <v>0.1077</v>
+      </c>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
       <c r="I23" s="24"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="24"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
@@ -4149,30 +4353,34 @@
         <v>4</v>
       </c>
       <c r="B24" s="21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C24" s="21">
         <v>8</v>
       </c>
-      <c r="D24" s="26">
-        <v>4352.3244999999997</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="D24" s="25">
+        <v>3722.5167000000001</v>
+      </c>
+      <c r="E24" s="25">
+        <v>3199.6359000000002</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
       <c r="I24" s="21">
         <v>4</v>
       </c>
       <c r="J24" s="21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K24" s="21">
         <v>8</v>
       </c>
       <c r="L24" s="25">
-        <v>7.8299999999999995E-2</v>
-      </c>
-      <c r="M24" s="25"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="M24" s="25">
+        <v>8.8599999999999998E-2</v>
+      </c>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
@@ -4184,10 +4392,14 @@
       <c r="C25" s="21">
         <v>16</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="D25" s="25">
+        <v>1937.7732000000001</v>
+      </c>
+      <c r="E25" s="42">
+        <v>1575.4795999999999</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
       <c r="I25" s="21">
         <v>5</v>
       </c>
@@ -4195,8 +4407,12 @@
       <c r="K25" s="21">
         <v>16</v>
       </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
+      <c r="L25" s="25">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="M25" s="42">
+        <v>2.9899999999999999E-2</v>
+      </c>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
@@ -4208,10 +4424,14 @@
       <c r="C26" s="21">
         <v>32</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="D26" s="27">
+        <v>1208.8357000000001</v>
+      </c>
+      <c r="E26" s="25">
+        <v>2082.7955000000002</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
       <c r="I26" s="21">
         <v>6</v>
       </c>
@@ -4219,8 +4439,12 @@
       <c r="K26" s="21">
         <v>32</v>
       </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
+      <c r="L26" s="27">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="M26" s="25">
+        <v>7.2499999999999995E-2</v>
+      </c>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
@@ -4228,10 +4452,10 @@
       <c r="A27" s="24"/>
       <c r="B27" s="21"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
       <c r="I27" s="24"/>
       <c r="J27" s="21"/>
       <c r="K27" s="24"/>
@@ -4245,25 +4469,29 @@
         <v>7</v>
       </c>
       <c r="B28" s="21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C28" s="21">
         <v>8</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="D28" s="25">
+        <v>4352.3244999999997</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
       <c r="I28" s="21">
         <v>7</v>
       </c>
       <c r="J28" s="21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K28" s="21">
         <v>8</v>
       </c>
-      <c r="L28" s="25"/>
+      <c r="L28" s="25">
+        <v>7.8299999999999995E-2</v>
+      </c>
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
@@ -4276,10 +4504,12 @@
       <c r="C29" s="21">
         <v>16</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="D29" s="25">
+        <v>1427.1585</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
       <c r="I29" s="21">
         <v>8</v>
       </c>
@@ -4287,7 +4517,9 @@
       <c r="K29" s="21">
         <v>16</v>
       </c>
-      <c r="L29" s="25"/>
+      <c r="L29" s="25">
+        <v>3.39E-2</v>
+      </c>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
@@ -4300,10 +4532,12 @@
       <c r="C30" s="21">
         <v>32</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="D30" s="25">
+        <v>2618.2559999999999</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
       <c r="I30" s="21">
         <v>9</v>
       </c>
@@ -4311,32 +4545,34 @@
       <c r="K30" s="21">
         <v>32</v>
       </c>
-      <c r="L30" s="25"/>
+      <c r="L30" s="25">
+        <v>8.8999999999999996E-2</v>
+      </c>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="38"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="22" t="s">
         <v>4</v>
       </c>
@@ -4355,17 +4591,19 @@
         <v>1</v>
       </c>
       <c r="B35" s="21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C35" s="21">
         <v>8</v>
       </c>
-      <c r="D35" s="26">
-        <v>541.91</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="D35" s="31">
+        <v>272.33</v>
+      </c>
+      <c r="E35" s="31">
+        <v>280.5</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
@@ -4375,12 +4613,14 @@
       <c r="C36" s="21">
         <v>16</v>
       </c>
-      <c r="D36" s="26">
-        <v>266.58999999999997</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
+      <c r="D36" s="31">
+        <v>142.81</v>
+      </c>
+      <c r="E36" s="30">
+        <v>155.77000000000001</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
@@ -4390,38 +4630,42 @@
       <c r="C37" s="21">
         <v>32</v>
       </c>
-      <c r="D37" s="28">
-        <v>160.91</v>
-      </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
+      <c r="D37" s="30">
+        <v>96.6</v>
+      </c>
+      <c r="E37" s="31">
+        <v>86.7</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="21"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>4</v>
       </c>
       <c r="B39" s="21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C39" s="21">
         <v>8</v>
       </c>
-      <c r="D39" s="26">
-        <v>790.27</v>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
+      <c r="D39" s="31">
+        <v>541.91</v>
+      </c>
+      <c r="E39" s="31">
+        <v>504.03</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
@@ -4431,10 +4675,14 @@
       <c r="C40" s="21">
         <v>16</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
+      <c r="D40" s="31">
+        <v>266.58999999999997</v>
+      </c>
+      <c r="E40" s="43">
+        <v>260.70999999999998</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
@@ -4444,34 +4692,40 @@
       <c r="C41" s="21">
         <v>32</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
+      <c r="D41" s="30">
+        <v>160.91</v>
+      </c>
+      <c r="E41" s="31">
+        <v>152.68</v>
+      </c>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="21"/>
       <c r="C42" s="24"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>7</v>
       </c>
       <c r="B43" s="21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C43" s="21">
         <v>8</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+      <c r="D43" s="31">
+        <v>790.27</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
@@ -4481,10 +4735,12 @@
       <c r="C44" s="21">
         <v>16</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
+      <c r="D44" s="31">
+        <v>414.38</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
@@ -4494,10 +4750,44 @@
       <c r="C45" s="21">
         <v>32</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
+      <c r="D45" s="31">
+        <v>251.44</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB4EF6E-3089-486C-96D6-84AA4AF2B66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3DCD57-55A4-41CE-A3FC-534C9EEB63DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,13 +449,13 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2721,34 +2721,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="23"/>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="54" t="s">
@@ -2757,13 +2757,13 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="54" t="s">
@@ -2774,9 +2774,9 @@
       <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
@@ -2789,9 +2789,9 @@
       <c r="G4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="22" t="s">
         <v>4</v>
       </c>
@@ -3125,13 +3125,13 @@
       <c r="O15" s="25"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="54" t="s">
@@ -3140,13 +3140,13 @@
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="53" t="s">
+      <c r="J18" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="53" t="s">
+      <c r="K18" s="55" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="54" t="s">
@@ -3157,9 +3157,9 @@
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="22" t="s">
         <v>4</v>
       </c>
@@ -3172,9 +3172,9 @@
       <c r="G19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="22" t="s">
         <v>4</v>
       </c>
@@ -3509,13 +3509,13 @@
       <c r="O30" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="54" t="s">
@@ -3526,9 +3526,9 @@
       <c r="G33" s="54"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="22" t="s">
         <v>4</v>
       </c>
@@ -3715,6 +3715,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I3:I4"/>
@@ -3723,20 +3737,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3751,7 +3751,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3764,34 +3764,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="23"/>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="54" t="s">
@@ -3800,13 +3800,13 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="54" t="s">
@@ -3817,9 +3817,9 @@
       <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="57"/>
-      <c r="C4" s="53"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
@@ -3832,9 +3832,9 @@
       <c r="G4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="22" t="s">
         <v>4</v>
       </c>
@@ -4169,13 +4169,13 @@
       <c r="O15" s="25"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="55" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="54" t="s">
@@ -4184,13 +4184,13 @@
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="53" t="s">
+      <c r="J18" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="53" t="s">
+      <c r="K18" s="55" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="54" t="s">
@@ -4201,9 +4201,9 @@
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="57"/>
-      <c r="C19" s="53"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="22" t="s">
         <v>4</v>
       </c>
@@ -4216,9 +4216,9 @@
       <c r="G19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="22" t="s">
         <v>4</v>
       </c>
@@ -4553,13 +4553,13 @@
       <c r="O30" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="54" t="s">
@@ -4570,9 +4570,9 @@
       <c r="G33" s="54"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="22" t="s">
         <v>4</v>
       </c>
@@ -4791,16 +4791,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:O3"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="A33:A34"/>
@@ -4813,6 +4803,16 @@
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3DCD57-55A4-41CE-A3FC-534C9EEB63DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164CB78F-1C36-4876-9A48-13C33F37CBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,13 +449,13 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2721,34 +2721,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="23"/>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="54" t="s">
@@ -2757,13 +2757,13 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="53" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="54" t="s">
@@ -2774,9 +2774,9 @@
       <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
@@ -2789,9 +2789,9 @@
       <c r="G4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="22" t="s">
         <v>4</v>
       </c>
@@ -3125,13 +3125,13 @@
       <c r="O15" s="25"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="53" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="54" t="s">
@@ -3140,13 +3140,13 @@
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="53" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="54" t="s">
@@ -3157,9 +3157,9 @@
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="22" t="s">
         <v>4</v>
       </c>
@@ -3172,9 +3172,9 @@
       <c r="G19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
       <c r="L19" s="22" t="s">
         <v>4</v>
       </c>
@@ -3509,13 +3509,13 @@
       <c r="O30" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="53" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="54" t="s">
@@ -3526,9 +3526,9 @@
       <c r="G33" s="54"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="22" t="s">
         <v>4</v>
       </c>
@@ -3715,6 +3715,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -3723,20 +3737,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3764,34 +3764,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="23"/>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="54" t="s">
@@ -3800,13 +3800,13 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="53" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="54" t="s">
@@ -3817,9 +3817,9 @@
       <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="57"/>
-      <c r="C4" s="55"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
@@ -3832,9 +3832,9 @@
       <c r="G4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="22" t="s">
         <v>4</v>
       </c>
@@ -4169,13 +4169,13 @@
       <c r="O15" s="25"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="53" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="54" t="s">
@@ -4184,13 +4184,13 @@
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="53" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="54" t="s">
@@ -4201,9 +4201,9 @@
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="57"/>
-      <c r="C19" s="55"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="22" t="s">
         <v>4</v>
       </c>
@@ -4216,9 +4216,9 @@
       <c r="G19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
       <c r="L19" s="22" t="s">
         <v>4</v>
       </c>
@@ -4553,13 +4553,13 @@
       <c r="O30" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="53" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="54" t="s">
@@ -4570,9 +4570,9 @@
       <c r="G33" s="54"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="22" t="s">
         <v>4</v>
       </c>
@@ -4791,6 +4791,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="A33:A34"/>
@@ -4803,16 +4813,6 @@
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164CB78F-1C36-4876-9A48-13C33F37CBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272FCFE8-2302-4EA3-937A-9B7C4107655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hasil evaluasi" sheetId="1" r:id="rId1"/>
@@ -449,13 +449,13 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -775,12 +775,12 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="15.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
@@ -806,7 +806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>0.99619999999999997</v>
       </c>
@@ -832,7 +832,7 @@
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>0.996</v>
       </c>
@@ -858,7 +858,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>0.99660000000000004</v>
       </c>
@@ -884,7 +884,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>0.99670000000000003</v>
       </c>
@@ -910,7 +910,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>0.99619999999999997</v>
       </c>
@@ -936,7 +936,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>0.99609999999999999</v>
       </c>
@@ -962,7 +962,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>0.99619999999999997</v>
       </c>
@@ -988,7 +988,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>0.99619999999999997</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>0.99619999999999997</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>0.99609999999999999</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>0.99629999999999996</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>0.99609999999999999</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>0.99750000000000005</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>0.99729999999999996</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>0.99609999999999999</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>0.99629999999999996</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>0.99670000000000003</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>0.99629999999999996</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>0.99629999999999996</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>0.99619999999999997</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>0.99660000000000004</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>0.99609999999999999</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>0.99619999999999997</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>0.99629999999999996</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>0.99619999999999997</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>0.99609999999999999</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>0.99660000000000004</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>0.996</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>0.996</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>0.99650000000000005</v>
       </c>
@@ -1602,16 +1602,16 @@
       <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.44140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45"/>
       <c r="B2" s="51" t="s">
         <v>11</v>
@@ -1645,7 +1645,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46"/>
       <c r="B3" s="6" t="s">
         <v>12</v>
@@ -1673,7 +1673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2573,8 +2573,8 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>16</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>17</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>18</v>
       </c>
@@ -2705,50 +2705,50 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" style="20" customWidth="1"/>
-    <col min="4" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="20" customWidth="1"/>
-    <col min="9" max="10" width="15.7109375" style="20" customWidth="1"/>
-    <col min="11" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="20" customWidth="1"/>
+    <col min="4" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="20" customWidth="1"/>
+    <col min="9" max="10" width="15.6640625" style="20" customWidth="1"/>
+    <col min="11" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="23"/>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="54" t="s">
@@ -2757,13 +2757,13 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="54" t="s">
@@ -2773,10 +2773,10 @@
       <c r="N3" s="54"/>
       <c r="O3" s="54"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
@@ -2789,9 +2789,9 @@
       <c r="G4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="22" t="s">
         <v>4</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -2841,7 +2841,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>3</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
       <c r="B8" s="29"/>
       <c r="C8" s="35"/>
@@ -2920,7 +2920,7 @@
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>4</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>5</v>
       </c>
@@ -2988,7 +2988,7 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>6</v>
       </c>
@@ -3020,701 +3020,451 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="I14" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="21">
-        <v>75</v>
-      </c>
-      <c r="C13" s="21">
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>1</v>
+      </c>
+      <c r="B16" s="21">
+        <v>25</v>
+      </c>
+      <c r="C16" s="21">
         <v>8</v>
       </c>
-      <c r="D13" s="25">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="I13" s="21">
-        <v>7</v>
-      </c>
-      <c r="J13" s="21">
-        <v>75</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="D16" s="38">
+        <v>5497.6935999999996</v>
+      </c>
+      <c r="E16" s="25">
+        <v>1957.5102999999999</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="I16" s="21">
+        <v>1</v>
+      </c>
+      <c r="J16" s="21">
+        <v>25</v>
+      </c>
+      <c r="K16" s="21">
         <v>8</v>
       </c>
-      <c r="L13" s="25">
-        <v>3811.8806</v>
-      </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <v>8</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21">
+      <c r="L16" s="38">
+        <v>0.1641</v>
+      </c>
+      <c r="M16" s="25">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>2</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21">
         <v>16</v>
       </c>
-      <c r="D14" s="25">
-        <v>0.99690000000000001</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="I14" s="21">
-        <v>8</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21">
+      <c r="D17" s="38">
+        <v>1779.0035</v>
+      </c>
+      <c r="E17" s="25">
+        <v>2069.3150000000001</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="I17" s="21">
+        <v>2</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21">
         <v>16</v>
       </c>
-      <c r="L14" s="25">
-        <v>1141.8219999999999</v>
-      </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>9</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21">
+      <c r="L17" s="38">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="M17" s="25">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>3</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21">
         <v>32</v>
       </c>
-      <c r="D15" s="25">
-        <v>0.99580000000000002</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="I15" s="21">
-        <v>9</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21">
+      <c r="D18" s="38">
+        <v>3717.5688</v>
+      </c>
+      <c r="E18" s="25">
+        <v>3472.7815000000001</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="I18" s="21">
+        <v>3</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21">
         <v>32</v>
       </c>
-      <c r="L15" s="25">
-        <v>2622.7894000000001</v>
-      </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="I18" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="22" t="s">
+      <c r="L18" s="38">
+        <v>0.1331</v>
+      </c>
+      <c r="M18" s="25">
+        <v>0.1231</v>
+      </c>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
         <v>4</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
-        <v>1</v>
-      </c>
       <c r="B20" s="21">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C20" s="21">
         <v>8</v>
       </c>
-      <c r="D20" s="38">
-        <v>5497.6935999999996</v>
+      <c r="D20" s="27">
+        <v>1294.1074000000001</v>
       </c>
       <c r="E20" s="25">
-        <v>1957.5102999999999</v>
+        <v>2416.5668999999998</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="I20" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" s="21">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K20" s="21">
         <v>8</v>
       </c>
-      <c r="L20" s="38">
-        <v>0.1641</v>
+      <c r="L20" s="27">
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="M20" s="25">
-        <v>3.2599999999999997E-2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21">
         <v>16</v>
       </c>
-      <c r="D21" s="38">
-        <v>1779.0035</v>
-      </c>
-      <c r="E21" s="25">
-        <v>2069.3150000000001</v>
+      <c r="D21" s="25">
+        <v>2156.8478</v>
+      </c>
+      <c r="E21" s="42">
+        <v>1696.8877</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="I21" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="21">
         <v>16</v>
       </c>
-      <c r="L21" s="38">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="M21" s="25">
-        <v>4.3700000000000003E-2</v>
+      <c r="L21" s="25">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="M21" s="42">
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21">
         <v>32</v>
       </c>
-      <c r="D22" s="38">
-        <v>3717.5688</v>
+      <c r="D22" s="25">
+        <v>2888.2048</v>
       </c>
       <c r="E22" s="25">
-        <v>3472.7815000000001</v>
+        <v>2586.6738999999998</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="I22" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="21">
         <v>32</v>
       </c>
-      <c r="L22" s="38">
-        <v>0.1331</v>
+      <c r="L22" s="25">
+        <v>0.1003</v>
       </c>
       <c r="M22" s="25">
-        <v>0.1231</v>
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="21">
-        <v>50</v>
-      </c>
-      <c r="C24" s="21">
+      <c r="E26" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>1</v>
+      </c>
+      <c r="B27" s="21">
+        <v>25</v>
+      </c>
+      <c r="C27" s="21">
         <v>8</v>
       </c>
-      <c r="D24" s="27">
-        <v>1294.1074000000001</v>
-      </c>
-      <c r="E24" s="25">
-        <v>2416.5668999999998</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="I24" s="21">
-        <v>4</v>
-      </c>
-      <c r="J24" s="21">
-        <v>50</v>
-      </c>
-      <c r="K24" s="21">
-        <v>8</v>
-      </c>
-      <c r="L24" s="27">
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="M24" s="25">
-        <v>5.67E-2</v>
-      </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
-        <v>5</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21">
+      <c r="D27" s="38">
+        <v>250.53</v>
+      </c>
+      <c r="E27" s="31">
+        <v>267.35000000000002</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>2</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21">
         <v>16</v>
       </c>
-      <c r="D25" s="25">
-        <v>2156.8478</v>
-      </c>
-      <c r="E25" s="42">
-        <v>1696.8877</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="I25" s="21">
-        <v>5</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21">
-        <v>16</v>
-      </c>
-      <c r="L25" s="25">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="M25" s="42">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
-        <v>6</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21">
-        <v>32</v>
-      </c>
-      <c r="D26" s="25">
-        <v>2888.2048</v>
-      </c>
-      <c r="E26" s="25">
-        <v>2586.6738999999998</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="I26" s="21">
-        <v>6</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21">
-        <v>32</v>
-      </c>
-      <c r="L26" s="25">
-        <v>0.1003</v>
-      </c>
-      <c r="M26" s="25">
-        <v>8.7900000000000006E-2</v>
-      </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
-        <v>7</v>
-      </c>
-      <c r="B28" s="21">
-        <v>75</v>
-      </c>
-      <c r="C28" s="21">
-        <v>8</v>
-      </c>
-      <c r="D28" s="25">
-        <v>5098.2520000000004</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="I28" s="21">
-        <v>7</v>
-      </c>
-      <c r="J28" s="21">
-        <v>75</v>
-      </c>
-      <c r="K28" s="21">
-        <v>8</v>
-      </c>
-      <c r="L28" s="25">
-        <v>0.12479999999999999</v>
-      </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="38">
+        <v>138.87</v>
+      </c>
+      <c r="E28" s="31">
+        <v>146.41999999999999</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21">
+        <v>32</v>
+      </c>
+      <c r="D29" s="38">
+        <v>105.58</v>
+      </c>
+      <c r="E29" s="31">
+        <v>96.36</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>4</v>
+      </c>
+      <c r="B31" s="21">
+        <v>50</v>
+      </c>
+      <c r="C31" s="21">
+        <v>8</v>
+      </c>
+      <c r="D31" s="30">
+        <v>523.70000000000005</v>
+      </c>
+      <c r="E31" s="31">
+        <v>478.82</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>5</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21">
         <v>16</v>
       </c>
-      <c r="D29" s="25">
-        <v>1437.4019000000001</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="I29" s="21">
-        <v>8</v>
-      </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21">
-        <v>16</v>
-      </c>
-      <c r="L29" s="25">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
-        <v>9</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21">
+      <c r="D32" s="31">
+        <v>258.87</v>
+      </c>
+      <c r="E32" s="43">
+        <v>249.53</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <v>6</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21">
         <v>32</v>
       </c>
-      <c r="D30" s="25">
-        <v>2810.0261999999998</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="I30" s="21">
-        <v>9</v>
-      </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21">
-        <v>32</v>
-      </c>
-      <c r="L30" s="25">
-        <v>9.8100000000000007E-2</v>
-      </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
-        <v>1</v>
-      </c>
-      <c r="B35" s="21">
-        <v>25</v>
-      </c>
-      <c r="C35" s="21">
-        <v>8</v>
-      </c>
-      <c r="D35" s="38">
-        <v>250.53</v>
-      </c>
-      <c r="E35" s="31">
-        <v>267.35000000000002</v>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
-        <v>2</v>
-      </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21">
-        <v>16</v>
-      </c>
-      <c r="D36" s="38">
-        <v>138.87</v>
-      </c>
-      <c r="E36" s="31">
-        <v>146.41999999999999</v>
-      </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
-        <v>3</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21">
-        <v>32</v>
-      </c>
-      <c r="D37" s="38">
-        <v>105.58</v>
-      </c>
-      <c r="E37" s="31">
-        <v>96.36</v>
-      </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
-        <v>4</v>
-      </c>
-      <c r="B39" s="21">
-        <v>50</v>
-      </c>
-      <c r="C39" s="21">
-        <v>8</v>
-      </c>
-      <c r="D39" s="30">
-        <v>523.70000000000005</v>
-      </c>
-      <c r="E39" s="31">
-        <v>478.82</v>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
-        <v>5</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21">
-        <v>16</v>
-      </c>
-      <c r="D40" s="31">
-        <v>258.87</v>
-      </c>
-      <c r="E40" s="43">
-        <v>249.53</v>
-      </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>6</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21">
-        <v>32</v>
-      </c>
-      <c r="D41" s="31">
+      <c r="D33" s="31">
         <v>172.59</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E33" s="31">
         <v>164.26</v>
       </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
-        <v>7</v>
-      </c>
-      <c r="B43" s="21">
-        <v>75</v>
-      </c>
-      <c r="C43" s="21">
-        <v>8</v>
-      </c>
-      <c r="D43" s="31">
-        <v>696.23</v>
-      </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
-        <v>8</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21">
-        <v>16</v>
-      </c>
-      <c r="D44" s="31">
-        <v>396.15</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
-        <v>9</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21">
-        <v>32</v>
-      </c>
-      <c r="D45" s="31">
-        <v>245.24</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I3:I4"/>
@@ -3723,20 +3473,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3748,50 +3484,50 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" style="20" customWidth="1"/>
-    <col min="4" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="20" customWidth="1"/>
-    <col min="9" max="10" width="15.7109375" style="20" customWidth="1"/>
-    <col min="11" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="20" customWidth="1"/>
+    <col min="4" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="20" customWidth="1"/>
+    <col min="9" max="10" width="15.6640625" style="20" customWidth="1"/>
+    <col min="11" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="23"/>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="54" t="s">
@@ -3800,13 +3536,13 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="54" t="s">
@@ -3816,10 +3552,10 @@
       <c r="N3" s="54"/>
       <c r="O3" s="54"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="55"/>
       <c r="B4" s="57"/>
-      <c r="C4" s="53"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
@@ -3832,9 +3568,9 @@
       <c r="G4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="22" t="s">
         <v>4</v>
       </c>
@@ -3848,7 +3584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -3884,7 +3620,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -3916,7 +3652,7 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>3</v>
       </c>
@@ -3948,7 +3684,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="29"/>
       <c r="C8" s="21"/>
@@ -3964,7 +3700,7 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>4</v>
       </c>
@@ -4000,7 +3736,7 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>5</v>
       </c>
@@ -4032,7 +3768,7 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>6</v>
       </c>
@@ -4064,733 +3800,481 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="I14" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="55"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="21">
-        <v>75</v>
-      </c>
-      <c r="C13" s="21">
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>1</v>
+      </c>
+      <c r="B16" s="21">
+        <v>25</v>
+      </c>
+      <c r="C16" s="21">
         <v>8</v>
       </c>
-      <c r="D13" s="25">
-        <v>0.99380000000000002</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="I13" s="21">
-        <v>7</v>
-      </c>
-      <c r="J13" s="21">
-        <v>75</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="D16" s="25">
+        <v>2136.3316</v>
+      </c>
+      <c r="E16" s="25">
+        <v>2667.7912999999999</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="I16" s="21">
+        <v>1</v>
+      </c>
+      <c r="J16" s="21">
+        <v>25</v>
+      </c>
+      <c r="K16" s="21">
         <v>8</v>
       </c>
-      <c r="L13" s="25">
-        <v>2714.5616</v>
-      </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <v>8</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21">
+      <c r="L16" s="25">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="M16" s="25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>2</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21">
         <v>16</v>
       </c>
-      <c r="D14" s="25">
-        <v>0.99670000000000003</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="I14" s="21">
-        <v>8</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21">
+      <c r="D17" s="25">
+        <v>3092.2568000000001</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1515.2462</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="I17" s="21">
+        <v>2</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21">
         <v>16</v>
       </c>
-      <c r="L14" s="25">
-        <v>1035.1193000000001</v>
-      </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>9</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21">
+      <c r="L17" s="25">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="M17" s="27">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>3</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21">
         <v>32</v>
       </c>
-      <c r="D15" s="25">
-        <v>0.99660000000000004</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="I15" s="21">
-        <v>9</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21">
+      <c r="D18" s="27">
+        <v>1218.3</v>
+      </c>
+      <c r="E18" s="25">
+        <v>2982.9059999999999</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="I18" s="21">
+        <v>3</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21">
         <v>32</v>
       </c>
-      <c r="L15" s="25">
-        <v>2370.9083999999998</v>
-      </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="I18" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="22" t="s">
+      <c r="L18" s="27">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="M18" s="25">
+        <v>0.1077</v>
+      </c>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
         <v>4</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
-        <v>1</v>
-      </c>
       <c r="B20" s="21">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C20" s="21">
         <v>8</v>
       </c>
       <c r="D20" s="25">
-        <v>2136.3316</v>
+        <v>3722.5167000000001</v>
       </c>
       <c r="E20" s="25">
-        <v>2667.7912999999999</v>
+        <v>3199.6359000000002</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="I20" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" s="21">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K20" s="21">
         <v>8</v>
       </c>
       <c r="L20" s="25">
-        <v>6.2199999999999998E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="M20" s="25">
-        <v>7.4999999999999997E-2</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21">
         <v>16</v>
       </c>
       <c r="D21" s="25">
-        <v>3092.2568000000001</v>
-      </c>
-      <c r="E21" s="27">
-        <v>1515.2462</v>
+        <v>1937.7732000000001</v>
+      </c>
+      <c r="E21" s="42">
+        <v>1575.4795999999999</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="I21" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="21">
         <v>16</v>
       </c>
       <c r="L21" s="25">
-        <v>9.6699999999999994E-2</v>
-      </c>
-      <c r="M21" s="27">
-        <v>2.6800000000000001E-2</v>
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="M21" s="42">
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21">
         <v>32</v>
       </c>
       <c r="D22" s="27">
-        <v>1218.3</v>
+        <v>1208.8357000000001</v>
       </c>
       <c r="E22" s="25">
-        <v>2982.9059999999999</v>
+        <v>2082.7955000000002</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="I22" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="21">
         <v>32</v>
       </c>
       <c r="L22" s="27">
-        <v>2.1700000000000001E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="M22" s="25">
-        <v>0.1077</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="21">
-        <v>50</v>
-      </c>
-      <c r="C24" s="21">
+      <c r="E26" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>1</v>
+      </c>
+      <c r="B27" s="21">
+        <v>25</v>
+      </c>
+      <c r="C27" s="21">
         <v>8</v>
       </c>
-      <c r="D24" s="25">
-        <v>3722.5167000000001</v>
-      </c>
-      <c r="E24" s="25">
-        <v>3199.6359000000002</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="I24" s="21">
-        <v>4</v>
-      </c>
-      <c r="J24" s="21">
-        <v>50</v>
-      </c>
-      <c r="K24" s="21">
-        <v>8</v>
-      </c>
-      <c r="L24" s="25">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="M24" s="25">
-        <v>8.8599999999999998E-2</v>
-      </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
-        <v>5</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21">
+      <c r="D27" s="31">
+        <v>272.33</v>
+      </c>
+      <c r="E27" s="31">
+        <v>280.5</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>2</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21">
         <v>16</v>
       </c>
-      <c r="D25" s="25">
-        <v>1937.7732000000001</v>
-      </c>
-      <c r="E25" s="42">
-        <v>1575.4795999999999</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="I25" s="21">
-        <v>5</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21">
-        <v>16</v>
-      </c>
-      <c r="L25" s="25">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="M25" s="42">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
-        <v>6</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21">
-        <v>32</v>
-      </c>
-      <c r="D26" s="27">
-        <v>1208.8357000000001</v>
-      </c>
-      <c r="E26" s="25">
-        <v>2082.7955000000002</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="I26" s="21">
-        <v>6</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21">
-        <v>32</v>
-      </c>
-      <c r="L26" s="27">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="M26" s="25">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
-        <v>7</v>
-      </c>
-      <c r="B28" s="21">
-        <v>75</v>
-      </c>
-      <c r="C28" s="21">
-        <v>8</v>
-      </c>
-      <c r="D28" s="25">
-        <v>4352.3244999999997</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="I28" s="21">
-        <v>7</v>
-      </c>
-      <c r="J28" s="21">
-        <v>75</v>
-      </c>
-      <c r="K28" s="21">
-        <v>8</v>
-      </c>
-      <c r="L28" s="25">
-        <v>7.8299999999999995E-2</v>
-      </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="31">
+        <v>142.81</v>
+      </c>
+      <c r="E28" s="30">
+        <v>155.77000000000001</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21">
+        <v>32</v>
+      </c>
+      <c r="D29" s="30">
+        <v>96.6</v>
+      </c>
+      <c r="E29" s="31">
+        <v>86.7</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>4</v>
+      </c>
+      <c r="B31" s="21">
+        <v>50</v>
+      </c>
+      <c r="C31" s="21">
+        <v>8</v>
+      </c>
+      <c r="D31" s="31">
+        <v>541.91</v>
+      </c>
+      <c r="E31" s="31">
+        <v>504.03</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>5</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21">
         <v>16</v>
       </c>
-      <c r="D29" s="25">
-        <v>1427.1585</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="I29" s="21">
-        <v>8</v>
-      </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21">
-        <v>16</v>
-      </c>
-      <c r="L29" s="25">
-        <v>3.39E-2</v>
-      </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
-        <v>9</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21">
+      <c r="D32" s="31">
+        <v>266.58999999999997</v>
+      </c>
+      <c r="E32" s="43">
+        <v>260.70999999999998</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <v>6</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21">
         <v>32</v>
       </c>
-      <c r="D30" s="25">
-        <v>2618.2559999999999</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="I30" s="21">
-        <v>9</v>
-      </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21">
-        <v>32</v>
-      </c>
-      <c r="L30" s="25">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
-        <v>1</v>
-      </c>
-      <c r="B35" s="21">
-        <v>25</v>
-      </c>
-      <c r="C35" s="21">
-        <v>8</v>
-      </c>
-      <c r="D35" s="31">
-        <v>272.33</v>
-      </c>
-      <c r="E35" s="31">
-        <v>280.5</v>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
-        <v>2</v>
-      </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21">
-        <v>16</v>
-      </c>
-      <c r="D36" s="31">
-        <v>142.81</v>
-      </c>
-      <c r="E36" s="30">
-        <v>155.77000000000001</v>
-      </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
-        <v>3</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21">
-        <v>32</v>
-      </c>
-      <c r="D37" s="30">
-        <v>96.6</v>
-      </c>
-      <c r="E37" s="31">
-        <v>86.7</v>
-      </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
-        <v>4</v>
-      </c>
-      <c r="B39" s="21">
-        <v>50</v>
-      </c>
-      <c r="C39" s="21">
-        <v>8</v>
-      </c>
-      <c r="D39" s="31">
-        <v>541.91</v>
-      </c>
-      <c r="E39" s="31">
-        <v>504.03</v>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
-        <v>5</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21">
-        <v>16</v>
-      </c>
-      <c r="D40" s="31">
-        <v>266.58999999999997</v>
-      </c>
-      <c r="E40" s="43">
-        <v>260.70999999999998</v>
-      </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>6</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21">
-        <v>32</v>
-      </c>
-      <c r="D41" s="30">
+      <c r="D33" s="30">
         <v>160.91</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E33" s="31">
         <v>152.68</v>
       </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
-        <v>7</v>
-      </c>
-      <c r="B43" s="21">
-        <v>75</v>
-      </c>
-      <c r="C43" s="21">
-        <v>8</v>
-      </c>
-      <c r="D43" s="31">
-        <v>790.27</v>
-      </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
-        <v>8</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21">
-        <v>16</v>
-      </c>
-      <c r="D44" s="31">
-        <v>414.38</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
-        <v>9</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21">
-        <v>32</v>
-      </c>
-      <c r="D45" s="31">
-        <v>251.44</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="33"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="A3:A4"/>
@@ -4801,18 +4285,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9711BEB-835C-49AD-8A63-BD64F8DE14D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFB901C-D7B7-4CB5-9FA8-2F9CEA40BF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hasil evaluasi linux" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -351,6 +351,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -372,23 +378,14 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,7 +694,7 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1531,354 +1528,354 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="30">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="30">
         <v>1082.83</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="30">
         <v>1535.47</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="30">
         <v>3.49E-2</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="30">
         <v>221.26</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="30">
         <v>0.99719999999999998</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="30">
         <v>1314.78</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="30">
         <v>2031.56</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="30">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="30">
         <v>187.99</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="30">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="30">
         <v>1091.48</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="30">
         <v>1491.92</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="30">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="30">
         <v>210.97</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="30">
         <v>776.01</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="30">
         <v>1171.6600000000001</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="30">
         <v>2.3E-2</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="30">
         <v>190.84</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="30">
         <v>0.99629999999999996</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="30">
         <v>1306.03</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="30">
         <v>1594.93</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="30">
         <v>4.7E-2</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="30">
         <v>215.56</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="30">
         <v>1055.42</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="30">
         <v>1534.85</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="30">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="30">
         <v>186.8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="30">
         <v>0.996</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="30">
         <v>1253.72</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="30">
         <v>1644.21</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="30">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="30">
         <v>207.76</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="30">
         <v>0.99739999999999995</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="30">
         <v>683.48</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="30">
         <v>1053.6300000000001</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="30">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="30">
         <v>183.21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="30">
         <v>0.99670000000000003</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="30">
         <v>909.17</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="30">
         <v>1456.14</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="30">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="30">
         <v>217.82</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="30">
         <v>729.81</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="30">
         <v>1151.6300000000001</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="30">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="30">
         <v>189.79</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="30">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="30">
         <v>1008.29</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="30">
         <v>1395.25</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="30">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="30">
         <v>204.01</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="30">
         <v>1048.8499999999999</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="30">
         <v>1562.69</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="30">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="30">
         <v>182.7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="30">
         <v>0.99629999999999996</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="30">
         <v>967.48</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="30">
         <v>1405.13</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="30">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="30">
         <v>202.44</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="30">
         <v>746.3</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="30">
         <v>1156.6300000000001</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="30">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="30">
         <v>177.83</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="30">
         <v>0.996</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="30">
         <v>1070.45</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="30">
         <v>1629.51</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="30">
         <v>3.15E-2</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="30">
         <v>207.36</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="30">
         <v>918.59</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="30">
         <v>1406.95</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="30">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="30">
         <v>183.91</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="30">
         <v>0.99650000000000005</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="30">
         <v>885.52</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="30">
         <v>1294.99</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="30">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="30">
         <v>218.46</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="30">
         <v>740.38</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="30">
         <v>1125.32</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="30">
         <v>2.23E-2</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="30">
         <v>189.62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
+      <c r="A11" s="30">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="30">
         <v>1041.48</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="30">
         <v>1480.84</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="30">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="30">
         <v>213.85</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="30">
         <v>884.32</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="30">
         <v>1301.82</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="30">
         <v>2.58E-2</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="30">
         <v>190.82</v>
       </c>
     </row>
@@ -1895,8 +1892,8 @@
   </sheetPr>
   <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,75 +1908,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="L2" s="29" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="L2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
       <c r="R2" s="18"/>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="32" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="34" t="s">
+      <c r="S3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
@@ -2005,7 +2002,7 @@
       <c r="J4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="31"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="17" t="s">
         <v>12</v>
       </c>
@@ -3302,16 +3299,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="S2:W2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3338,25 +3335,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
@@ -3368,12 +3365,12 @@
       <c r="C3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="I3" s="38" t="s">
         <v>1</v>
       </c>
@@ -3383,12 +3380,12 @@
       <c r="K3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
@@ -3606,12 +3603,12 @@
       <c r="C14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="I14" s="38" t="s">
         <v>1</v>
       </c>
@@ -3621,12 +3618,12 @@
       <c r="K14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
@@ -3844,12 +3841,12 @@
       <c r="C25" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
       <c r="I25" s="38" t="s">
         <v>1</v>
       </c>
@@ -3859,12 +3856,12 @@
       <c r="K25" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="37" t="s">
+      <c r="L25" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
@@ -4082,12 +4079,12 @@
       <c r="C36" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
       <c r="I36" s="38" t="s">
         <v>1</v>
       </c>
@@ -4097,12 +4094,12 @@
       <c r="K36" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="37" t="s">
+      <c r="L36" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
@@ -4320,12 +4317,12 @@
       <c r="C47" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
       <c r="I47" s="38" t="s">
         <v>1</v>
       </c>
@@ -4335,12 +4332,12 @@
       <c r="K47" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="37" t="s">
+      <c r="L47" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
@@ -4544,36 +4541,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:O36"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A36:A37"/>
@@ -4586,6 +4553,36 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:G14"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:G47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFB901C-D7B7-4CB5-9FA8-2F9CEA40BF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982359C5-9A53-499F-8EE3-9F939E70A11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hasil evaluasi linux" sheetId="1" r:id="rId1"/>
@@ -354,9 +354,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -386,6 +383,9 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,8 +694,8 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987642E1-150E-4882-9A64-7276C8DDBCF2}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,323 +1560,643 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="40">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="40">
         <v>1082.83</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="40">
         <v>1535.47</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="40">
         <v>3.49E-2</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="40">
         <v>221.26</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="40">
         <v>0.99719999999999998</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="40">
         <v>1314.78</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="40">
         <v>2031.56</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="40">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="40">
         <v>187.99</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="40">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="40">
         <v>1091.48</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="40">
         <v>1491.92</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="40">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="40">
         <v>210.97</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="40">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="40">
         <v>776.01</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="40">
         <v>1171.6600000000001</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="40">
         <v>2.3E-2</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="40">
         <v>190.84</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="40">
         <v>0.99629999999999996</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="40">
         <v>1306.03</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="40">
         <v>1594.93</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="40">
         <v>4.7E-2</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="40">
         <v>215.56</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="40">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="40">
         <v>1055.42</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="40">
         <v>1534.85</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="40">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="40">
         <v>186.8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="40">
         <v>0.996</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="40">
         <v>1253.72</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="40">
         <v>1644.21</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="40">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="40">
         <v>207.76</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="40">
         <v>0.99739999999999995</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="40">
         <v>683.48</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="40">
         <v>1053.6300000000001</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="40">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="40">
         <v>183.21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="40">
         <v>0.99670000000000003</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="40">
         <v>909.17</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="40">
         <v>1456.14</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="40">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="40">
         <v>217.82</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="40">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="40">
         <v>729.81</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="40">
         <v>1151.6300000000001</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="40">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="40">
         <v>189.79</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="40">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="40">
         <v>1008.29</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="40">
         <v>1395.25</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="40">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="40">
         <v>204.01</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="40">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="40">
         <v>1048.8499999999999</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="40">
         <v>1562.69</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="40">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="40">
         <v>182.7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="40">
         <v>0.99629999999999996</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="40">
         <v>967.48</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="40">
         <v>1405.13</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="40">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="40">
         <v>202.44</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="40">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="40">
         <v>746.3</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="40">
         <v>1156.6300000000001</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="40">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="40">
         <v>177.83</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="40">
         <v>0.996</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="40">
         <v>1070.45</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="40">
         <v>1629.51</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="40">
         <v>3.15E-2</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="40">
         <v>207.36</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="40">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="40">
         <v>918.59</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="40">
         <v>1406.95</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="40">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="40">
         <v>183.91</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="40">
         <v>0.99650000000000005</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="40">
         <v>885.52</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="40">
         <v>1294.99</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="40">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="40">
         <v>218.46</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="40">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="40">
         <v>740.38</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="40">
         <v>1125.32</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="40">
         <v>2.23E-2</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="40">
         <v>189.62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="40">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="40">
         <v>1041.48</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="40">
         <v>1480.84</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="40">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="40">
         <v>213.85</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="40">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="40">
         <v>884.32</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="40">
         <v>1301.82</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="40">
         <v>2.58E-2</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="40">
         <v>190.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="B12" s="40">
+        <v>1007.41</v>
+      </c>
+      <c r="C12" s="40">
+        <v>1612.26</v>
+      </c>
+      <c r="D12" s="40">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="E12" s="40">
+        <v>220.31</v>
+      </c>
+      <c r="F12" s="40">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G12" s="40">
+        <v>679.89</v>
+      </c>
+      <c r="H12" s="40">
+        <v>1048.9000000000001</v>
+      </c>
+      <c r="I12" s="40">
+        <v>2.12E-2</v>
+      </c>
+      <c r="J12" s="40">
+        <v>189.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="B13" s="40">
+        <v>930.34</v>
+      </c>
+      <c r="C13" s="40">
+        <v>1343.19</v>
+      </c>
+      <c r="D13" s="40">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="E13" s="40">
+        <v>209.4</v>
+      </c>
+      <c r="F13" s="40">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G13" s="40">
+        <v>705.22</v>
+      </c>
+      <c r="H13" s="40">
+        <v>1104.76</v>
+      </c>
+      <c r="I13" s="40">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="J13" s="40">
+        <v>187.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>0.996</v>
+      </c>
+      <c r="B14" s="40">
+        <v>1173.48</v>
+      </c>
+      <c r="C14" s="40">
+        <v>1525.73</v>
+      </c>
+      <c r="D14" s="40">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E14" s="40">
+        <v>211.03</v>
+      </c>
+      <c r="F14" s="40">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1064.6500000000001</v>
+      </c>
+      <c r="H14" s="40">
+        <v>1648.57</v>
+      </c>
+      <c r="I14" s="40">
+        <v>2.87E-2</v>
+      </c>
+      <c r="J14" s="40">
+        <v>178.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="B15" s="40">
+        <v>1063.73</v>
+      </c>
+      <c r="C15" s="40">
+        <v>1452.25</v>
+      </c>
+      <c r="D15" s="40">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="E15" s="40">
+        <v>219.04</v>
+      </c>
+      <c r="F15" s="40">
+        <v>0.997</v>
+      </c>
+      <c r="G15" s="40">
+        <v>1221.79</v>
+      </c>
+      <c r="H15" s="40">
+        <v>1834.18</v>
+      </c>
+      <c r="I15" s="40">
+        <v>3.49E-2</v>
+      </c>
+      <c r="J15" s="40">
+        <v>187.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="B16" s="40">
+        <v>1036.8</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1410.83</v>
+      </c>
+      <c r="D16" s="40">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="E16" s="40">
+        <v>200.15</v>
+      </c>
+      <c r="F16" s="40">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G16" s="40">
+        <v>986.39</v>
+      </c>
+      <c r="H16" s="40">
+        <v>1500.06</v>
+      </c>
+      <c r="I16" s="40">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J16" s="40">
+        <v>173.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="B17" s="40">
+        <v>1022.2</v>
+      </c>
+      <c r="C17" s="40">
+        <v>1430.71</v>
+      </c>
+      <c r="D17" s="40">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="E17" s="40">
+        <v>206.28</v>
+      </c>
+      <c r="F17" s="40">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G17" s="40">
+        <v>911.57</v>
+      </c>
+      <c r="H17" s="40">
+        <v>1365.47</v>
+      </c>
+      <c r="I17" s="40">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="J17" s="40">
+        <v>184.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="B18" s="40">
+        <v>1050.46</v>
+      </c>
+      <c r="C18" s="40">
+        <v>1506.65</v>
+      </c>
+      <c r="D18" s="40">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="E18" s="40">
+        <v>205.13</v>
+      </c>
+      <c r="F18" s="40">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G18" s="40">
+        <v>1081.81</v>
+      </c>
+      <c r="H18" s="40">
+        <v>1695.81</v>
+      </c>
+      <c r="I18" s="40">
+        <v>2.87E-2</v>
+      </c>
+      <c r="J18" s="40">
+        <v>181.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="B19" s="40">
+        <v>1159.26</v>
+      </c>
+      <c r="C19" s="40">
+        <v>1582.38</v>
+      </c>
+      <c r="D19" s="40">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E19" s="40">
+        <v>207.26</v>
+      </c>
+      <c r="F19" s="40">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G19" s="40">
+        <v>902.51</v>
+      </c>
+      <c r="H19" s="40">
+        <v>1286.6500000000001</v>
+      </c>
+      <c r="I19" s="40">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="J19" s="40">
+        <v>189.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="B20" s="40">
+        <v>921.68</v>
+      </c>
+      <c r="C20" s="40">
+        <v>1368.48</v>
+      </c>
+      <c r="D20" s="40">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="E20" s="40">
+        <v>202.82</v>
+      </c>
+      <c r="F20" s="40">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G20" s="40">
+        <v>1065.6099999999999</v>
+      </c>
+      <c r="H20" s="40">
+        <v>1533.67</v>
+      </c>
+      <c r="I20" s="40">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="J20" s="40">
+        <v>178.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="B21" s="40">
+        <v>1131.5</v>
+      </c>
+      <c r="C21" s="40">
+        <v>1531.53</v>
+      </c>
+      <c r="D21" s="40">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="E21" s="40">
+        <v>217.27</v>
+      </c>
+      <c r="F21" s="40">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="G21" s="40">
+        <v>739.05</v>
+      </c>
+      <c r="H21" s="40">
+        <v>1088.0999999999999</v>
+      </c>
+      <c r="I21" s="40">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="J21" s="40">
+        <v>184.16</v>
       </c>
     </row>
   </sheetData>
@@ -1908,75 +2228,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="L2" s="31" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="L2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
       <c r="R2" s="18"/>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="34" t="s">
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
@@ -2002,7 +2322,7 @@
       <c r="J4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="33"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="17" t="s">
         <v>12</v>
       </c>
@@ -3335,62 +3655,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="I3" s="38" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="I3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3403,9 +3723,9 @@
       <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
       <c r="L4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3594,41 +3914,41 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="I14" s="38" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="I14" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
@@ -3641,9 +3961,9 @@
       <c r="G15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="8" t="s">
         <v>4</v>
       </c>
@@ -3832,41 +4152,41 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="I25" s="38" t="s">
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="I25" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="38" t="s">
+      <c r="K25" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="8" t="s">
         <v>4</v>
       </c>
@@ -3879,9 +4199,9 @@
       <c r="G26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="8" t="s">
         <v>4</v>
       </c>
@@ -4070,41 +4390,41 @@
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="I36" s="38" t="s">
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="I36" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K36" s="38" t="s">
+      <c r="K36" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L36" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="8" t="s">
         <v>4</v>
       </c>
@@ -4117,9 +4437,9 @@
       <c r="G37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
       <c r="L37" s="8" t="s">
         <v>4</v>
       </c>
@@ -4308,41 +4628,41 @@
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="I47" s="38" t="s">
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="I47" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J47" s="38" t="s">
+      <c r="J47" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K47" s="38" t="s">
+      <c r="K47" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="39" t="s">
+      <c r="L47" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="8" t="s">
         <v>4</v>
       </c>
@@ -4355,9 +4675,9 @@
       <c r="G48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
       <c r="L48" s="8" t="s">
         <v>4</v>
       </c>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982359C5-9A53-499F-8EE3-9F939E70A11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435CF746-DE32-4E96-8169-D8898DF767F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hasil evaluasi linux" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -275,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -354,6 +355,9 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -384,9 +388,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,12 +700,12 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="15.7109375" style="5" customWidth="1"/>
+    <col min="1" max="8" width="15.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -729,7 +731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -755,7 +757,7 @@
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0.996</v>
       </c>
@@ -781,7 +783,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0.99660000000000004</v>
       </c>
@@ -807,7 +809,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>0.99670000000000003</v>
       </c>
@@ -833,7 +835,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -859,7 +861,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>0.99609999999999999</v>
       </c>
@@ -885,7 +887,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -911,7 +913,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -937,7 +939,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -963,7 +965,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>0.99609999999999999</v>
       </c>
@@ -989,7 +991,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>0.99629999999999996</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>0.99609999999999999</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>0.99750000000000005</v>
       </c>
@@ -1067,7 +1069,7 @@
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>0.99729999999999996</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>0.99609999999999999</v>
       </c>
@@ -1119,7 +1121,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>0.99629999999999996</v>
       </c>
@@ -1145,7 +1147,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>0.99670000000000003</v>
       </c>
@@ -1171,7 +1173,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>0.99629999999999996</v>
       </c>
@@ -1197,7 +1199,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>0.99629999999999996</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -1249,7 +1251,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>0.99660000000000004</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>0.99609999999999999</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>0.99629999999999996</v>
       </c>
@@ -1353,7 +1355,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>0.99609999999999999</v>
       </c>
@@ -1405,7 +1407,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>0.99660000000000004</v>
       </c>
@@ -1431,7 +1433,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>0.996</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>0.996</v>
       </c>
@@ -1483,7 +1485,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>0.99650000000000005</v>
       </c>
@@ -1516,18 +1518,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987642E1-150E-4882-9A64-7276C8DDBCF2}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
@@ -1559,645 +1561,690 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="30">
         <v>1082.83</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="30">
         <v>1535.47</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="30">
         <v>3.49E-2</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="30">
         <v>221.26</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="30">
         <v>0.99719999999999998</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="30">
         <v>1314.78</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="30">
         <v>2031.56</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="30">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="30">
         <v>187.99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="30">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="30">
         <v>1091.48</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="30">
         <v>1491.92</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="30">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="30">
         <v>210.97</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="30">
         <v>776.01</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="30">
         <v>1171.6600000000001</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="30">
         <v>2.3E-2</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="30">
         <v>190.84</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="30">
         <v>0.99629999999999996</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="30">
         <v>1306.03</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="30">
         <v>1594.93</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="30">
         <v>4.7E-2</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="30">
         <v>215.56</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="30">
         <v>1055.42</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="30">
         <v>1534.85</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="30">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="30">
         <v>186.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="30">
         <v>0.996</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="30">
         <v>1253.72</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="30">
         <v>1644.21</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="30">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="30">
         <v>207.76</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="30">
         <v>0.99739999999999995</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="30">
         <v>683.48</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="30">
         <v>1053.6300000000001</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="30">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="30">
         <v>183.21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
         <v>0.99670000000000003</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="30">
         <v>909.17</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="30">
         <v>1456.14</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="30">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="30">
         <v>217.82</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="30">
         <v>729.81</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="30">
         <v>1151.6300000000001</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="30">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="30">
         <v>189.79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="30">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="30">
         <v>1008.29</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="30">
         <v>1395.25</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="30">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="30">
         <v>204.01</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="30">
         <v>1048.8499999999999</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="30">
         <v>1562.69</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="30">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="30">
         <v>182.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="30">
         <v>0.99629999999999996</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="30">
         <v>967.48</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="30">
         <v>1405.13</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="30">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="30">
         <v>202.44</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="30">
         <v>746.3</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="30">
         <v>1156.6300000000001</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="30">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="30">
         <v>177.83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
         <v>0.996</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="30">
         <v>1070.45</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="30">
         <v>1629.51</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="30">
         <v>3.15E-2</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="30">
         <v>207.36</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="30">
         <v>918.59</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="30">
         <v>1406.95</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="30">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="30">
         <v>183.91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
         <v>0.99650000000000005</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="30">
         <v>885.52</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="30">
         <v>1294.99</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="30">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="30">
         <v>218.46</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="30">
         <v>740.38</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="30">
         <v>1125.32</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="30">
         <v>2.23E-2</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="30">
         <v>189.62</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="30">
         <v>1041.48</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="30">
         <v>1480.84</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="30">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="30">
         <v>213.85</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="30">
         <v>884.32</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="30">
         <v>1301.82</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="30">
         <v>2.58E-2</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="30">
         <v>190.82</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
         <v>0.99670000000000003</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="30">
         <v>1007.41</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="30">
         <v>1612.26</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="30">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="30">
         <v>220.31</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="30">
         <v>679.89</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="30">
         <v>1048.9000000000001</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="30">
         <v>2.12E-2</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="30">
         <v>189.43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
         <v>0.99639999999999995</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="30">
         <v>930.34</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="30">
         <v>1343.19</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="30">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="30">
         <v>209.4</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="30">
         <v>705.22</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="30">
         <v>1104.76</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="30">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="30">
         <v>187.73</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="30">
         <v>0.996</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="30">
         <v>1173.48</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="30">
         <v>1525.73</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="30">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="30">
         <v>211.03</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="30">
         <v>0.99739999999999995</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="30">
         <v>1064.6500000000001</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="30">
         <v>1648.57</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="30">
         <v>2.87E-2</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="30">
         <v>178.69</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
         <v>0.99639999999999995</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="30">
         <v>1063.73</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="30">
         <v>1452.25</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="30">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="30">
         <v>219.04</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="30">
         <v>0.997</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="30">
         <v>1221.79</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="30">
         <v>1834.18</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="30">
         <v>3.49E-2</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="30">
         <v>187.64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="30">
         <v>1036.8</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="30">
         <v>1410.83</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="30">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="30">
         <v>200.15</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="30">
         <v>986.39</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="30">
         <v>1500.06</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="30">
         <v>2.7E-2</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="30">
         <v>173.42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="30">
         <v>0.99609999999999999</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="30">
         <v>1022.2</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="30">
         <v>1430.71</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="30">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="30">
         <v>206.28</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="30">
         <v>911.57</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="30">
         <v>1365.47</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="30">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="30">
         <v>184.49</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="30">
         <v>1050.46</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="30">
         <v>1506.65</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="30">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="30">
         <v>205.13</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="30">
         <v>1081.81</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="30">
         <v>1695.81</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="30">
         <v>2.87E-2</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="30">
         <v>181.92</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
         <v>0.99609999999999999</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="30">
         <v>1159.26</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="30">
         <v>1582.38</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="30">
         <v>3.9E-2</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="30">
         <v>207.26</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="30">
         <v>902.51</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="30">
         <v>1286.6500000000001</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="30">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="30">
         <v>189.23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
         <v>0.99650000000000005</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="30">
         <v>921.68</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="30">
         <v>1368.48</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="30">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="30">
         <v>202.82</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="30">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="30">
         <v>1065.6099999999999</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="30">
         <v>1533.67</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="30">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="30">
         <v>178.35</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="30">
         <v>1131.5</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="30">
         <v>1531.53</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="30">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="30">
         <v>217.27</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="30">
         <v>0.99739999999999995</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="30">
         <v>739.05</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="30">
         <v>1088.0999999999999</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="30">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="30">
         <v>184.16</v>
       </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2216,87 +2263,87 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.7109375" style="2" customWidth="1"/>
-    <col min="12" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.6640625" style="2" customWidth="1"/>
+    <col min="12" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="L2" s="30" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="L2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
       <c r="R2" s="18"/>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="33" t="s">
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32"/>
+      <c r="B3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="33" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
       <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
@@ -2322,7 +2369,7 @@
       <c r="J4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="32"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="17" t="s">
         <v>12</v>
       </c>
@@ -2355,7 +2402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -2397,7 +2444,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -2439,7 +2486,7 @@
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -2481,7 +2528,7 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -2523,7 +2570,7 @@
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -2565,7 +2612,7 @@
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -2607,7 +2654,7 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -2649,7 +2696,7 @@
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2691,7 +2738,7 @@
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -2733,7 +2780,7 @@
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -2775,7 +2822,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -2817,7 +2864,7 @@
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -2859,7 +2906,7 @@
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -2901,7 +2948,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -2943,7 +2990,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -2985,7 +3032,7 @@
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -3027,7 +3074,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -3069,7 +3116,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -3111,7 +3158,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -3153,7 +3200,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -3195,7 +3242,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -3237,7 +3284,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -3279,7 +3326,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -3321,7 +3368,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -3363,7 +3410,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -3405,7 +3452,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -3447,7 +3494,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -3489,7 +3536,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -3531,7 +3578,7 @@
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -3573,7 +3620,7 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>30</v>
       </c>
@@ -3641,76 +3688,76 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" style="6" customWidth="1"/>
-    <col min="4" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="15.7109375" style="6" customWidth="1"/>
-    <col min="11" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="6" customWidth="1"/>
+    <col min="4" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="6" customWidth="1"/>
+    <col min="9" max="10" width="15.6640625" style="6" customWidth="1"/>
+    <col min="11" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="I3" s="37" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="I3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3723,9 +3770,9 @@
       <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3739,7 +3786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -3767,7 +3814,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -3791,7 +3838,7 @@
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -3815,7 +3862,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -3831,7 +3878,7 @@
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -3859,7 +3906,7 @@
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>5</v>
       </c>
@@ -3883,7 +3930,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>6</v>
       </c>
@@ -3907,48 +3954,48 @@
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="I14" s="37" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="I14" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
@@ -3961,9 +4008,9 @@
       <c r="G15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="8" t="s">
         <v>4</v>
       </c>
@@ -3977,7 +4024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -4005,7 +4052,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>2</v>
       </c>
@@ -4029,7 +4076,7 @@
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>3</v>
       </c>
@@ -4053,7 +4100,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -4069,7 +4116,7 @@
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>4</v>
       </c>
@@ -4097,7 +4144,7 @@
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>5</v>
       </c>
@@ -4121,7 +4168,7 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>6</v>
       </c>
@@ -4145,48 +4192,48 @@
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="I25" s="37" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="I25" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="37" t="s">
+      <c r="J25" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="8" t="s">
         <v>4</v>
       </c>
@@ -4199,9 +4246,9 @@
       <c r="G26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="8" t="s">
         <v>4</v>
       </c>
@@ -4215,7 +4262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>1</v>
       </c>
@@ -4243,7 +4290,7 @@
       <c r="N27" s="27"/>
       <c r="O27" s="27"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>2</v>
       </c>
@@ -4267,7 +4314,7 @@
       <c r="N28" s="27"/>
       <c r="O28" s="27"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>3</v>
       </c>
@@ -4291,7 +4338,7 @@
       <c r="N29" s="27"/>
       <c r="O29" s="27"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
@@ -4307,7 +4354,7 @@
       <c r="N30" s="28"/>
       <c r="O30" s="28"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>4</v>
       </c>
@@ -4335,7 +4382,7 @@
       <c r="N31" s="27"/>
       <c r="O31" s="27"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>5</v>
       </c>
@@ -4359,7 +4406,7 @@
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>6</v>
       </c>
@@ -4383,48 +4430,48 @@
       <c r="N33" s="27"/>
       <c r="O33" s="27"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="I36" s="37" t="s">
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="I36" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="J36" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K36" s="37" t="s">
+      <c r="K36" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L36" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="8" t="s">
         <v>4</v>
       </c>
@@ -4437,9 +4484,9 @@
       <c r="G37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
       <c r="L37" s="8" t="s">
         <v>4</v>
       </c>
@@ -4453,7 +4500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>1</v>
       </c>
@@ -4481,7 +4528,7 @@
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2</v>
       </c>
@@ -4505,7 +4552,7 @@
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>3</v>
       </c>
@@ -4529,7 +4576,7 @@
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
@@ -4545,7 +4592,7 @@
       <c r="N41" s="24"/>
       <c r="O41" s="24"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>4</v>
       </c>
@@ -4573,7 +4620,7 @@
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>5</v>
       </c>
@@ -4597,7 +4644,7 @@
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>6</v>
       </c>
@@ -4621,48 +4668,48 @@
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K46" s="6"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="I47" s="37" t="s">
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="I47" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J47" s="37" t="s">
+      <c r="J47" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K47" s="37" t="s">
+      <c r="K47" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="38" t="s">
+      <c r="L47" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="8" t="s">
         <v>4</v>
       </c>
@@ -4675,9 +4722,9 @@
       <c r="G48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
       <c r="L48" s="8" t="s">
         <v>4</v>
       </c>
@@ -4691,7 +4738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>1</v>
       </c>
@@ -4719,7 +4766,7 @@
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>2</v>
       </c>
@@ -4743,7 +4790,7 @@
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>3</v>
       </c>
@@ -4767,7 +4814,7 @@
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
@@ -4783,7 +4830,7 @@
       <c r="N52" s="24"/>
       <c r="O52" s="24"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>4</v>
       </c>
@@ -4811,7 +4858,7 @@
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>5</v>
       </c>
@@ -4835,7 +4882,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>6</v>
       </c>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435CF746-DE32-4E96-8169-D8898DF767F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DCA0EC-7B34-47D7-839E-6944B86B9E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hasil evaluasi linux" sheetId="1" r:id="rId1"/>
@@ -128,10 +128,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -276,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -355,9 +356,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -379,16 +377,20 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1518,18 +1520,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987642E1-150E-4882-9A64-7276C8DDBCF2}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="15.6640625" customWidth="1"/>
+    <col min="1" max="10" width="15.6640625" style="26" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
@@ -1560,648 +1563,693 @@
       <c r="J1" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+      <c r="K1" s="40"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="42">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="42">
         <v>1082.83</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="42">
         <v>1535.47</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="42">
         <v>3.49E-2</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="42">
         <v>221.26</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="42">
         <v>0.99719999999999998</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="42">
         <v>1314.78</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="42">
         <v>2031.56</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="42">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="42">
         <v>187.99</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+      <c r="K2" s="40"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="42">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="42">
         <v>1091.48</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="42">
         <v>1491.92</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="42">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="42">
         <v>210.97</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="42">
         <v>776.01</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="42">
         <v>1171.6600000000001</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="42">
         <v>2.3E-2</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="42">
         <v>190.84</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
+      <c r="K3" s="40"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="42">
         <v>0.99629999999999996</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="42">
         <v>1306.03</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="42">
         <v>1594.93</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="42">
         <v>4.7E-2</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="42">
         <v>215.56</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="42">
         <v>1055.42</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="42">
         <v>1534.85</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="42">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="42">
         <v>186.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
+      <c r="K4" s="40"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="42">
         <v>0.996</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="42">
         <v>1253.72</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="42">
         <v>1644.21</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="42">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="42">
         <v>207.76</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="42">
         <v>0.99739999999999995</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="42">
         <v>683.48</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="42">
         <v>1053.6300000000001</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="42">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="42">
         <v>183.21</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="K5" s="40"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="42">
         <v>0.99670000000000003</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="42">
         <v>909.17</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="42">
         <v>1456.14</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="42">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="42">
         <v>217.82</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="42">
         <v>729.81</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="42">
         <v>1151.6300000000001</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="42">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="42">
         <v>189.79</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="K6" s="40"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="42">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="42">
         <v>1008.29</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="42">
         <v>1395.25</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="42">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="42">
         <v>204.01</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="42">
         <v>1048.8499999999999</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="42">
         <v>1562.69</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="42">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="42">
         <v>182.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="K7" s="40"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
         <v>0.99629999999999996</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="42">
         <v>967.48</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="42">
         <v>1405.13</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="42">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="42">
         <v>202.44</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="42">
         <v>746.3</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="42">
         <v>1156.6300000000001</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="42">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="42">
         <v>177.83</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="42">
         <v>0.996</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="42">
         <v>1070.45</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="42">
         <v>1629.51</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="42">
         <v>3.15E-2</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="42">
         <v>207.36</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="42">
         <v>918.59</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="42">
         <v>1406.95</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="42">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="42">
         <v>183.91</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
         <v>0.99650000000000005</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="42">
         <v>885.52</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="42">
         <v>1294.99</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="42">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="42">
         <v>218.46</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="42">
         <v>740.38</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="42">
         <v>1125.32</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="42">
         <v>2.23E-2</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="42">
         <v>189.62</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="42">
         <v>1041.48</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="42">
         <v>1480.84</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="42">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="42">
         <v>213.85</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="42">
         <v>884.32</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="42">
         <v>1301.82</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="42">
         <v>2.58E-2</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="42">
         <v>190.82</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="42">
         <v>0.99670000000000003</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="42">
         <v>1007.41</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="42">
         <v>1612.26</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="42">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="42">
         <v>220.31</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="42">
         <v>679.89</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="42">
         <v>1048.9000000000001</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="42">
         <v>2.12E-2</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="42">
         <v>189.43</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
+      <c r="K12" s="40"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="42">
         <v>0.99639999999999995</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="42">
         <v>930.34</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="42">
         <v>1343.19</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="42">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="42">
         <v>209.4</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="42">
         <v>705.22</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="42">
         <v>1104.76</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="42">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="42">
         <v>187.73</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
         <v>0.996</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="42">
         <v>1173.48</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="42">
         <v>1525.73</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="42">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="42">
         <v>211.03</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="42">
         <v>0.99739999999999995</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="42">
         <v>1064.6500000000001</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="42">
         <v>1648.57</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="42">
         <v>2.87E-2</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="42">
         <v>178.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
+      <c r="K14" s="40"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="42">
         <v>0.99639999999999995</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="42">
         <v>1063.73</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="42">
         <v>1452.25</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="42">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="42">
         <v>219.04</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="42">
         <v>0.997</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="42">
         <v>1221.79</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="42">
         <v>1834.18</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="42">
         <v>3.49E-2</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="42">
         <v>187.64</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="42">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="42">
         <v>1036.8</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="42">
         <v>1410.83</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="42">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="42">
         <v>200.15</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="42">
         <v>986.39</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="42">
         <v>1500.06</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="42">
         <v>2.7E-2</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="42">
         <v>173.42</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="42">
         <v>0.99609999999999999</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="42">
         <v>1022.2</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="42">
         <v>1430.71</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="42">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="42">
         <v>206.28</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="42">
         <v>911.57</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="42">
         <v>1365.47</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="42">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="42">
         <v>184.49</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="42">
         <v>1050.46</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="42">
         <v>1506.65</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="42">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="42">
         <v>205.13</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="42">
         <v>1081.81</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="42">
         <v>1695.81</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="42">
         <v>2.87E-2</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="42">
         <v>181.92</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="30">
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="42">
         <v>0.99609999999999999</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="42">
         <v>1159.26</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="42">
         <v>1582.38</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="42">
         <v>3.9E-2</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="42">
         <v>207.26</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="42">
         <v>902.51</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="42">
         <v>1286.6500000000001</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="42">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="42">
         <v>189.23</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="42">
         <v>0.99650000000000005</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="42">
         <v>921.68</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="42">
         <v>1368.48</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="42">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="42">
         <v>202.82</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="42">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="42">
         <v>1065.6099999999999</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="42">
         <v>1533.67</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="42">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="42">
         <v>178.35</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="30">
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="42">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="42">
         <v>1131.5</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="42">
         <v>1531.53</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="42">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="42">
         <v>217.27</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="42">
         <v>0.99739999999999995</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="42">
         <v>739.05</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="42">
         <v>1088.0999999999999</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="42">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="42">
         <v>184.16</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="40"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -2210,7 +2258,7 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
@@ -2219,7 +2267,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
@@ -2228,7 +2276,7 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -2237,7 +2285,7 @@
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -2275,75 +2323,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="L2" s="31" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="L2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
       <c r="R2" s="18"/>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="34" t="s">
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
@@ -2369,7 +2417,7 @@
       <c r="J4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="33"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="17" t="s">
         <v>12</v>
       </c>
@@ -3666,16 +3714,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="S2:W2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="S2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3688,7 +3736,7 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -3702,62 +3750,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="I3" s="38" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="I3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3770,9 +3818,9 @@
       <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3961,41 +4009,41 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="I14" s="38" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="I14" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
@@ -4008,9 +4056,9 @@
       <c r="G15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="8" t="s">
         <v>4</v>
       </c>
@@ -4199,41 +4247,41 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="I25" s="38" t="s">
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="I25" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="38" t="s">
+      <c r="K25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="8" t="s">
         <v>4</v>
       </c>
@@ -4246,9 +4294,9 @@
       <c r="G26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
       <c r="L26" s="8" t="s">
         <v>4</v>
       </c>
@@ -4437,41 +4485,41 @@
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="I36" s="38" t="s">
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="I36" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K36" s="38" t="s">
+      <c r="K36" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L36" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="8" t="s">
         <v>4</v>
       </c>
@@ -4484,9 +4532,9 @@
       <c r="G37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
       <c r="L37" s="8" t="s">
         <v>4</v>
       </c>
@@ -4675,41 +4723,41 @@
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="I47" s="38" t="s">
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="I47" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J47" s="38" t="s">
+      <c r="J47" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K47" s="38" t="s">
+      <c r="K47" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="39" t="s">
+      <c r="L47" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="8" t="s">
         <v>4</v>
       </c>
@@ -4722,9 +4770,9 @@
       <c r="G48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
       <c r="L48" s="8" t="s">
         <v>4</v>
       </c>
@@ -4908,6 +4956,36 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:O36"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A36:A37"/>
@@ -4920,36 +4998,6 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:G47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DCA0EC-7B34-47D7-839E-6944B86B9E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDAF738-DF02-4BA2-A962-A66205FDD595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hasil evaluasi linux" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -277,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -356,6 +356,10 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -377,19 +381,14 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,12 +701,12 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="15.6640625" style="5" customWidth="1"/>
+    <col min="1" max="8" width="15.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -733,7 +732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -759,7 +758,7 @@
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0.996</v>
       </c>
@@ -785,7 +784,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>0.99660000000000004</v>
       </c>
@@ -811,7 +810,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>0.99670000000000003</v>
       </c>
@@ -837,7 +836,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -863,7 +862,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>0.99609999999999999</v>
       </c>
@@ -889,7 +888,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -915,7 +914,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -941,7 +940,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -967,7 +966,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>0.99609999999999999</v>
       </c>
@@ -993,7 +992,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>0.99629999999999996</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>0.99609999999999999</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>0.99750000000000005</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>0.99729999999999996</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>0.99609999999999999</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>0.99629999999999996</v>
       </c>
@@ -1149,7 +1148,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>0.99670000000000003</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>0.99629999999999996</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>0.99629999999999996</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -1253,7 +1252,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>0.99660000000000004</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>0.99609999999999999</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -1331,7 +1330,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>0.99629999999999996</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>0.99619999999999997</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>0.99609999999999999</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>0.99660000000000004</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>0.996</v>
       </c>
@@ -1461,7 +1460,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>0.996</v>
       </c>
@@ -1487,7 +1486,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>0.99650000000000005</v>
       </c>
@@ -1520,19 +1519,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987642E1-150E-4882-9A64-7276C8DDBCF2}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:J23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="15.6640625" style="26" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="10" width="15.7109375" style="26" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
@@ -1563,736 +1562,715 @@
       <c r="J1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="40"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="31">
         <v>1082.83</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="31">
         <v>1535.47</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="31">
         <v>3.49E-2</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="31">
         <v>221.26</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="31">
         <v>0.99719999999999998</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="31">
         <v>1314.78</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="31">
         <v>2031.56</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="31">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="31">
         <v>187.99</v>
       </c>
-      <c r="K2" s="40"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="31">
         <v>1091.48</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="31">
         <v>1491.92</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="31">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="31">
         <v>210.97</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="31">
         <v>776.01</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="31">
         <v>1171.6600000000001</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="31">
         <v>2.3E-2</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="31">
         <v>190.84</v>
       </c>
-      <c r="K3" s="40"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
         <v>0.99629999999999996</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="31">
         <v>1306.03</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="31">
         <v>1594.93</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="31">
         <v>4.7E-2</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="31">
         <v>215.56</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="31">
         <v>1055.42</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="31">
         <v>1534.85</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="31">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="31">
         <v>186.8</v>
       </c>
-      <c r="K4" s="40"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
         <v>0.996</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="31">
         <v>1253.72</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="31">
         <v>1644.21</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="31">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="31">
         <v>207.76</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="31">
         <v>0.99739999999999995</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="31">
         <v>683.48</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="31">
         <v>1053.6300000000001</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="31">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="31">
         <v>183.21</v>
       </c>
-      <c r="K5" s="40"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
         <v>0.99670000000000003</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="31">
         <v>909.17</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="31">
         <v>1456.14</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="31">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="31">
         <v>217.82</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="31">
         <v>729.81</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="31">
         <v>1151.6300000000001</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="31">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="31">
         <v>189.79</v>
       </c>
-      <c r="K6" s="40"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="42">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="31">
         <v>1008.29</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="31">
         <v>1395.25</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="31">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="31">
         <v>204.01</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="31">
         <v>1048.8499999999999</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="31">
         <v>1562.69</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="31">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="31">
         <v>182.7</v>
       </c>
-      <c r="K7" s="40"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
         <v>0.99629999999999996</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="31">
         <v>967.48</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="31">
         <v>1405.13</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="31">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="31">
         <v>202.44</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="31">
         <v>746.3</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="31">
         <v>1156.6300000000001</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="31">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="31">
         <v>177.83</v>
       </c>
-      <c r="K8" s="40"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <v>0.996</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="31">
         <v>1070.45</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="31">
         <v>1629.51</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="31">
         <v>3.15E-2</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="31">
         <v>207.36</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="31">
         <v>918.59</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="31">
         <v>1406.95</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="31">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="31">
         <v>183.91</v>
       </c>
-      <c r="K9" s="40"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
         <v>0.99650000000000005</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="31">
         <v>885.52</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="31">
         <v>1294.99</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="31">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="31">
         <v>218.46</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="31">
         <v>740.38</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="31">
         <v>1125.32</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="31">
         <v>2.23E-2</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="31">
         <v>189.62</v>
       </c>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="31">
         <v>1041.48</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="31">
         <v>1480.84</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="31">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="31">
         <v>213.85</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="31">
         <v>884.32</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="31">
         <v>1301.82</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="31">
         <v>2.58E-2</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="31">
         <v>190.82</v>
       </c>
-      <c r="K11" s="40"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <v>0.99670000000000003</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="31">
         <v>1007.41</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="31">
         <v>1612.26</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="31">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="31">
         <v>220.31</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="31">
         <v>679.89</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="31">
         <v>1048.9000000000001</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="31">
         <v>2.12E-2</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="31">
         <v>189.43</v>
       </c>
-      <c r="K12" s="40"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
         <v>0.99639999999999995</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="31">
         <v>930.34</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="31">
         <v>1343.19</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="31">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="31">
         <v>209.4</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="31">
         <v>705.22</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="31">
         <v>1104.76</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="31">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="31">
         <v>187.73</v>
       </c>
-      <c r="K13" s="40"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
         <v>0.996</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="31">
         <v>1173.48</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="31">
         <v>1525.73</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="31">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="31">
         <v>211.03</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="31">
         <v>0.99739999999999995</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="31">
         <v>1064.6500000000001</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="31">
         <v>1648.57</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="31">
         <v>2.87E-2</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="31">
         <v>178.69</v>
       </c>
-      <c r="K14" s="40"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="42">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
         <v>0.99639999999999995</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="31">
         <v>1063.73</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="31">
         <v>1452.25</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="31">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="31">
         <v>219.04</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="31">
         <v>0.997</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="31">
         <v>1221.79</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="31">
         <v>1834.18</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="31">
         <v>3.49E-2</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="31">
         <v>187.64</v>
       </c>
-      <c r="K15" s="40"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="31">
         <v>1036.8</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="31">
         <v>1410.83</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="31">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="31">
         <v>200.15</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="31">
         <v>986.39</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="31">
         <v>1500.06</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="31">
         <v>2.7E-2</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="31">
         <v>173.42</v>
       </c>
-      <c r="K16" s="40"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
         <v>0.99609999999999999</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="31">
         <v>1022.2</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="31">
         <v>1430.71</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="31">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="31">
         <v>206.28</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="31">
         <v>911.57</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="31">
         <v>1365.47</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="31">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="31">
         <v>184.49</v>
       </c>
-      <c r="K17" s="40"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="31">
         <v>1050.46</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="31">
         <v>1506.65</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="31">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="31">
         <v>205.13</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="31">
         <v>1081.81</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="31">
         <v>1695.81</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="31">
         <v>2.87E-2</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="31">
         <v>181.92</v>
       </c>
-      <c r="K18" s="40"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
         <v>0.99609999999999999</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="31">
         <v>1159.26</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="31">
         <v>1582.38</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="31">
         <v>3.9E-2</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="31">
         <v>207.26</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="31">
         <v>902.51</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="31">
         <v>1286.6500000000001</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="31">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="31">
         <v>189.23</v>
       </c>
-      <c r="K19" s="40"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <v>0.99650000000000005</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="31">
         <v>921.68</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="31">
         <v>1368.48</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="31">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="31">
         <v>202.82</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="31">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="31">
         <v>1065.6099999999999</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="31">
         <v>1533.67</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="31">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="31">
         <v>178.35</v>
       </c>
-      <c r="K20" s="40"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="31">
         <v>1131.5</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="31">
         <v>1531.53</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="31">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="31">
         <v>217.27</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="31">
         <v>0.99739999999999995</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="31">
         <v>739.05</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="31">
         <v>1088.0999999999999</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="31">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="31">
         <v>184.16</v>
       </c>
-      <c r="K21" s="40"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2311,87 +2289,87 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="11.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.6640625" style="2" customWidth="1"/>
-    <col min="12" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.7109375" style="2" customWidth="1"/>
+    <col min="12" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="L2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="L2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
       <c r="R2" s="18"/>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="33" t="s">
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="33" t="s">
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
       <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
@@ -2417,7 +2395,7 @@
       <c r="J4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="32"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="17" t="s">
         <v>12</v>
       </c>
@@ -2450,7 +2428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -2492,7 +2470,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -2534,7 +2512,7 @@
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -2576,7 +2554,7 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -2618,7 +2596,7 @@
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -2660,7 +2638,7 @@
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -2702,7 +2680,7 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -2744,7 +2722,7 @@
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2786,7 +2764,7 @@
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -2828,7 +2806,7 @@
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -2870,7 +2848,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -2912,7 +2890,7 @@
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -2954,7 +2932,7 @@
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -2996,7 +2974,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -3038,7 +3016,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -3080,7 +3058,7 @@
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -3122,7 +3100,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -3164,7 +3142,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -3206,7 +3184,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -3248,7 +3226,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -3290,7 +3268,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -3332,7 +3310,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -3374,7 +3352,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -3416,7 +3394,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -3458,7 +3436,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -3500,7 +3478,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -3542,7 +3520,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -3584,7 +3562,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -3626,7 +3604,7 @@
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -3668,7 +3646,7 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>30</v>
       </c>
@@ -3714,16 +3692,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="S2:W2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3740,37 +3718,37 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="6" customWidth="1"/>
-    <col min="4" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="6" customWidth="1"/>
-    <col min="9" max="10" width="15.6640625" style="6" customWidth="1"/>
-    <col min="11" max="15" width="15.6640625" customWidth="1"/>
+    <col min="1" max="3" width="15.7109375" style="6" customWidth="1"/>
+    <col min="4" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="6" customWidth="1"/>
+    <col min="9" max="10" width="15.7109375" style="6" customWidth="1"/>
+    <col min="11" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
@@ -3780,12 +3758,12 @@
       <c r="C3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="I3" s="39" t="s">
         <v>1</v>
       </c>
@@ -3795,14 +3773,14 @@
       <c r="K3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -3834,7 +3812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -3862,7 +3840,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -3886,7 +3864,7 @@
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -3910,7 +3888,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -3926,7 +3904,7 @@
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -3954,7 +3932,7 @@
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>5</v>
       </c>
@@ -3978,7 +3956,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>6</v>
       </c>
@@ -4002,13 +3980,13 @@
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>1</v>
       </c>
@@ -4018,12 +3996,12 @@
       <c r="C14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
       <c r="I14" s="39" t="s">
         <v>1</v>
       </c>
@@ -4033,14 +4011,14 @@
       <c r="K14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -4072,7 +4050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -4100,7 +4078,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2</v>
       </c>
@@ -4124,7 +4102,7 @@
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>3</v>
       </c>
@@ -4148,7 +4126,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -4164,7 +4142,7 @@
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>4</v>
       </c>
@@ -4192,7 +4170,7 @@
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>5</v>
       </c>
@@ -4216,7 +4194,7 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>6</v>
       </c>
@@ -4240,13 +4218,13 @@
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>1</v>
       </c>
@@ -4256,12 +4234,12 @@
       <c r="C25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
       <c r="I25" s="39" t="s">
         <v>1</v>
       </c>
@@ -4271,14 +4249,14 @@
       <c r="K25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -4310,7 +4288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>1</v>
       </c>
@@ -4338,7 +4316,7 @@
       <c r="N27" s="27"/>
       <c r="O27" s="27"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>2</v>
       </c>
@@ -4362,7 +4340,7 @@
       <c r="N28" s="27"/>
       <c r="O28" s="27"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>3</v>
       </c>
@@ -4386,7 +4364,7 @@
       <c r="N29" s="27"/>
       <c r="O29" s="27"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
@@ -4402,7 +4380,7 @@
       <c r="N30" s="28"/>
       <c r="O30" s="28"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>4</v>
       </c>
@@ -4430,7 +4408,7 @@
       <c r="N31" s="27"/>
       <c r="O31" s="27"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>5</v>
       </c>
@@ -4454,7 +4432,7 @@
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>6</v>
       </c>
@@ -4478,13 +4456,13 @@
       <c r="N33" s="27"/>
       <c r="O33" s="27"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
         <v>1</v>
       </c>
@@ -4494,12 +4472,12 @@
       <c r="C36" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
       <c r="I36" s="39" t="s">
         <v>1</v>
       </c>
@@ -4509,14 +4487,14 @@
       <c r="K36" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L36" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -4548,7 +4526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>1</v>
       </c>
@@ -4576,7 +4554,7 @@
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>2</v>
       </c>
@@ -4600,7 +4578,7 @@
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>3</v>
       </c>
@@ -4624,7 +4602,7 @@
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
@@ -4640,7 +4618,7 @@
       <c r="N41" s="24"/>
       <c r="O41" s="24"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>4</v>
       </c>
@@ -4668,7 +4646,7 @@
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>5</v>
       </c>
@@ -4692,7 +4670,7 @@
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>6</v>
       </c>
@@ -4716,13 +4694,13 @@
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K46" s="6"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
         <v>1</v>
       </c>
@@ -4732,12 +4710,12 @@
       <c r="C47" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
       <c r="I47" s="39" t="s">
         <v>1</v>
       </c>
@@ -4747,14 +4725,14 @@
       <c r="K47" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="38" t="s">
+      <c r="L47" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -4786,7 +4764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>1</v>
       </c>
@@ -4814,7 +4792,7 @@
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>2</v>
       </c>
@@ -4838,7 +4816,7 @@
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>3</v>
       </c>
@@ -4862,7 +4840,7 @@
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
@@ -4878,7 +4856,7 @@
       <c r="N52" s="24"/>
       <c r="O52" s="24"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>4</v>
       </c>
@@ -4906,7 +4884,7 @@
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>5</v>
       </c>
@@ -4930,7 +4908,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>6</v>
       </c>
@@ -4956,36 +4934,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:O36"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A36:A37"/>
@@ -4998,6 +4946,36 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:G14"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:G47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDAF738-DF02-4BA2-A962-A66205FDD595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1214DE3B-18A0-4C32-A729-0FB898BCFB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,13 +128,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +175,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -273,11 +277,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -356,10 +378,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -389,6 +407,15 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1519,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987642E1-150E-4882-9A64-7276C8DDBCF2}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1558,7 @@
     <col min="11" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
@@ -1564,713 +1591,884 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="A2" s="40">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="B2" s="40">
+        <v>981.05</v>
+      </c>
+      <c r="C2" s="40">
+        <v>1417.01</v>
+      </c>
+      <c r="D2" s="40">
+        <v>3.15E-2</v>
+      </c>
+      <c r="E2" s="40">
+        <v>205.3</v>
+      </c>
+      <c r="F2" s="40">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="G2" s="40">
+        <v>837.94</v>
+      </c>
+      <c r="H2" s="40">
+        <v>1301.3900000000001</v>
+      </c>
+      <c r="I2" s="40">
+        <v>2.35E-2</v>
+      </c>
+      <c r="J2" s="40">
+        <v>180.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
         <v>0.99619999999999997</v>
       </c>
-      <c r="B2" s="31">
-        <v>1082.83</v>
-      </c>
-      <c r="C2" s="31">
-        <v>1535.47</v>
-      </c>
-      <c r="D2" s="31">
+      <c r="B3" s="41">
+        <v>1091.48</v>
+      </c>
+      <c r="C3" s="41">
+        <v>1491.92</v>
+      </c>
+      <c r="D3" s="41">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="E3" s="41">
+        <v>210.97</v>
+      </c>
+      <c r="F3" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G3" s="41">
+        <v>776.01</v>
+      </c>
+      <c r="H3" s="41">
+        <v>1171.6600000000001</v>
+      </c>
+      <c r="I3" s="41">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J3" s="41">
+        <v>190.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="B4" s="41">
+        <v>1306.03</v>
+      </c>
+      <c r="C4" s="41">
+        <v>1594.93</v>
+      </c>
+      <c r="D4" s="41">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E4" s="41">
+        <v>215.56</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G4" s="41">
+        <v>1055.42</v>
+      </c>
+      <c r="H4" s="41">
+        <v>1534.85</v>
+      </c>
+      <c r="I4" s="41">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="J4" s="41">
+        <v>186.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>0.996</v>
+      </c>
+      <c r="B5" s="41">
+        <v>1253.72</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1644.21</v>
+      </c>
+      <c r="D5" s="41">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="E5" s="41">
+        <v>207.76</v>
+      </c>
+      <c r="F5" s="41">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="G5" s="41">
+        <v>683.48</v>
+      </c>
+      <c r="H5" s="41">
+        <v>1053.6300000000001</v>
+      </c>
+      <c r="I5" s="41">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="J5" s="41">
+        <v>183.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="B6" s="42">
+        <v>909.17</v>
+      </c>
+      <c r="C6" s="42">
+        <v>1456.14</v>
+      </c>
+      <c r="D6" s="42">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="E6" s="42">
+        <v>217.82</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G6" s="42">
+        <v>729.81</v>
+      </c>
+      <c r="H6" s="42">
+        <v>1151.6300000000001</v>
+      </c>
+      <c r="I6" s="42">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="J6" s="42">
+        <v>189.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="B7" s="41">
+        <v>1008.29</v>
+      </c>
+      <c r="C7" s="41">
+        <v>1395.25</v>
+      </c>
+      <c r="D7" s="41">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="E7" s="41">
+        <v>204.01</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G7" s="41">
+        <v>1048.8499999999999</v>
+      </c>
+      <c r="H7" s="41">
+        <v>1562.69</v>
+      </c>
+      <c r="I7" s="41">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="J7" s="41">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="B8" s="41">
+        <v>967.48</v>
+      </c>
+      <c r="C8" s="41">
+        <v>1405.13</v>
+      </c>
+      <c r="D8" s="41">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="E8" s="41">
+        <v>202.44</v>
+      </c>
+      <c r="F8" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G8" s="41">
+        <v>746.3</v>
+      </c>
+      <c r="H8" s="41">
+        <v>1156.6300000000001</v>
+      </c>
+      <c r="I8" s="41">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="J8" s="41">
+        <v>177.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>0.996</v>
+      </c>
+      <c r="B9" s="41">
+        <v>1070.45</v>
+      </c>
+      <c r="C9" s="41">
+        <v>1629.51</v>
+      </c>
+      <c r="D9" s="41">
+        <v>3.15E-2</v>
+      </c>
+      <c r="E9" s="41">
+        <v>207.36</v>
+      </c>
+      <c r="F9" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G9" s="41">
+        <v>918.59</v>
+      </c>
+      <c r="H9" s="41">
+        <v>1406.95</v>
+      </c>
+      <c r="I9" s="41">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="J9" s="41">
+        <v>183.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="B10" s="41">
+        <v>885.52</v>
+      </c>
+      <c r="C10" s="41">
+        <v>1294.99</v>
+      </c>
+      <c r="D10" s="41">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="E10" s="41">
+        <v>218.46</v>
+      </c>
+      <c r="F10" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G10" s="41">
+        <v>740.38</v>
+      </c>
+      <c r="H10" s="41">
+        <v>1125.32</v>
+      </c>
+      <c r="I10" s="41">
+        <v>2.23E-2</v>
+      </c>
+      <c r="J10" s="41">
+        <v>189.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="B11" s="42">
+        <v>1041.48</v>
+      </c>
+      <c r="C11" s="42">
+        <v>1480.84</v>
+      </c>
+      <c r="D11" s="42">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="E11" s="42">
+        <v>213.85</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G11" s="42">
+        <v>884.32</v>
+      </c>
+      <c r="H11" s="42">
+        <v>1301.82</v>
+      </c>
+      <c r="I11" s="42">
+        <v>2.58E-2</v>
+      </c>
+      <c r="J11" s="42">
+        <v>190.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="B12" s="41">
+        <v>1007.41</v>
+      </c>
+      <c r="C12" s="41">
+        <v>1612.26</v>
+      </c>
+      <c r="D12" s="41">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="E12" s="41">
+        <v>220.31</v>
+      </c>
+      <c r="F12" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G12" s="41">
+        <v>679.89</v>
+      </c>
+      <c r="H12" s="41">
+        <v>1048.9000000000001</v>
+      </c>
+      <c r="I12" s="41">
+        <v>2.12E-2</v>
+      </c>
+      <c r="J12" s="41">
+        <v>189.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="B13" s="41">
+        <v>930.34</v>
+      </c>
+      <c r="C13" s="41">
+        <v>1343.19</v>
+      </c>
+      <c r="D13" s="41">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="E13" s="41">
+        <v>209.4</v>
+      </c>
+      <c r="F13" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G13" s="41">
+        <v>705.22</v>
+      </c>
+      <c r="H13" s="41">
+        <v>1104.76</v>
+      </c>
+      <c r="I13" s="41">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="J13" s="41">
+        <v>187.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>0.996</v>
+      </c>
+      <c r="B14" s="41">
+        <v>1173.48</v>
+      </c>
+      <c r="C14" s="41">
+        <v>1525.73</v>
+      </c>
+      <c r="D14" s="41">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E14" s="41">
+        <v>211.03</v>
+      </c>
+      <c r="F14" s="41">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="G14" s="41">
+        <v>1064.6500000000001</v>
+      </c>
+      <c r="H14" s="41">
+        <v>1648.57</v>
+      </c>
+      <c r="I14" s="41">
+        <v>2.87E-2</v>
+      </c>
+      <c r="J14" s="41">
+        <v>178.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="B15" s="41">
+        <v>1063.73</v>
+      </c>
+      <c r="C15" s="41">
+        <v>1452.25</v>
+      </c>
+      <c r="D15" s="41">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="E15" s="41">
+        <v>219.04</v>
+      </c>
+      <c r="F15" s="41">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="G15" s="41">
+        <v>1221.79</v>
+      </c>
+      <c r="H15" s="41">
+        <v>1834.18</v>
+      </c>
+      <c r="I15" s="41">
         <v>3.49E-2</v>
       </c>
-      <c r="E2" s="31">
-        <v>221.26</v>
-      </c>
-      <c r="F2" s="31">
-        <v>0.99719999999999998</v>
-      </c>
-      <c r="G2" s="31">
-        <v>1314.78</v>
-      </c>
-      <c r="H2" s="31">
-        <v>2031.56</v>
-      </c>
-      <c r="I2" s="31">
+      <c r="J15" s="41">
+        <v>187.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="B16" s="42">
+        <v>1036.8</v>
+      </c>
+      <c r="C16" s="42">
+        <v>1410.83</v>
+      </c>
+      <c r="D16" s="42">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="E16" s="42">
+        <v>200.15</v>
+      </c>
+      <c r="F16" s="42">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G16" s="42">
+        <v>986.39</v>
+      </c>
+      <c r="H16" s="42">
+        <v>1500.06</v>
+      </c>
+      <c r="I16" s="42">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J16" s="42">
+        <v>173.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="B17" s="41">
+        <v>1022.2</v>
+      </c>
+      <c r="C17" s="41">
+        <v>1430.71</v>
+      </c>
+      <c r="D17" s="41">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="E17" s="41">
+        <v>206.28</v>
+      </c>
+      <c r="F17" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G17" s="41">
+        <v>911.57</v>
+      </c>
+      <c r="H17" s="41">
+        <v>1365.47</v>
+      </c>
+      <c r="I17" s="41">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="J17" s="41">
+        <v>184.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="41">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="B18" s="41">
+        <v>1050.46</v>
+      </c>
+      <c r="C18" s="41">
+        <v>1506.65</v>
+      </c>
+      <c r="D18" s="41">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="E18" s="41">
+        <v>205.13</v>
+      </c>
+      <c r="F18" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G18" s="41">
+        <v>1081.81</v>
+      </c>
+      <c r="H18" s="41">
+        <v>1695.81</v>
+      </c>
+      <c r="I18" s="41">
+        <v>2.87E-2</v>
+      </c>
+      <c r="J18" s="41">
+        <v>181.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="41">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="B19" s="41">
+        <v>1159.26</v>
+      </c>
+      <c r="C19" s="41">
+        <v>1582.38</v>
+      </c>
+      <c r="D19" s="41">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E19" s="41">
+        <v>207.26</v>
+      </c>
+      <c r="F19" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G19" s="41">
+        <v>902.51</v>
+      </c>
+      <c r="H19" s="41">
+        <v>1286.6500000000001</v>
+      </c>
+      <c r="I19" s="41">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="J19" s="41">
+        <v>189.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="41">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="B20" s="41">
+        <v>921.68</v>
+      </c>
+      <c r="C20" s="41">
+        <v>1368.48</v>
+      </c>
+      <c r="D20" s="41">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="E20" s="41">
+        <v>202.82</v>
+      </c>
+      <c r="F20" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G20" s="41">
+        <v>1065.6099999999999</v>
+      </c>
+      <c r="H20" s="41">
+        <v>1533.67</v>
+      </c>
+      <c r="I20" s="41">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="J20" s="41">
+        <v>178.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="B21" s="42">
+        <v>1131.5</v>
+      </c>
+      <c r="C21" s="42">
+        <v>1531.53</v>
+      </c>
+      <c r="D21" s="42">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="E21" s="42">
+        <v>217.27</v>
+      </c>
+      <c r="F21" s="42">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="G21" s="42">
+        <v>739.05</v>
+      </c>
+      <c r="H21" s="42">
+        <v>1088.0999999999999</v>
+      </c>
+      <c r="I21" s="42">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="J21" s="42">
+        <v>184.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="41">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="B22" s="41">
+        <v>1063.6199999999999</v>
+      </c>
+      <c r="C22" s="41">
+        <v>1482.93</v>
+      </c>
+      <c r="D22" s="41">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J2" s="31">
-        <v>187.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="B3" s="31">
-        <v>1091.48</v>
-      </c>
-      <c r="C3" s="31">
-        <v>1491.92</v>
-      </c>
-      <c r="D3" s="31">
-        <v>3.6499999999999998E-2</v>
-      </c>
-      <c r="E3" s="31">
-        <v>210.97</v>
-      </c>
-      <c r="F3" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G3" s="31">
-        <v>776.01</v>
-      </c>
-      <c r="H3" s="31">
-        <v>1171.6600000000001</v>
-      </c>
-      <c r="I3" s="31">
+      <c r="E22" s="41">
+        <v>209.24</v>
+      </c>
+      <c r="F22" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G22" s="41">
+        <v>830.21</v>
+      </c>
+      <c r="H22" s="41">
+        <v>1223.52</v>
+      </c>
+      <c r="I22" s="41">
+        <v>2.47E-2</v>
+      </c>
+      <c r="J22" s="41">
+        <v>184.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="41">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="B23" s="41">
+        <v>997.96</v>
+      </c>
+      <c r="C23" s="41">
+        <v>1404.93</v>
+      </c>
+      <c r="D23" s="41">
+        <v>3.27E-2</v>
+      </c>
+      <c r="E23" s="41">
+        <v>218.15</v>
+      </c>
+      <c r="F23" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G23" s="41">
+        <v>1033.68</v>
+      </c>
+      <c r="H23" s="41">
+        <v>1539.65</v>
+      </c>
+      <c r="I23" s="41">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="J23" s="41">
+        <v>187.49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="41">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="B24" s="41">
+        <v>888.01</v>
+      </c>
+      <c r="C24" s="41">
+        <v>1372.5</v>
+      </c>
+      <c r="D24" s="41">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="E24" s="41">
+        <v>225.26</v>
+      </c>
+      <c r="F24" s="41">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="G24" s="41">
+        <v>728.8</v>
+      </c>
+      <c r="H24" s="41">
+        <v>1090.19</v>
+      </c>
+      <c r="I24" s="41">
         <v>2.3E-2</v>
       </c>
-      <c r="J3" s="31">
-        <v>190.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>0.99629999999999996</v>
-      </c>
-      <c r="B4" s="31">
-        <v>1306.03</v>
-      </c>
-      <c r="C4" s="31">
-        <v>1594.93</v>
-      </c>
-      <c r="D4" s="31">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E4" s="31">
-        <v>215.56</v>
-      </c>
-      <c r="F4" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G4" s="31">
-        <v>1055.42</v>
-      </c>
-      <c r="H4" s="31">
-        <v>1534.85</v>
-      </c>
-      <c r="I4" s="31">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="J4" s="31">
-        <v>186.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>0.996</v>
-      </c>
-      <c r="B5" s="31">
-        <v>1253.72</v>
-      </c>
-      <c r="C5" s="31">
-        <v>1644.21</v>
-      </c>
-      <c r="D5" s="31">
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="E5" s="31">
-        <v>207.76</v>
-      </c>
-      <c r="F5" s="31">
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="G5" s="31">
-        <v>683.48</v>
-      </c>
-      <c r="H5" s="31">
-        <v>1053.6300000000001</v>
-      </c>
-      <c r="I5" s="31">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="J5" s="31">
-        <v>183.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>0.99670000000000003</v>
-      </c>
-      <c r="B6" s="31">
-        <v>909.17</v>
-      </c>
-      <c r="C6" s="31">
-        <v>1456.14</v>
-      </c>
-      <c r="D6" s="31">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="E6" s="31">
-        <v>217.82</v>
-      </c>
-      <c r="F6" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G6" s="31">
-        <v>729.81</v>
-      </c>
-      <c r="H6" s="31">
-        <v>1151.6300000000001</v>
-      </c>
-      <c r="I6" s="31">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="J6" s="31">
-        <v>189.79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="B7" s="31">
-        <v>1008.29</v>
-      </c>
-      <c r="C7" s="31">
-        <v>1395.25</v>
-      </c>
-      <c r="D7" s="31">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="E7" s="31">
-        <v>204.01</v>
-      </c>
-      <c r="F7" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G7" s="31">
-        <v>1048.8499999999999</v>
-      </c>
-      <c r="H7" s="31">
-        <v>1562.69</v>
-      </c>
-      <c r="I7" s="31">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="J7" s="31">
-        <v>182.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>0.99629999999999996</v>
-      </c>
-      <c r="B8" s="31">
-        <v>967.48</v>
-      </c>
-      <c r="C8" s="31">
-        <v>1405.13</v>
-      </c>
-      <c r="D8" s="31">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="E8" s="31">
-        <v>202.44</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G8" s="31">
-        <v>746.3</v>
-      </c>
-      <c r="H8" s="31">
-        <v>1156.6300000000001</v>
-      </c>
-      <c r="I8" s="31">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="J8" s="31">
-        <v>177.83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>0.996</v>
-      </c>
-      <c r="B9" s="31">
-        <v>1070.45</v>
-      </c>
-      <c r="C9" s="31">
-        <v>1629.51</v>
-      </c>
-      <c r="D9" s="31">
-        <v>3.15E-2</v>
-      </c>
-      <c r="E9" s="31">
-        <v>207.36</v>
-      </c>
-      <c r="F9" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G9" s="31">
-        <v>918.59</v>
-      </c>
-      <c r="H9" s="31">
-        <v>1406.95</v>
-      </c>
-      <c r="I9" s="31">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="J9" s="31">
-        <v>183.91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="J24" s="41">
+        <v>182.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="41">
         <v>0.99650000000000005</v>
       </c>
-      <c r="B10" s="31">
-        <v>885.52</v>
-      </c>
-      <c r="C10" s="31">
-        <v>1294.99</v>
-      </c>
-      <c r="D10" s="31">
-        <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="E10" s="31">
-        <v>218.46</v>
-      </c>
-      <c r="F10" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G10" s="31">
-        <v>740.38</v>
-      </c>
-      <c r="H10" s="31">
-        <v>1125.32</v>
-      </c>
-      <c r="I10" s="31">
-        <v>2.23E-2</v>
-      </c>
-      <c r="J10" s="31">
-        <v>189.62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="B11" s="31">
-        <v>1041.48</v>
-      </c>
-      <c r="C11" s="31">
-        <v>1480.84</v>
-      </c>
-      <c r="D11" s="31">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="E11" s="31">
-        <v>213.85</v>
-      </c>
-      <c r="F11" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G11" s="31">
-        <v>884.32</v>
-      </c>
-      <c r="H11" s="31">
-        <v>1301.82</v>
-      </c>
-      <c r="I11" s="31">
-        <v>2.58E-2</v>
-      </c>
-      <c r="J11" s="31">
-        <v>190.82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>0.99670000000000003</v>
-      </c>
-      <c r="B12" s="31">
-        <v>1007.41</v>
-      </c>
-      <c r="C12" s="31">
-        <v>1612.26</v>
-      </c>
-      <c r="D12" s="31">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="E12" s="31">
-        <v>220.31</v>
-      </c>
-      <c r="F12" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G12" s="31">
-        <v>679.89</v>
-      </c>
-      <c r="H12" s="31">
-        <v>1048.9000000000001</v>
-      </c>
-      <c r="I12" s="31">
-        <v>2.12E-2</v>
-      </c>
-      <c r="J12" s="31">
-        <v>189.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="B13" s="31">
-        <v>930.34</v>
-      </c>
-      <c r="C13" s="31">
-        <v>1343.19</v>
-      </c>
-      <c r="D13" s="31">
+      <c r="B25" s="41">
+        <v>1067.1099999999999</v>
+      </c>
+      <c r="C25" s="41">
+        <v>1674.78</v>
+      </c>
+      <c r="D25" s="41">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="E25" s="41">
+        <v>202.21</v>
+      </c>
+      <c r="F25" s="41">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="G25" s="41">
+        <v>960.91</v>
+      </c>
+      <c r="H25" s="41">
+        <v>1490.63</v>
+      </c>
+      <c r="I25" s="41">
+        <v>2.69E-2</v>
+      </c>
+      <c r="J25" s="41">
+        <v>181.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="B26" s="42">
+        <v>1062.42</v>
+      </c>
+      <c r="C26" s="42">
+        <v>1650.92</v>
+      </c>
+      <c r="D26" s="42">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="E13" s="31">
-        <v>209.4</v>
-      </c>
-      <c r="F13" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G13" s="31">
-        <v>705.22</v>
-      </c>
-      <c r="H13" s="31">
-        <v>1104.76</v>
-      </c>
-      <c r="I13" s="31">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="J13" s="31">
-        <v>187.73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>0.996</v>
-      </c>
-      <c r="B14" s="31">
-        <v>1173.48</v>
-      </c>
-      <c r="C14" s="31">
-        <v>1525.73</v>
-      </c>
-      <c r="D14" s="31">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="E14" s="31">
-        <v>211.03</v>
-      </c>
-      <c r="F14" s="31">
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="G14" s="31">
-        <v>1064.6500000000001</v>
-      </c>
-      <c r="H14" s="31">
-        <v>1648.57</v>
-      </c>
-      <c r="I14" s="31">
-        <v>2.87E-2</v>
-      </c>
-      <c r="J14" s="31">
-        <v>178.69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="B15" s="31">
-        <v>1063.73</v>
-      </c>
-      <c r="C15" s="31">
-        <v>1452.25</v>
-      </c>
-      <c r="D15" s="31">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="E15" s="31">
-        <v>219.04</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0.997</v>
-      </c>
-      <c r="G15" s="31">
-        <v>1221.79</v>
-      </c>
-      <c r="H15" s="31">
-        <v>1834.18</v>
-      </c>
-      <c r="I15" s="31">
-        <v>3.49E-2</v>
-      </c>
-      <c r="J15" s="31">
-        <v>187.64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="B16" s="31">
-        <v>1036.8</v>
-      </c>
-      <c r="C16" s="31">
-        <v>1410.83</v>
-      </c>
-      <c r="D16" s="31">
-        <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="E16" s="31">
-        <v>200.15</v>
-      </c>
-      <c r="F16" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G16" s="31">
-        <v>986.39</v>
-      </c>
-      <c r="H16" s="31">
-        <v>1500.06</v>
-      </c>
-      <c r="I16" s="31">
+      <c r="E26" s="42">
+        <v>211.82</v>
+      </c>
+      <c r="F26" s="42">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G26" s="42">
+        <v>993.62</v>
+      </c>
+      <c r="H26" s="42">
+        <v>1516.4</v>
+      </c>
+      <c r="I26" s="42">
         <v>2.7E-2</v>
       </c>
-      <c r="J16" s="31">
-        <v>173.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="J26" s="42">
+        <v>181.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="41">
         <v>0.99609999999999999</v>
       </c>
-      <c r="B17" s="31">
-        <v>1022.2</v>
-      </c>
-      <c r="C17" s="31">
-        <v>1430.71</v>
-      </c>
-      <c r="D17" s="31">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="E17" s="31">
-        <v>206.28</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G17" s="31">
-        <v>911.57</v>
-      </c>
-      <c r="H17" s="31">
-        <v>1365.47</v>
-      </c>
-      <c r="I17" s="31">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="J17" s="31">
-        <v>184.49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="B18" s="31">
-        <v>1050.46</v>
-      </c>
-      <c r="C18" s="31">
-        <v>1506.65</v>
-      </c>
-      <c r="D18" s="31">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="E18" s="31">
-        <v>205.13</v>
-      </c>
-      <c r="F18" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G18" s="31">
-        <v>1081.81</v>
-      </c>
-      <c r="H18" s="31">
-        <v>1695.81</v>
-      </c>
-      <c r="I18" s="31">
-        <v>2.87E-2</v>
-      </c>
-      <c r="J18" s="31">
-        <v>181.92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>0.99609999999999999</v>
-      </c>
-      <c r="B19" s="31">
-        <v>1159.26</v>
-      </c>
-      <c r="C19" s="31">
-        <v>1582.38</v>
-      </c>
-      <c r="D19" s="31">
-        <v>3.9E-2</v>
-      </c>
-      <c r="E19" s="31">
-        <v>207.26</v>
-      </c>
-      <c r="F19" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G19" s="31">
-        <v>902.51</v>
-      </c>
-      <c r="H19" s="31">
-        <v>1286.6500000000001</v>
-      </c>
-      <c r="I19" s="31">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="J19" s="31">
-        <v>189.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="B20" s="31">
-        <v>921.68</v>
-      </c>
-      <c r="C20" s="31">
-        <v>1368.48</v>
-      </c>
-      <c r="D20" s="31">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="E20" s="31">
-        <v>202.82</v>
-      </c>
-      <c r="F20" s="31">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G20" s="31">
-        <v>1065.6099999999999</v>
-      </c>
-      <c r="H20" s="31">
-        <v>1533.67</v>
-      </c>
-      <c r="I20" s="31">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="J20" s="31">
-        <v>178.35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="B21" s="31">
-        <v>1131.5</v>
-      </c>
-      <c r="C21" s="31">
-        <v>1531.53</v>
-      </c>
-      <c r="D21" s="31">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="E21" s="31">
-        <v>217.27</v>
-      </c>
-      <c r="F21" s="31">
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="G21" s="31">
-        <v>739.05</v>
-      </c>
-      <c r="H21" s="31">
-        <v>1088.0999999999999</v>
-      </c>
-      <c r="I21" s="31">
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="J21" s="31">
-        <v>184.16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="B27" s="41">
+        <v>998.54</v>
+      </c>
+      <c r="C27" s="41">
+        <v>1389.89</v>
+      </c>
+      <c r="D27" s="41">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="E27" s="41">
+        <v>206.71</v>
+      </c>
+      <c r="F27" s="41">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G27" s="41">
+        <v>745.23</v>
+      </c>
+      <c r="H27" s="41">
+        <v>1138.93</v>
+      </c>
+      <c r="I27" s="41">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="J27" s="41">
+        <v>182.44</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2301,75 +2499,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="L2" s="32" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="L2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
       <c r="R2" s="18"/>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="35" t="s">
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
@@ -2395,7 +2593,7 @@
       <c r="J4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="34"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="17" t="s">
         <v>12</v>
       </c>
@@ -3728,62 +3926,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="I3" s="39" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="I3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3796,9 +3994,9 @@
       <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
       <c r="L4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3987,41 +4185,41 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="I14" s="39" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="I14" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="40" t="s">
+      <c r="L14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
@@ -4034,9 +4232,9 @@
       <c r="G15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="8" t="s">
         <v>4</v>
       </c>
@@ -4225,41 +4423,41 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="I25" s="39" t="s">
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="I25" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="40" t="s">
+      <c r="L25" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="8" t="s">
         <v>4</v>
       </c>
@@ -4272,9 +4470,9 @@
       <c r="G26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="8" t="s">
         <v>4</v>
       </c>
@@ -4463,41 +4661,41 @@
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="I36" s="39" t="s">
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="I36" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="39" t="s">
+      <c r="J36" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="K36" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="40" t="s">
+      <c r="L36" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="8" t="s">
         <v>4</v>
       </c>
@@ -4510,9 +4708,9 @@
       <c r="G37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
       <c r="L37" s="8" t="s">
         <v>4</v>
       </c>
@@ -4701,41 +4899,41 @@
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="I47" s="39" t="s">
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="I47" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J47" s="39" t="s">
+      <c r="J47" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K47" s="39" t="s">
+      <c r="K47" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="40" t="s">
+      <c r="L47" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="8" t="s">
         <v>4</v>
       </c>
@@ -4748,9 +4946,9 @@
       <c r="G48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
       <c r="L48" s="8" t="s">
         <v>4</v>
       </c>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347B24AF-57D1-4E3F-A50F-8BD55D9C9573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E131CB0E-B43C-439E-A866-8C4FD8AE9518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection sqref="A1:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3907,7 +3907,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E131CB0E-B43C-439E-A866-8C4FD8AE9518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3711FEE0-55D0-4054-937D-C5DF08CC8593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:J31"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699039C9-552F-450E-B10D-1ACEC4AE0982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B48742-7233-434A-BD2A-B0F6F874F2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hasil evaluasi linux" sheetId="1" r:id="rId1"/>
@@ -1042,13 +1042,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1362,12 +1362,12 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="8" width="15.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.996</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.99660000000000004</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.99670000000000003</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.99750000000000005</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0.99729999999999996</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.99670000000000003</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.99660000000000004</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.99660000000000004</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0.996</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.996</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.99650000000000005</v>
       </c>
@@ -2186,13 +2186,13 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="15.7109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="10" width="15.6640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0.99629999999999996</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>180.44</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>0.99619999999999997</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>190.84</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>0.99629999999999996</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>186.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>0.996</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>183.21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>0.99670000000000003</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>189.79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>0.99619999999999997</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>182.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>0.99629999999999996</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>177.83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>0.996</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>183.91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>0.99650000000000005</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>189.62</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>0.99619999999999997</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>190.82</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>0.99670000000000003</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>189.43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>0.99639999999999995</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>187.73</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>0.996</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>178.69</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>0.99639999999999995</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>187.64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>0.99619999999999997</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>173.42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>0.99609999999999999</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>184.49</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>0.99619999999999997</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>181.92</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>0.99609999999999999</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>189.23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>0.99650000000000005</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>178.35</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>0.99619999999999997</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>184.16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>0.99629999999999996</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>184.58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>0.99629999999999996</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>187.49</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>0.99650000000000005</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>182.33</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>0.99650000000000005</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>181.93</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>0.99650000000000005</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>181.08</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>0.99609999999999999</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>182.44</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>0.99650000000000005</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>187.18</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>0.99660000000000004</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>175.36</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>0.99629999999999996</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>179.48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>0.99629999999999996</v>
       </c>
@@ -3198,15 +3198,15 @@
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="14"/>
-    <col min="5" max="5" width="9.140625" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="4" width="9.109375" style="14"/>
+    <col min="5" max="5" width="9.109375" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="39" t="s">
         <v>25</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
     </row>
-    <row r="3" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40"/>
       <c r="C3" s="38" t="s">
         <v>27</v>
@@ -3242,7 +3242,7 @@
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40"/>
       <c r="C4" s="38" t="s">
         <v>29</v>
@@ -3260,7 +3260,7 @@
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="41"/>
       <c r="C5" s="17" t="s">
         <v>5</v>
@@ -3294,7 +3294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <v>1</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>180.44</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <v>2</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>190.84</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <v>3</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>186.8</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <v>4</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>183.21</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19">
         <v>5</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>189.79</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <v>6</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>182.7</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <v>7</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>177.83</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <v>8</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>183.91</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <v>9</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>189.62</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19">
         <v>10</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>190.82</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <v>11</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>189.43</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <v>12</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>187.73</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <v>13</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>178.69</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <v>14</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>187.64</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19">
         <v>15</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>173.42</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <v>16</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>184.49</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <v>17</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>181.92</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <v>18</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>189.23</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <v>19</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>178.35</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19">
         <v>20</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>184.16</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <v>21</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>184.58</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <v>22</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>187.49</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <v>23</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>182.33</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <v>24</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>181.93</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="19">
         <v>25</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>181.08</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <v>26</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>182.44</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
         <v>27</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>187.18</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>175.36</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>179.48</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="19">
         <v>30</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>186.33</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
         <v>32</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>173.42</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="21" t="s">
         <v>31</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>190.84</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
         <v>30</v>
       </c>
@@ -4532,41 +4532,41 @@
   </sheetPr>
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="33" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="33" customWidth="1"/>
-    <col min="8" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" style="33" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="33" customWidth="1"/>
+    <col min="8" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="43" t="s">
@@ -4574,10 +4574,10 @@
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="42" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="43" t="s">
@@ -4586,9 +4586,9 @@
       <c r="J3" s="43"/>
       <c r="K3" s="43"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
@@ -4598,8 +4598,8 @@
       <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="32" t="s">
         <v>2</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>25</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
       <c r="B6" s="31">
         <v>16</v>
@@ -4670,7 +4670,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
       <c r="B7" s="31">
         <v>24</v>
@@ -4698,7 +4698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="35">
         <v>32</v>
@@ -4726,7 +4726,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>50</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
       <c r="B10" s="31">
         <v>16</v>
@@ -4786,7 +4786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="31">
         <v>24</v>
@@ -4814,7 +4814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="35">
         <v>32</v>
@@ -4842,14 +4842,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="43" t="s">
@@ -4857,10 +4857,10 @@
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="43"/>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="42" t="s">
         <v>1</v>
       </c>
       <c r="I14" s="43" t="s">
@@ -4869,9 +4869,9 @@
       <c r="J14" s="43"/>
       <c r="K14" s="43"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="32" t="s">
         <v>2</v>
       </c>
@@ -4881,8 +4881,8 @@
       <c r="E15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="32" t="s">
         <v>2</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>25</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="31">
         <v>16</v>
@@ -4953,7 +4953,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="31">
         <v>24</v>
@@ -4981,7 +4981,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="35">
         <v>32</v>
@@ -5009,7 +5009,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>50</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="31">
         <v>16</v>
@@ -5069,7 +5069,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="31">
         <v>24</v>
@@ -5097,7 +5097,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="35"/>
       <c r="B23" s="35">
         <v>32</v>
@@ -5125,14 +5125,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -5140,10 +5140,10 @@
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="43"/>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="44" t="s">
+      <c r="H25" s="42" t="s">
         <v>1</v>
       </c>
       <c r="I25" s="43" t="s">
@@ -5152,9 +5152,9 @@
       <c r="J25" s="43"/>
       <c r="K25" s="43"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="32" t="s">
         <v>2</v>
       </c>
@@ -5164,8 +5164,8 @@
       <c r="E26" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="32" t="s">
         <v>2</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <v>25</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="31">
         <v>16</v>
@@ -5236,7 +5236,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="31">
         <v>24</v>
@@ -5264,7 +5264,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="35">
         <v>32</v>
@@ -5292,7 +5292,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <v>50</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="31">
         <v>16</v>
@@ -5352,7 +5352,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="B33" s="31">
         <v>24</v>
@@ -5380,7 +5380,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="35"/>
       <c r="B34" s="35">
         <v>32</v>
@@ -5408,14 +5408,14 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H35" s="33"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="43" t="s">
@@ -5423,10 +5423,10 @@
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="44" t="s">
+      <c r="H36" s="42" t="s">
         <v>1</v>
       </c>
       <c r="I36" s="43" t="s">
@@ -5435,9 +5435,9 @@
       <c r="J36" s="43"/>
       <c r="K36" s="43"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="32" t="s">
         <v>2</v>
       </c>
@@ -5447,8 +5447,8 @@
       <c r="E37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="32" t="s">
         <v>2</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
         <v>25</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="31"/>
       <c r="B39" s="31">
         <v>16</v>
@@ -5519,7 +5519,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="31"/>
       <c r="B40" s="31">
         <v>24</v>
@@ -5547,7 +5547,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="31"/>
       <c r="B41" s="35">
         <v>32</v>
@@ -5575,7 +5575,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <v>50</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="31"/>
       <c r="B43" s="31">
         <v>16</v>
@@ -5635,7 +5635,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
       <c r="B44" s="31">
         <v>24</v>
@@ -5663,7 +5663,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="35">
         <v>32</v>
@@ -5691,14 +5691,14 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H46" s="33"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="43" t="s">
@@ -5706,10 +5706,10 @@
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
-      <c r="G47" s="44" t="s">
+      <c r="G47" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="H47" s="42" t="s">
         <v>1</v>
       </c>
       <c r="I47" s="43" t="s">
@@ -5718,9 +5718,9 @@
       <c r="J47" s="43"/>
       <c r="K47" s="43"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="32" t="s">
         <v>2</v>
       </c>
@@ -5730,8 +5730,8 @@
       <c r="E48" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
       <c r="I48" s="32" t="s">
         <v>2</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
         <v>25</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="31"/>
       <c r="B50" s="31">
         <v>16</v>
@@ -5802,7 +5802,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="31"/>
       <c r="B51" s="31">
         <v>24</v>
@@ -5830,7 +5830,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="31"/>
       <c r="B52" s="35">
         <v>32</v>
@@ -5858,7 +5858,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="31">
         <v>50</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="31"/>
       <c r="B54" s="31">
         <v>16</v>
@@ -5918,7 +5918,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="31"/>
       <c r="B55" s="31">
         <v>24</v>
@@ -5946,7 +5946,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="35"/>
       <c r="B56" s="35">
         <v>32</v>
@@ -5976,25 +5976,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A36:A37"/>
@@ -6008,6 +5989,25 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C36:E36"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:E47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B48742-7233-434A-BD2A-B0F6F874F2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F0E4BB-1EB8-44C7-B852-6D19EBF8F48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hasil evaluasi linux" sheetId="1" r:id="rId1"/>
@@ -355,9 +355,6 @@
     <t>1247.08</t>
   </si>
   <si>
-    <t>5512.10</t>
-  </si>
-  <si>
     <t>1957.51</t>
   </si>
   <si>
@@ -779,6 +776,9 @@
   </si>
   <si>
     <t>GRU</t>
+  </si>
+  <si>
+    <t>4512.10</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -921,11 +921,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1042,13 +1105,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1362,12 +1440,12 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="15.6640625" style="2" customWidth="1"/>
+    <col min="1" max="8" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +1471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1419,7 +1497,7 @@
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.996</v>
       </c>
@@ -1445,7 +1523,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.99660000000000004</v>
       </c>
@@ -1471,7 +1549,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.99670000000000003</v>
       </c>
@@ -1497,7 +1575,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1523,7 +1601,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1549,7 +1627,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1575,7 +1653,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1601,7 +1679,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1627,7 +1705,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1653,7 +1731,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1679,7 +1757,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1705,7 +1783,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.99750000000000005</v>
       </c>
@@ -1731,7 +1809,7 @@
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.99729999999999996</v>
       </c>
@@ -1757,7 +1835,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1783,7 +1861,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1809,7 +1887,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.99670000000000003</v>
       </c>
@@ -1835,7 +1913,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1861,7 +1939,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1887,7 +1965,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1913,7 +1991,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.99660000000000004</v>
       </c>
@@ -1939,7 +2017,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1965,7 +2043,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1991,7 +2069,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -2017,7 +2095,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -2043,7 +2121,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -2069,7 +2147,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.99660000000000004</v>
       </c>
@@ -2095,7 +2173,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.996</v>
       </c>
@@ -2121,7 +2199,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.996</v>
       </c>
@@ -2147,7 +2225,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.99650000000000005</v>
       </c>
@@ -2186,13 +2264,13 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="15.6640625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="10" width="15.7109375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2224,7 +2302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>0.99629999999999996</v>
       </c>
@@ -2256,7 +2334,7 @@
         <v>180.44</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>0.99619999999999997</v>
       </c>
@@ -2288,7 +2366,7 @@
         <v>190.84</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>0.99629999999999996</v>
       </c>
@@ -2320,7 +2398,7 @@
         <v>186.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>0.996</v>
       </c>
@@ -2352,7 +2430,7 @@
         <v>183.21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>0.99670000000000003</v>
       </c>
@@ -2384,7 +2462,7 @@
         <v>189.79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>0.99619999999999997</v>
       </c>
@@ -2416,7 +2494,7 @@
         <v>182.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>0.99629999999999996</v>
       </c>
@@ -2448,7 +2526,7 @@
         <v>177.83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>0.996</v>
       </c>
@@ -2480,7 +2558,7 @@
         <v>183.91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>0.99650000000000005</v>
       </c>
@@ -2512,7 +2590,7 @@
         <v>189.62</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>0.99619999999999997</v>
       </c>
@@ -2544,7 +2622,7 @@
         <v>190.82</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>0.99670000000000003</v>
       </c>
@@ -2576,7 +2654,7 @@
         <v>189.43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>0.99639999999999995</v>
       </c>
@@ -2608,7 +2686,7 @@
         <v>187.73</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>0.996</v>
       </c>
@@ -2640,7 +2718,7 @@
         <v>178.69</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>0.99639999999999995</v>
       </c>
@@ -2672,7 +2750,7 @@
         <v>187.64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>0.99619999999999997</v>
       </c>
@@ -2704,7 +2782,7 @@
         <v>173.42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>0.99609999999999999</v>
       </c>
@@ -2736,7 +2814,7 @@
         <v>184.49</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>0.99619999999999997</v>
       </c>
@@ -2768,7 +2846,7 @@
         <v>181.92</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>0.99609999999999999</v>
       </c>
@@ -2800,7 +2878,7 @@
         <v>189.23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>0.99650000000000005</v>
       </c>
@@ -2832,7 +2910,7 @@
         <v>178.35</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>0.99619999999999997</v>
       </c>
@@ -2864,7 +2942,7 @@
         <v>184.16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>0.99629999999999996</v>
       </c>
@@ -2896,7 +2974,7 @@
         <v>184.58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>0.99629999999999996</v>
       </c>
@@ -2928,7 +3006,7 @@
         <v>187.49</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>0.99650000000000005</v>
       </c>
@@ -2960,7 +3038,7 @@
         <v>182.33</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>0.99650000000000005</v>
       </c>
@@ -2992,7 +3070,7 @@
         <v>181.93</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>0.99650000000000005</v>
       </c>
@@ -3024,7 +3102,7 @@
         <v>181.08</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>0.99609999999999999</v>
       </c>
@@ -3056,7 +3134,7 @@
         <v>182.44</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>0.99650000000000005</v>
       </c>
@@ -3088,7 +3166,7 @@
         <v>187.18</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>0.99660000000000004</v>
       </c>
@@ -3120,7 +3198,7 @@
         <v>175.36</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>0.99629999999999996</v>
       </c>
@@ -3152,7 +3230,7 @@
         <v>179.48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>0.99629999999999996</v>
       </c>
@@ -3198,15 +3276,15 @@
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9.109375" style="14"/>
-    <col min="5" max="5" width="9.109375" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="14"/>
+    <col min="1" max="4" width="9.140625" style="14"/>
+    <col min="5" max="5" width="9.140625" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
         <v>25</v>
       </c>
@@ -3224,7 +3302,7 @@
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
     </row>
-    <row r="3" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="40"/>
       <c r="C3" s="38" t="s">
         <v>27</v>
@@ -3242,7 +3320,7 @@
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="40"/>
       <c r="C4" s="38" t="s">
         <v>29</v>
@@ -3260,7 +3338,7 @@
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41"/>
       <c r="C5" s="17" t="s">
         <v>5</v>
@@ -3294,7 +3372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="18">
         <v>1</v>
       </c>
@@ -3330,7 +3408,7 @@
         <v>180.44</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="18">
         <v>2</v>
       </c>
@@ -3366,7 +3444,7 @@
         <v>190.84</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="18">
         <v>3</v>
       </c>
@@ -3402,7 +3480,7 @@
         <v>186.8</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>4</v>
       </c>
@@ -3438,7 +3516,7 @@
         <v>183.21</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>5</v>
       </c>
@@ -3474,7 +3552,7 @@
         <v>189.79</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="18">
         <v>6</v>
       </c>
@@ -3510,7 +3588,7 @@
         <v>182.7</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="18">
         <v>7</v>
       </c>
@@ -3546,7 +3624,7 @@
         <v>177.83</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="18">
         <v>8</v>
       </c>
@@ -3582,7 +3660,7 @@
         <v>183.91</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="18">
         <v>9</v>
       </c>
@@ -3618,7 +3696,7 @@
         <v>189.62</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
         <v>10</v>
       </c>
@@ -3654,7 +3732,7 @@
         <v>190.82</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="18">
         <v>11</v>
       </c>
@@ -3690,7 +3768,7 @@
         <v>189.43</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="18">
         <v>12</v>
       </c>
@@ -3726,7 +3804,7 @@
         <v>187.73</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="18">
         <v>13</v>
       </c>
@@ -3762,7 +3840,7 @@
         <v>178.69</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="18">
         <v>14</v>
       </c>
@@ -3798,7 +3876,7 @@
         <v>187.64</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19">
         <v>15</v>
       </c>
@@ -3834,7 +3912,7 @@
         <v>173.42</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="18">
         <v>16</v>
       </c>
@@ -3870,7 +3948,7 @@
         <v>184.49</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="18">
         <v>17</v>
       </c>
@@ -3906,7 +3984,7 @@
         <v>181.92</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="18">
         <v>18</v>
       </c>
@@ -3942,7 +4020,7 @@
         <v>189.23</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="18">
         <v>19</v>
       </c>
@@ -3978,7 +4056,7 @@
         <v>178.35</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19">
         <v>20</v>
       </c>
@@ -4014,7 +4092,7 @@
         <v>184.16</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="18">
         <v>21</v>
       </c>
@@ -4050,7 +4128,7 @@
         <v>184.58</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="18">
         <v>22</v>
       </c>
@@ -4086,7 +4164,7 @@
         <v>187.49</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="18">
         <v>23</v>
       </c>
@@ -4122,7 +4200,7 @@
         <v>182.33</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="18">
         <v>24</v>
       </c>
@@ -4158,7 +4236,7 @@
         <v>181.93</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19">
         <v>25</v>
       </c>
@@ -4194,7 +4272,7 @@
         <v>181.08</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="18">
         <v>26</v>
       </c>
@@ -4230,7 +4308,7 @@
         <v>182.44</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="18">
         <v>27</v>
       </c>
@@ -4266,7 +4344,7 @@
         <v>187.18</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -4302,7 +4380,7 @@
         <v>175.36</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -4338,7 +4416,7 @@
         <v>179.48</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="19">
         <v>30</v>
       </c>
@@ -4374,7 +4452,7 @@
         <v>186.33</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
         <v>32</v>
       </c>
@@ -4419,7 +4497,7 @@
         <v>173.42</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
         <v>31</v>
       </c>
@@ -4465,7 +4543,7 @@
         <v>190.84</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="21" t="s">
         <v>30</v>
       </c>
@@ -4530,65 +4608,65 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" style="33" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="33" customWidth="1"/>
-    <col min="8" max="11" width="15.6640625" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" style="33" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="33" customWidth="1"/>
+    <col min="8" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="G3" s="42" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="G3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="47" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
@@ -4598,8 +4676,8 @@
       <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="32" t="s">
         <v>2</v>
       </c>
@@ -4609,8 +4687,9 @@
       <c r="K4" s="32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>25</v>
       </c>
@@ -4641,8 +4720,9 @@
       <c r="K5" s="34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="31">
         <v>16</v>
@@ -4669,8 +4749,9 @@
       <c r="K6" s="34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="31">
         <v>24</v>
@@ -4697,8 +4778,9 @@
       <c r="K7" s="34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="35">
         <v>32</v>
@@ -4725,8 +4807,9 @@
       <c r="K8" s="34" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>50</v>
       </c>
@@ -4757,8 +4840,9 @@
       <c r="K9" s="34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="31">
         <v>16</v>
@@ -4785,8 +4869,9 @@
       <c r="K10" s="34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="31">
         <v>24</v>
@@ -4813,8 +4898,9 @@
       <c r="K11" s="34" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="35">
         <v>32</v>
@@ -4841,37 +4927,40 @@
       <c r="K12" s="34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H13" s="33"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="G14" s="42" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="G14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="32" t="s">
         <v>2</v>
       </c>
@@ -4881,8 +4970,8 @@
       <c r="E15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="32" t="s">
         <v>2</v>
       </c>
@@ -4892,8 +4981,9 @@
       <c r="K15" s="32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>25</v>
       </c>
@@ -4901,7 +4991,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>63</v>
@@ -4924,8 +5014,9 @@
       <c r="K16" s="34" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="31">
         <v>16</v>
@@ -4952,8 +5043,9 @@
       <c r="K17" s="34" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="31">
         <v>24</v>
@@ -4980,8 +5072,9 @@
       <c r="K18" s="34" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="35">
         <v>32</v>
@@ -5008,8 +5101,9 @@
       <c r="K19" s="34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>50</v>
       </c>
@@ -5040,8 +5134,9 @@
       <c r="K20" s="34" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="31">
         <v>16</v>
@@ -5068,8 +5163,9 @@
       <c r="K21" s="30" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="31">
         <v>24</v>
@@ -5097,7 +5193,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35">
         <v>32</v>
@@ -5125,36 +5221,36 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="G25" s="42" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="G25" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="32" t="s">
         <v>2</v>
       </c>
@@ -5164,8 +5260,8 @@
       <c r="E26" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="32" t="s">
         <v>2</v>
       </c>
@@ -5176,7 +5272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>25</v>
       </c>
@@ -5184,13 +5280,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="E27" s="34" t="s">
         <v>111</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>112</v>
       </c>
       <c r="G27" s="31">
         <v>25</v>
@@ -5199,100 +5295,100 @@
         <v>8</v>
       </c>
       <c r="I27" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="K27" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="31">
         <v>16</v>
       </c>
       <c r="C28" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>114</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>115</v>
       </c>
       <c r="G28" s="31"/>
       <c r="H28" s="31">
         <v>16</v>
       </c>
       <c r="I28" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="J28" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="J28" s="34" t="s">
+      <c r="K28" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="K28" s="34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31">
         <v>24</v>
       </c>
       <c r="C29" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="E29" s="34" t="s">
         <v>117</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>118</v>
       </c>
       <c r="G29" s="31"/>
       <c r="H29" s="31">
         <v>24</v>
       </c>
       <c r="I29" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="J29" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="J29" s="34" t="s">
+      <c r="K29" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="K29" s="34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="35">
         <v>32</v>
       </c>
       <c r="C30" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="E30" s="34" t="s">
         <v>120</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>121</v>
       </c>
       <c r="G30" s="31"/>
       <c r="H30" s="35">
         <v>32</v>
       </c>
       <c r="I30" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J30" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="J30" s="34" t="s">
+      <c r="K30" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="K30" s="34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>50</v>
       </c>
@@ -5300,13 +5396,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="E31" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>124</v>
       </c>
       <c r="G31" s="31">
         <v>50</v>
@@ -5315,129 +5411,129 @@
         <v>8</v>
       </c>
       <c r="I31" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="J31" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="K31" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="K31" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="31">
         <v>16</v>
       </c>
       <c r="C32" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="E32" s="34" t="s">
         <v>126</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>127</v>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="31">
         <v>16</v>
       </c>
       <c r="I32" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="J32" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="J32" s="30" t="s">
+      <c r="K32" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="K32" s="34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="31">
         <v>24</v>
       </c>
       <c r="C33" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="E33" s="34" t="s">
         <v>129</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>130</v>
       </c>
       <c r="G33" s="31"/>
       <c r="H33" s="31">
         <v>24</v>
       </c>
       <c r="I33" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="J33" s="34" t="s">
+      <c r="K33" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="K33" s="34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="35">
         <v>32</v>
       </c>
       <c r="C34" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="E34" s="34" t="s">
         <v>132</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>133</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="35">
         <v>32</v>
       </c>
       <c r="I34" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="J34" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="K34" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="K34" s="34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H35" s="33"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="G36" s="42" t="s">
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="G36" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H36" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="43" t="s">
+      <c r="I36" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="32" t="s">
         <v>2</v>
       </c>
@@ -5447,8 +5543,8 @@
       <c r="E37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
       <c r="I37" s="32" t="s">
         <v>2</v>
       </c>
@@ -5459,7 +5555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
         <v>25</v>
       </c>
@@ -5467,13 +5563,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="E38" s="34" t="s">
         <v>159</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>160</v>
       </c>
       <c r="G38" s="31">
         <v>25</v>
@@ -5482,100 +5578,100 @@
         <v>8</v>
       </c>
       <c r="I38" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="J38" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="J38" s="34" t="s">
+      <c r="K38" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="K38" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="31">
         <v>16</v>
       </c>
       <c r="C39" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="E39" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="31">
         <v>16</v>
       </c>
       <c r="I39" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="J39" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="J39" s="34" t="s">
+      <c r="K39" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="K39" s="34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="B40" s="31">
         <v>24</v>
       </c>
       <c r="C40" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="E40" s="34" t="s">
         <v>165</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>166</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="31">
         <v>24</v>
       </c>
       <c r="I40" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="K40" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="K40" s="34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="B41" s="35">
         <v>32</v>
       </c>
       <c r="C41" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="E41" s="34" t="s">
         <v>168</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>169</v>
       </c>
       <c r="G41" s="31"/>
       <c r="H41" s="35">
         <v>32</v>
       </c>
       <c r="I41" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="K41" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="J41" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="K41" s="34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
         <v>50</v>
       </c>
@@ -5583,13 +5679,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="E42" s="34" t="s">
         <v>171</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>172</v>
       </c>
       <c r="G42" s="31">
         <v>50</v>
@@ -5598,129 +5694,129 @@
         <v>8</v>
       </c>
       <c r="I42" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J42" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="J42" s="34" t="s">
-        <v>194</v>
-      </c>
       <c r="K42" s="34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="B43" s="31">
         <v>16</v>
       </c>
       <c r="C43" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="E43" s="34" t="s">
         <v>174</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>175</v>
       </c>
       <c r="G43" s="31"/>
       <c r="H43" s="31">
         <v>16</v>
       </c>
       <c r="I43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J43" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="J43" s="30" t="s">
+      <c r="K43" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="K43" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="31">
         <v>24</v>
       </c>
       <c r="C44" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="E44" s="34" t="s">
         <v>177</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>178</v>
       </c>
       <c r="G44" s="31"/>
       <c r="H44" s="31">
         <v>24</v>
       </c>
       <c r="I44" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="J44" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="K44" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="K44" s="34" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="35">
         <v>32</v>
       </c>
       <c r="C45" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="E45" s="34" t="s">
         <v>180</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>181</v>
       </c>
       <c r="G45" s="35"/>
       <c r="H45" s="35">
         <v>32</v>
       </c>
       <c r="I45" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="K45" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="J45" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="K45" s="34" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H46" s="33"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="42" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="G47" s="42" t="s">
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="G47" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="42" t="s">
+      <c r="H47" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I47" s="43" t="s">
+      <c r="I47" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="32" t="s">
         <v>2</v>
       </c>
@@ -5730,8 +5826,8 @@
       <c r="E48" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
       <c r="I48" s="32" t="s">
         <v>2</v>
       </c>
@@ -5742,7 +5838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
         <v>25</v>
       </c>
@@ -5750,13 +5846,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="E49" s="34" t="s">
         <v>204</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>205</v>
       </c>
       <c r="G49" s="31">
         <v>25</v>
@@ -5765,100 +5861,100 @@
         <v>8</v>
       </c>
       <c r="I49" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="J49" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="J49" s="34" t="s">
+      <c r="K49" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="K49" s="34" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="31">
         <v>16</v>
       </c>
       <c r="C50" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="E50" s="34" t="s">
         <v>207</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>208</v>
       </c>
       <c r="G50" s="31"/>
       <c r="H50" s="31">
         <v>16</v>
       </c>
       <c r="I50" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J50" s="36">
         <v>103690</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="31">
         <v>24</v>
       </c>
       <c r="C51" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="E51" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="G51" s="31"/>
       <c r="H51" s="31">
         <v>24</v>
       </c>
       <c r="I51" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="J51" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="J51" s="34" t="s">
+      <c r="K51" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="K51" s="34" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="B52" s="35">
         <v>32</v>
       </c>
       <c r="C52" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="E52" s="34" t="s">
         <v>213</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>214</v>
       </c>
       <c r="G52" s="31"/>
       <c r="H52" s="35">
         <v>32</v>
       </c>
       <c r="I52" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="J52" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="J52" s="34" t="s">
+      <c r="K52" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="K52" s="34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
         <v>50</v>
       </c>
@@ -5866,13 +5962,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="E53" s="34" t="s">
         <v>216</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>217</v>
       </c>
       <c r="G53" s="31">
         <v>50</v>
@@ -5881,101 +5977,120 @@
         <v>8</v>
       </c>
       <c r="I53" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="J53" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="J53" s="34" t="s">
+      <c r="K53" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="K53" s="34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
       <c r="B54" s="31">
         <v>16</v>
       </c>
       <c r="C54" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="E54" s="34" t="s">
         <v>219</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>220</v>
       </c>
       <c r="G54" s="31"/>
       <c r="H54" s="31">
         <v>16</v>
       </c>
       <c r="I54" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="J54" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="J54" s="30" t="s">
+      <c r="K54" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="K54" s="34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
       <c r="B55" s="31">
         <v>24</v>
       </c>
       <c r="C55" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="E55" s="34" t="s">
         <v>222</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>223</v>
       </c>
       <c r="G55" s="31"/>
       <c r="H55" s="31">
         <v>24</v>
       </c>
       <c r="I55" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="J55" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="J55" s="34" t="s">
+      <c r="K55" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="K55" s="34" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
       <c r="B56" s="35">
         <v>32</v>
       </c>
       <c r="C56" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="E56" s="34" t="s">
         <v>225</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>226</v>
       </c>
       <c r="G56" s="35"/>
       <c r="H56" s="37">
         <v>32</v>
       </c>
       <c r="I56" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J56" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="J56" s="34" t="s">
+      <c r="K56" s="34" t="s">
         <v>248</v>
-      </c>
-      <c r="K56" s="34" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A36:A37"/>
@@ -5989,25 +6104,6 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C36:E36"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:E47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F0E4BB-1EB8-44C7-B852-6D19EBF8F48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B1EC7-7660-45EE-8527-4A2B2058D47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hasil evaluasi linux" sheetId="1" r:id="rId1"/>
@@ -988,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1105,7 +1105,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1117,17 +1129,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1440,12 +1443,12 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="8" width="15.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.996</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.99660000000000004</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.99670000000000003</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.99750000000000005</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0.99729999999999996</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.99670000000000003</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.99660000000000004</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0.99629999999999996</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0.99619999999999997</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0.99609999999999999</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.99660000000000004</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0.996</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.996</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.99650000000000005</v>
       </c>
@@ -2264,13 +2267,13 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="15.7109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="10" width="15.6640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0.99629999999999996</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>180.44</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>0.99619999999999997</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>190.84</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>0.99629999999999996</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>186.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>0.996</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>183.21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>0.99670000000000003</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>189.79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>0.99619999999999997</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>182.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>0.99629999999999996</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>177.83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>0.996</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>183.91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>0.99650000000000005</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>189.62</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>0.99619999999999997</v>
       </c>
@@ -2622,7 +2625,7 @@
         <v>190.82</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>0.99670000000000003</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>189.43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>0.99639999999999995</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>187.73</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>0.996</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>178.69</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>0.99639999999999995</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>187.64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>0.99619999999999997</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>173.42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>0.99609999999999999</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>184.49</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>0.99619999999999997</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>181.92</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>0.99609999999999999</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>189.23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>0.99650000000000005</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>178.35</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>0.99619999999999997</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>184.16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>0.99629999999999996</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>184.58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>0.99629999999999996</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>187.49</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>0.99650000000000005</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>182.33</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>0.99650000000000005</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>181.93</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>0.99650000000000005</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>181.08</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>0.99609999999999999</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>182.44</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>0.99650000000000005</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v>187.18</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>0.99660000000000004</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>175.36</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>0.99629999999999996</v>
       </c>
@@ -3230,7 +3233,7 @@
         <v>179.48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>0.99629999999999996</v>
       </c>
@@ -3272,19 +3275,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26D4FA5-6F71-4282-864C-DFF5C220069E}">
   <dimension ref="B1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="14"/>
-    <col min="5" max="5" width="9.140625" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="4" width="9.109375" style="14"/>
+    <col min="5" max="5" width="9.109375" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="39" t="s">
         <v>25</v>
       </c>
@@ -3302,7 +3305,7 @@
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
     </row>
-    <row r="3" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40"/>
       <c r="C3" s="38" t="s">
         <v>27</v>
@@ -3320,7 +3323,7 @@
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40"/>
       <c r="C4" s="38" t="s">
         <v>29</v>
@@ -3338,7 +3341,7 @@
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="41"/>
       <c r="C5" s="17" t="s">
         <v>5</v>
@@ -3372,7 +3375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <v>1</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>180.44</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <v>2</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>190.84</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <v>3</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>186.8</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <v>4</v>
       </c>
@@ -3516,7 +3519,7 @@
         <v>183.21</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19">
         <v>5</v>
       </c>
@@ -3552,7 +3555,7 @@
         <v>189.79</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <v>6</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>182.7</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <v>7</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>177.83</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <v>8</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>183.91</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <v>9</v>
       </c>
@@ -3696,7 +3699,7 @@
         <v>189.62</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19">
         <v>10</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>190.82</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <v>11</v>
       </c>
@@ -3768,7 +3771,7 @@
         <v>189.43</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <v>12</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>187.73</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <v>13</v>
       </c>
@@ -3840,7 +3843,7 @@
         <v>178.69</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <v>14</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>187.64</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19">
         <v>15</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>173.42</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <v>16</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>184.49</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <v>17</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>181.92</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <v>18</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>189.23</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <v>19</v>
       </c>
@@ -4056,7 +4059,7 @@
         <v>178.35</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19">
         <v>20</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>184.16</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <v>21</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>184.58</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <v>22</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>187.49</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <v>23</v>
       </c>
@@ -4200,7 +4203,7 @@
         <v>182.33</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <v>24</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>181.93</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="19">
         <v>25</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>181.08</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <v>26</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>182.44</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
         <v>27</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>187.18</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>175.36</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>179.48</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="19">
         <v>30</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>186.33</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
         <v>32</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>173.42</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="21" t="s">
         <v>31</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>190.84</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
         <v>30</v>
       </c>
@@ -4610,63 +4613,63 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="33" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="33" customWidth="1"/>
-    <col min="8" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" style="33" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="33" customWidth="1"/>
+    <col min="8" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="G3" s="47" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="G3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
@@ -4676,8 +4679,8 @@
       <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="32" t="s">
         <v>2</v>
       </c>
@@ -4689,7 +4692,7 @@
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>25</v>
       </c>
@@ -4722,7 +4725,7 @@
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
       <c r="B6" s="31">
         <v>16</v>
@@ -4751,7 +4754,7 @@
       </c>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
       <c r="B7" s="31">
         <v>24</v>
@@ -4780,7 +4783,7 @@
       </c>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="35">
         <v>32</v>
@@ -4809,7 +4812,7 @@
       </c>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>50</v>
       </c>
@@ -4842,7 +4845,7 @@
       </c>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
       <c r="B10" s="31">
         <v>16</v>
@@ -4871,7 +4874,7 @@
       </c>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="31">
         <v>24</v>
@@ -4900,7 +4903,7 @@
       </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="35">
         <v>32</v>
@@ -4911,7 +4914,7 @@
       <c r="D12" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="30" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="35"/>
@@ -4924,43 +4927,43 @@
       <c r="J12" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="30" t="s">
         <v>38</v>
       </c>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H13" s="33"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="G14" s="46" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="G14" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="32" t="s">
         <v>2</v>
       </c>
@@ -4970,8 +4973,8 @@
       <c r="E15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="32" t="s">
         <v>2</v>
       </c>
@@ -4983,7 +4986,7 @@
       </c>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>25</v>
       </c>
@@ -5011,12 +5014,12 @@
       <c r="J16" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="50" t="s">
         <v>88</v>
       </c>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="31">
         <v>16</v>
@@ -5040,12 +5043,12 @@
       <c r="J17" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="50" t="s">
         <v>91</v>
       </c>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="31">
         <v>24</v>
@@ -5069,12 +5072,12 @@
       <c r="J18" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="50" t="s">
         <v>94</v>
       </c>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="35">
         <v>32</v>
@@ -5098,12 +5101,12 @@
       <c r="J19" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="K19" s="50" t="s">
         <v>97</v>
       </c>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>50</v>
       </c>
@@ -5131,12 +5134,12 @@
       <c r="J20" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="50" t="s">
         <v>100</v>
       </c>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="31">
         <v>16</v>
@@ -5160,12 +5163,12 @@
       <c r="J21" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="50" t="s">
         <v>103</v>
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="31">
         <v>24</v>
@@ -5189,11 +5192,11 @@
       <c r="J22" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="K22" s="50" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="35"/>
       <c r="B23" s="35">
         <v>32</v>
@@ -5204,7 +5207,7 @@
       <c r="D23" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="30" t="s">
         <v>85</v>
       </c>
       <c r="G23" s="35"/>
@@ -5217,40 +5220,40 @@
       <c r="J23" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="G25" s="46" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="G25" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H25" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="32" t="s">
         <v>2</v>
       </c>
@@ -5260,8 +5263,8 @@
       <c r="E26" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="32" t="s">
         <v>2</v>
       </c>
@@ -5272,7 +5275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <v>25</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="31">
         <v>16</v>
@@ -5332,7 +5335,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="31">
         <v>24</v>
@@ -5360,7 +5363,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="35">
         <v>32</v>
@@ -5388,7 +5391,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <v>50</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="31">
         <v>16</v>
@@ -5448,7 +5451,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="B33" s="31">
         <v>24</v>
@@ -5476,7 +5479,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="35"/>
       <c r="B34" s="35">
         <v>32</v>
@@ -5487,7 +5490,7 @@
       <c r="D34" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="30" t="s">
         <v>132</v>
       </c>
       <c r="G34" s="35"/>
@@ -5500,40 +5503,40 @@
       <c r="J34" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="30" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H35" s="33"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="G36" s="46" t="s">
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="G36" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="46" t="s">
+      <c r="H36" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="49" t="s">
+      <c r="I36" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="32" t="s">
         <v>2</v>
       </c>
@@ -5543,8 +5546,8 @@
       <c r="E37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="32" t="s">
         <v>2</v>
       </c>
@@ -5555,7 +5558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
         <v>25</v>
       </c>
@@ -5587,7 +5590,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="31"/>
       <c r="B39" s="31">
         <v>16</v>
@@ -5615,7 +5618,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="31"/>
       <c r="B40" s="31">
         <v>24</v>
@@ -5643,7 +5646,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="31"/>
       <c r="B41" s="35">
         <v>32</v>
@@ -5671,7 +5674,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <v>50</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="31"/>
       <c r="B43" s="31">
         <v>16</v>
@@ -5731,7 +5734,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
       <c r="B44" s="31">
         <v>24</v>
@@ -5759,7 +5762,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="35">
         <v>32</v>
@@ -5770,7 +5773,7 @@
       <c r="D45" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="30" t="s">
         <v>180</v>
       </c>
       <c r="G45" s="35"/>
@@ -5783,40 +5786,40 @@
       <c r="J45" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="K45" s="34" t="s">
+      <c r="K45" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H46" s="33"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="46" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="G47" s="46" t="s">
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="G47" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="46" t="s">
+      <c r="H47" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I47" s="49" t="s">
+      <c r="I47" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="32" t="s">
         <v>2</v>
       </c>
@@ -5826,8 +5829,8 @@
       <c r="E48" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
       <c r="I48" s="32" t="s">
         <v>2</v>
       </c>
@@ -5838,7 +5841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
         <v>25</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="31"/>
       <c r="B50" s="31">
         <v>16</v>
@@ -5898,7 +5901,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="31"/>
       <c r="B51" s="31">
         <v>24</v>
@@ -5926,7 +5929,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="31"/>
       <c r="B52" s="35">
         <v>32</v>
@@ -5954,7 +5957,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="31">
         <v>50</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="31"/>
       <c r="B54" s="31">
         <v>16</v>
@@ -6014,7 +6017,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="31"/>
       <c r="B55" s="31">
         <v>24</v>
@@ -6042,7 +6045,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="35"/>
       <c r="B56" s="35">
         <v>32</v>
@@ -6053,7 +6056,7 @@
       <c r="D56" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="30" t="s">
         <v>225</v>
       </c>
       <c r="G56" s="35"/>
@@ -6066,31 +6069,12 @@
       <c r="J56" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="K56" s="34" t="s">
+      <c r="K56" s="30" t="s">
         <v>248</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A36:A37"/>
@@ -6104,6 +6088,25 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C36:E36"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:E47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dataset/hasil_penelitian.xlsx
+++ b/dataset/hasil_penelitian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-btc-usd-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B1EC7-7660-45EE-8527-4A2B2058D47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318122C9-984F-47C1-93FA-7CD0850AB3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -988,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1105,19 +1105,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1129,8 +1117,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4613,8 +4610,8 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4627,49 +4624,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="G3" s="45" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="G3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
@@ -4679,8 +4676,8 @@
       <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="32" t="s">
         <v>2</v>
       </c>
@@ -4937,33 +4934,33 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="G14" s="42" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="G14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="32" t="s">
         <v>2</v>
       </c>
@@ -4973,8 +4970,8 @@
       <c r="E15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="32" t="s">
         <v>2</v>
       </c>
@@ -5014,7 +5011,7 @@
       <c r="J16" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="34" t="s">
         <v>88</v>
       </c>
       <c r="M16" s="4"/>
@@ -5043,7 +5040,7 @@
       <c r="J17" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="34" t="s">
         <v>91</v>
       </c>
       <c r="M17" s="4"/>
@@ -5072,7 +5069,7 @@
       <c r="J18" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="34" t="s">
         <v>94</v>
       </c>
       <c r="M18" s="4"/>
@@ -5101,7 +5098,7 @@
       <c r="J19" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="34" t="s">
         <v>97</v>
       </c>
       <c r="M19" s="4"/>
@@ -5134,7 +5131,7 @@
       <c r="J20" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="K20" s="50" t="s">
+      <c r="K20" s="34" t="s">
         <v>100</v>
       </c>
       <c r="M20" s="4"/>
@@ -5163,7 +5160,7 @@
       <c r="J21" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="34" t="s">
         <v>103</v>
       </c>
       <c r="M21" s="4"/>
@@ -5192,7 +5189,7 @@
       <c r="J22" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="34" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5228,32 +5225,32 @@
       <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="G25" s="42" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="G25" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="32" t="s">
         <v>2</v>
       </c>
@@ -5263,8 +5260,8 @@
       <c r="E26" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="32" t="s">
         <v>2</v>
       </c>
@@ -5511,32 +5508,32 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="G36" s="42" t="s">
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="G36" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H36" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="43" t="s">
+      <c r="I36" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="32" t="s">
         <v>2</v>
       </c>
@@ -5546,8 +5543,8 @@
       <c r="E37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
       <c r="I37" s="32" t="s">
         <v>2</v>
       </c>
@@ -5794,32 +5791,32 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="G47" s="42" t="s">
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="G47" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="42" t="s">
+      <c r="H47" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I47" s="43" t="s">
+      <c r="I47" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="32" t="s">
         <v>2</v>
       </c>
@@ -5829,8 +5826,8 @@
       <c r="E48" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
       <c r="I48" s="32" t="s">
         <v>2</v>
       </c>
@@ -6075,6 +6072,25 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A36:A37"/>
@@ -6088,25 +6104,6 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C36:E36"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:E47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
